--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V80"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2137,34 +2137,34 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>2.77</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>18/08/2023 05:42</t>
+          <t>19/08/2023 09:20</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.09</v>
+        <v>2.77</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>19/08/2023 17:05</t>
+          <t>19/08/2023 09:20</t>
         </is>
       </c>
       <c r="N19" t="n">
@@ -2172,36 +2172,36 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>18/08/2023 05:42</t>
+          <t>19/08/2023 09:20</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.29</v>
+        <v>3.28</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>19/08/2023 17:05</t>
+          <t>19/08/2023 15:31</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.1</v>
+        <v>2.36</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>18/08/2023 05:42</t>
+          <t>19/08/2023 09:20</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.3</v>
+        <v>2.36</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>19/08/2023 17:05</t>
+          <t>19/08/2023 09:20</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-beltinci/l6hVgaJP/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-triglav/z3lRfu4J/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Fuzinar</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Triglav</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
       <c r="J20" t="n">
-        <v>2.77</v>
+        <v>1.41</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:20</t>
+          <t>18/08/2023 05:42</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.77</v>
+        <v>1.33</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:20</t>
+          <t>19/08/2023 15:09</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.26</v>
+        <v>4.49</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:20</t>
+          <t>18/08/2023 05:42</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.28</v>
+        <v>5.31</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>19/08/2023 15:31</t>
+          <t>19/08/2023 16:27</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.36</v>
+        <v>5.04</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:20</t>
+          <t>18/08/2023 05:42</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.36</v>
+        <v>6.88</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:20</t>
+          <t>19/08/2023 16:27</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-triglav/z3lRfu4J/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-fuzinar/2DY5mcdg/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.41</v>
+        <v>3.44</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>18/08/2023 05:42</t>
+          <t>19/08/2023 09:20</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.33</v>
+        <v>4.01</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>19/08/2023 15:09</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>4.49</v>
+        <v>3.28</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>18/08/2023 05:42</t>
+          <t>19/08/2023 09:20</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>5.31</v>
+        <v>3.38</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:27</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>5.04</v>
+        <v>2.02</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>18/08/2023 05:42</t>
+          <t>19/08/2023 09:20</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>6.88</v>
+        <v>1.85</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:27</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-fuzinar/2DY5mcdg/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-nd-gorica/t4X9nHBa/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.44</v>
+        <v>2</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>19/08/2023 09:20</t>
+          <t>18/08/2023 05:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4.01</v>
+        <v>2.09</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 17:05</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.28</v>
+        <v>3.26</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>19/08/2023 09:20</t>
+          <t>18/08/2023 05:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.38</v>
+        <v>3.29</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 17:05</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.02</v>
+        <v>3.1</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>19/08/2023 09:20</t>
+          <t>18/08/2023 05:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 17:05</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-nd-gorica/t4X9nHBa/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-beltinci/l6hVgaJP/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,14 +3801,14 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.89</v>
+        <v>2.14</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.71</v>
+        <v>2.08</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>03/09/2023 16:29</t>
+          <t>02/09/2023 16:22</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.44</v>
+        <v>3.28</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>4.26</v>
+        <v>3.5</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>03/09/2023 16:29</t>
+          <t>03/09/2023 14:34</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.21</v>
+        <v>2.81</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.57</v>
+        <v>3.08</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>03/09/2023 16:29</t>
+          <t>03/09/2023 12:42</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-bilje/OpYlml2A/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-bistrica/UPPMqFeI/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.08</v>
+        <v>2.61</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>02/09/2023 16:22</t>
+          <t>02/09/2023 11:38</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.28</v>
+        <v>3.21</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.5</v>
+        <v>3.32</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>03/09/2023 14:34</t>
+          <t>03/09/2023 14:31</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.81</v>
+        <v>2.74</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.08</v>
+        <v>2.46</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>03/09/2023 12:42</t>
+          <t>02/09/2023 11:38</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-bistrica/UPPMqFeI/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-nk-krka/6kmjSnQp/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.22</v>
+        <v>1.89</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,48 +4000,48 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.61</v>
+        <v>1.71</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>02/09/2023 11:38</t>
+          <t>03/09/2023 16:29</t>
         </is>
       </c>
       <c r="N39" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>02/09/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>03/09/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
         <v>3.21</v>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>02/09/2023 04:42</t>
         </is>
       </c>
-      <c r="P39" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>03/09/2023 14:31</t>
-        </is>
-      </c>
-      <c r="R39" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>02/09/2023 04:42</t>
-        </is>
-      </c>
       <c r="T39" t="n">
-        <v>2.46</v>
+        <v>3.57</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>02/09/2023 11:38</t>
+          <t>03/09/2023 16:29</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-nk-krka/6kmjSnQp/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-bilje/OpYlml2A/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1.19</v>
+        <v>1.54</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>09/09/2023 13:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.29</v>
+        <v>1.49</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:22</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>6.85</v>
+        <v>3.85</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>09/09/2023 13:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>5.9</v>
+        <v>4.38</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:22</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>8.869999999999999</v>
+        <v>4.49</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>09/09/2023 13:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>7.25</v>
+        <v>5.37</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:22</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-tabor-sezana/hMwQvQ9j/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-tolmin/MwmfpnnT/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.54</v>
+        <v>1.19</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 13:42</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.49</v>
+        <v>1.29</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>09/09/2023 16:22</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.85</v>
+        <v>6.85</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 13:42</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4.38</v>
+        <v>5.9</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>09/09/2023 16:22</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.49</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 13:42</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>5.37</v>
+        <v>7.25</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>09/09/2023 16:22</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-tolmin/MwmfpnnT/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-tabor-sezana/hMwQvQ9j/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>3.75</v>
+        <v>1.84</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>4.99</v>
+        <v>1.75</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:47</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.56</v>
+        <v>3.4</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>4.23</v>
+        <v>3.65</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:47</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>1.72</v>
+        <v>3.42</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>1.54</v>
+        <v>4.15</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:47</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-nk-krka/pf1lPsFR/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bistrica/je8uR3pF/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>1.84</v>
+        <v>2.44</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.4</v>
+        <v>3.32</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.42</v>
+        <v>2.45</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.15</v>
+        <v>2.46</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bistrica/je8uR3pF/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-ilirija/dY8ySqV8/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>2.44</v>
+        <v>3.75</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.45</v>
+        <v>4.99</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:47</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.32</v>
+        <v>3.56</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.7</v>
+        <v>4.23</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:47</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.45</v>
+        <v>1.72</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.46</v>
+        <v>1.54</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:47</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-ilirija/dY8ySqV8/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-nk-krka/pf1lPsFR/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.29</v>
+        <v>3.72</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.25</v>
+        <v>4.94</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>29/09/2023 13:45</t>
+          <t>29/09/2023 15:20</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>4.98</v>
+        <v>3.4</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>6.11</v>
+        <v>3.8</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>29/09/2023 15:29</t>
+          <t>29/09/2023 15:20</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>6.88</v>
+        <v>1.79</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>7.81</v>
+        <v>1.61</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>29/09/2023 15:29</t>
+          <t>29/09/2023 15:20</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-fuzinar/xQJeJCr6/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-primorje/f1UjKhTa/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>3.72</v>
+        <v>1.29</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4.94</v>
+        <v>1.25</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>29/09/2023 15:20</t>
+          <t>29/09/2023 13:45</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.4</v>
+        <v>4.98</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.8</v>
+        <v>6.11</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>29/09/2023 15:20</t>
+          <t>29/09/2023 15:29</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>1.79</v>
+        <v>6.88</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>1.61</v>
+        <v>7.81</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>29/09/2023 15:20</t>
+          <t>29/09/2023 15:29</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-primorje/f1UjKhTa/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-fuzinar/xQJeJCr6/</t>
         </is>
       </c>
     </row>
@@ -7814,6 +7814,374 @@
       <c r="V80" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-tolmin/8pSvNfqs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Primorje</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>ND Gorica</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:44</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:44</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:44</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-nd-gorica/pjN3HjDI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45206.64583333334</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Grosuplje</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Dravinja</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:03</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:19</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:19</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-dravinja/f1jMZXSn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45206.64583333334</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Beltinci</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>3</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>NK Bistrica</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:57</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:35</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:57</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-bistrica/Qo0juf5P/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45206.64583333334</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Bilje</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Jadran Dekani</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>2</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:15</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:15</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:15</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-jadran-dekani/YikQYirg/</t>
         </is>
       </c>
     </row>

--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:V87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>1.66</v>
+        <v>2.97</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.89</v>
+        <v>3.01</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 17:21</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.56</v>
+        <v>3.35</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.68</v>
+        <v>3.78</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 17:21</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>4.09</v>
+        <v>2.03</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.51</v>
+        <v>2.05</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 17:21</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-jadran-dekani/OpIQjBol/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-rudar/KCBZlkG0/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.97</v>
+        <v>1.66</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.01</v>
+        <v>1.89</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>13/08/2023 17:21</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.35</v>
+        <v>3.56</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.78</v>
+        <v>3.68</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>13/08/2023 17:21</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.03</v>
+        <v>4.09</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.05</v>
+        <v>3.51</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>13/08/2023 17:21</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-rudar/KCBZlkG0/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-jadran-dekani/OpIQjBol/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>1.84</v>
+        <v>2.44</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.4</v>
+        <v>3.32</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>3.42</v>
+        <v>2.45</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>4.15</v>
+        <v>2.46</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bistrica/je8uR3pF/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-ilirija/dY8ySqV8/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>2.44</v>
+        <v>1.84</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.45</v>
+        <v>3.42</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.46</v>
+        <v>4.15</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-ilirija/dY8ySqV8/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bistrica/je8uR3pF/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>3.15</v>
+        <v>1.4</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.52</v>
+        <v>1.38</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 15:43</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.16</v>
+        <v>4.36</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.17</v>
+        <v>4.76</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:41</t>
+          <t>24/09/2023 15:54</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.06</v>
+        <v>5.39</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.06</v>
+        <v>6.65</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:41</t>
+          <t>24/09/2023 15:54</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-jadran-dekani/GxhKJLxk/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-dravinja/n3mGK1Nr/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>1.4</v>
+        <v>3.15</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.38</v>
+        <v>3.52</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>24/09/2023 15:43</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>4.36</v>
+        <v>3.16</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>4.76</v>
+        <v>3.17</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>24/09/2023 15:54</t>
+          <t>24/09/2023 15:41</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>5.39</v>
+        <v>2.06</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>6.65</v>
+        <v>2.06</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>24/09/2023 15:54</t>
+          <t>24/09/2023 15:41</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-dravinja/n3mGK1Nr/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-jadran-dekani/GxhKJLxk/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>1.34</v>
+        <v>1.71</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.29</v>
+        <v>1.52</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 10:57</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>4.49</v>
+        <v>3.56</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>5.25</v>
+        <v>4.11</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>07/10/2023 15:19</t>
+          <t>07/10/2023 13:35</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>6.24</v>
+        <v>3.79</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>8.34</v>
+        <v>5.27</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>07/10/2023 15:19</t>
+          <t>07/10/2023 10:57</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-dravinja/f1jMZXSn/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-bistrica/Qo0juf5P/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>1.71</v>
+        <v>2.04</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.52</v>
+        <v>2.34</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>07/10/2023 10:57</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.56</v>
+        <v>3.22</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4.11</v>
+        <v>3.34</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>07/10/2023 13:35</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.79</v>
+        <v>3.06</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>5.27</v>
+        <v>2.8</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>07/10/2023 10:57</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-bistrica/Qo0juf5P/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-jadran-dekani/YikQYirg/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>2.04</v>
+        <v>1.34</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,48 +8140,324 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.34</v>
+        <v>1.29</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="N84" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:19</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:19</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-dravinja/f1jMZXSn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45207.64583333334</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Nafta</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>5</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:01</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>3.22</v>
       </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>06/10/2023 02:42</t>
-        </is>
-      </c>
-      <c r="P84" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:15</t>
-        </is>
-      </c>
-      <c r="R84" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>06/10/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T84" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>07/10/2023 15:15</t>
-        </is>
-      </c>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-jadran-dekani/YikQYirg/</t>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:01</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:01</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-nafta/jTqVXBca/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45207.64583333334</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Tabor Sezana</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Ilirija</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>3</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:47</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:01</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:47</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-ilirija/OtM7GASO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45207.64583333334</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Tolmin</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>NK Krka</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>3</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-nk-krka/0viIzEDt/</t>
         </is>
       </c>
     </row>

--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V87"/>
+  <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.03</v>
+        <v>1.66</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:40</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.25</v>
+        <v>1.89</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>13/08/2023 15:23</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.49</v>
+        <v>3.56</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:40</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.42</v>
+        <v>3.68</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>13/08/2023 15:34</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.21</v>
+        <v>4.09</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:40</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.83</v>
+        <v>3.51</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>13/08/2023 15:23</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-nafta/xlMUkV0f/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-jadran-dekani/OpIQjBol/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>1.66</v>
+        <v>2.03</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>13/08/2023 10:40</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.89</v>
+        <v>2.25</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 15:23</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.56</v>
+        <v>3.49</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>13/08/2023 10:40</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.68</v>
+        <v>3.42</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 15:34</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>4.09</v>
+        <v>3.21</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>13/08/2023 10:40</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.51</v>
+        <v>2.83</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 15:23</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-jadran-dekani/OpIQjBol/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-nafta/xlMUkV0f/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>2.44</v>
+        <v>3.75</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.45</v>
+        <v>4.99</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:47</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.32</v>
+        <v>3.56</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.7</v>
+        <v>4.23</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:47</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.45</v>
+        <v>1.72</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.46</v>
+        <v>1.54</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:47</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-ilirija/dY8ySqV8/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-nk-krka/pf1lPsFR/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>3.75</v>
+        <v>2.44</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>4.99</v>
+        <v>2.45</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:47</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.56</v>
+        <v>3.32</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.23</v>
+        <v>3.7</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:47</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>1.72</v>
+        <v>2.45</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>1.54</v>
+        <v>2.46</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:47</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-nk-krka/pf1lPsFR/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-ilirija/dY8ySqV8/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>ND Gorica</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>3</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Dravinja</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
       <c r="J69" t="n">
-        <v>1.4</v>
+        <v>3.01</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.38</v>
+        <v>3.77</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:43</t>
+          <t>24/09/2023 15:32</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.36</v>
+        <v>3.29</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.76</v>
+        <v>3.27</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:54</t>
+          <t>24/09/2023 15:39</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>5.39</v>
+        <v>2.03</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>6.65</v>
+        <v>1.94</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:54</t>
+          <t>24/09/2023 15:39</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-dravinja/n3mGK1Nr/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-nd-gorica/IsAXSPF2/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G71" t="n">
+        <v>3</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Dravinja</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ND Gorica</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>3</v>
-      </c>
       <c r="J71" t="n">
-        <v>3.01</v>
+        <v>1.4</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>3.77</v>
+        <v>1.38</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>24/09/2023 15:32</t>
+          <t>24/09/2023 15:43</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.29</v>
+        <v>4.36</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.27</v>
+        <v>4.76</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>24/09/2023 15:39</t>
+          <t>24/09/2023 15:54</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.03</v>
+        <v>5.39</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>1.94</v>
+        <v>6.65</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>24/09/2023 15:39</t>
+          <t>24/09/2023 15:54</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-nd-gorica/IsAXSPF2/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-dravinja/n3mGK1Nr/</t>
         </is>
       </c>
     </row>
@@ -8458,6 +8458,98 @@
       <c r="V87" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-nk-krka/0viIzEDt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45207.75</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Triglav</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Fuzinar</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>07/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:50</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>07/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:50</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>07/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:50</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-fuzinar/GGIaIWcC/</t>
         </is>
       </c>
     </row>

--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8553,6 +8553,98 @@
         </is>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45210.64583333334</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Grosuplje</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Nafta</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>23/09/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:41</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>23/09/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:41</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>23/09/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>11/10/2023 14:41</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-nafta/fTjOIuhe/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1593,63 +1593,63 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>1.64</v>
+        <v>2.03</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>13/08/2023 10:40</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.94</v>
+        <v>2.25</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>13/08/2023 16:02</t>
+          <t>13/08/2023 15:23</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>13/08/2023 10:40</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.51</v>
+        <v>3.42</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>13/08/2023 16:02</t>
+          <t>13/08/2023 15:34</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.07</v>
+        <v>3.21</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>13/08/2023 10:40</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.5</v>
+        <v>2.83</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>13/08/2023 16:02</t>
+          <t>13/08/2023 15:23</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bilje/b3Awl9V6/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-nafta/xlMUkV0f/</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1869,63 +1869,63 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.03</v>
+        <v>1.64</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>13/08/2023 10:40</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.25</v>
+        <v>1.94</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>13/08/2023 15:23</t>
+          <t>13/08/2023 16:02</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>13/08/2023 10:40</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.42</v>
+        <v>3.51</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>13/08/2023 15:34</t>
+          <t>13/08/2023 16:02</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.21</v>
+        <v>4.07</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>13/08/2023 10:40</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.83</v>
+        <v>3.5</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>13/08/2023 15:23</t>
+          <t>13/08/2023 16:02</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-nafta/xlMUkV0f/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bilje/b3Awl9V6/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>3.01</v>
+        <v>3.15</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.77</v>
+        <v>3.52</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:32</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.29</v>
+        <v>3.16</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.27</v>
+        <v>3.17</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:39</t>
+          <t>24/09/2023 15:41</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:39</t>
+          <t>24/09/2023 15:41</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-nd-gorica/IsAXSPF2/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-jadran-dekani/GxhKJLxk/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>3.15</v>
+        <v>1.4</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.52</v>
+        <v>1.38</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 15:43</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.16</v>
+        <v>4.36</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.17</v>
+        <v>4.76</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>24/09/2023 15:41</t>
+          <t>24/09/2023 15:54</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.06</v>
+        <v>5.39</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.06</v>
+        <v>6.65</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>24/09/2023 15:41</t>
+          <t>24/09/2023 15:54</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-jadran-dekani/GxhKJLxk/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-dravinja/n3mGK1Nr/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>ND Gorica</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
         <v>3</v>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Dravinja</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
       <c r="J71" t="n">
-        <v>1.4</v>
+        <v>3.01</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.38</v>
+        <v>3.77</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>24/09/2023 15:43</t>
+          <t>24/09/2023 15:32</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>4.36</v>
+        <v>3.29</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>4.76</v>
+        <v>3.27</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>24/09/2023 15:54</t>
+          <t>24/09/2023 15:39</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>5.39</v>
+        <v>2.03</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>6.65</v>
+        <v>1.94</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>24/09/2023 15:54</t>
+          <t>24/09/2023 15:39</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-dravinja/n3mGK1Nr/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-nd-gorica/IsAXSPF2/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>1.41</v>
+        <v>2.29</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,48 +7404,48 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.34</v>
+        <v>2.25</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
+          <t>30/09/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>29/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:25</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>29/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
           <t>30/09/2023 15:24</t>
         </is>
       </c>
-      <c r="N76" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>29/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="P76" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:29</t>
-        </is>
-      </c>
-      <c r="R76" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>29/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T76" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:29</t>
-        </is>
-      </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tabor-sezana/tbQnLYDg/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-triglav/jepXGJM7/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>3.27</v>
+        <v>1.41</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>4</v>
+        <v>1.34</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:24</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.13</v>
+        <v>4.29</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.26</v>
+        <v>5.2</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>1.99</v>
+        <v>5.33</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>1.89</v>
+        <v>6.9</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-grosuplje/rkXIvNEE/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tabor-sezana/tbQnLYDg/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.72</v>
+        <v>3.27</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.78</v>
+        <v>4</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.77</v>
+        <v>3.13</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.06</v>
+        <v>3.26</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.65</v>
+        <v>1.99</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.61</v>
+        <v>1.89</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-bilje/4bYEu3a8/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-grosuplje/rkXIvNEE/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.29</v>
+        <v>1.72</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.25</v>
+        <v>1.78</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.2</v>
+        <v>3.77</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.37</v>
+        <v>4.06</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:25</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.64</v>
+        <v>3.65</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.9</v>
+        <v>3.61</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:24</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-triglav/jepXGJM7/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-bilje/4bYEu3a8/</t>
         </is>
       </c>
     </row>
@@ -8642,6 +8642,98 @@
       <c r="V89" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-nafta/fTjOIuhe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45212.625</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>ND Gorica</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Tabor Sezana</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>12/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>13/10/2023 14:38</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>12/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>13/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>12/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>13/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-tabor-sezana/SEAamicn/</t>
         </is>
       </c>
     </row>

--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V90"/>
+  <dimension ref="A1:V94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>5.38</v>
+        <v>1.46</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3.21</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>12/08/2023 17:28</t>
+          <t>12/08/2023 15:46</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.93</v>
+        <v>4.4</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>4.31</v>
+        <v>4.27</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>12/08/2023 17:28</t>
+          <t>12/08/2023 15:46</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.51</v>
+        <v>5.23</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>1.8</v>
+        <v>5.41</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>12/08/2023 17:28</t>
+          <t>12/08/2023 15:46</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-grosuplje/hvPtmTpD/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-tolmin/WUNpnm0J/</t>
         </is>
       </c>
     </row>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>1.46</v>
+        <v>5.38</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.5</v>
+        <v>3.21</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>12/08/2023 15:46</t>
+          <t>12/08/2023 17:28</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4.4</v>
+        <v>3.93</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4.27</v>
+        <v>4.31</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>12/08/2023 15:46</t>
+          <t>12/08/2023 17:28</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>5.23</v>
+        <v>1.51</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>5.41</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>12/08/2023 15:46</t>
+          <t>12/08/2023 17:28</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-tolmin/WUNpnm0J/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-grosuplje/hvPtmTpD/</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1593,63 +1593,63 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.03</v>
+        <v>1.64</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>13/08/2023 10:40</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.25</v>
+        <v>1.94</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>13/08/2023 15:23</t>
+          <t>13/08/2023 16:02</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>13/08/2023 10:40</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.42</v>
+        <v>3.51</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>13/08/2023 15:34</t>
+          <t>13/08/2023 16:02</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.21</v>
+        <v>4.07</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>13/08/2023 10:40</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.83</v>
+        <v>3.5</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>13/08/2023 15:23</t>
+          <t>13/08/2023 16:02</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-nafta/xlMUkV0f/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bilje/b3Awl9V6/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>1.66</v>
+        <v>2.03</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>13/08/2023 10:40</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.89</v>
+        <v>2.25</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 15:23</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.56</v>
+        <v>3.49</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>13/08/2023 10:40</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.68</v>
+        <v>3.42</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 15:34</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>4.09</v>
+        <v>3.21</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>13/08/2023 10:40</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.51</v>
+        <v>2.83</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 15:23</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-jadran-dekani/OpIQjBol/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-nafta/xlMUkV0f/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.97</v>
+        <v>1.66</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.01</v>
+        <v>1.89</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>13/08/2023 17:21</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.35</v>
+        <v>3.56</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.78</v>
+        <v>3.68</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>13/08/2023 17:21</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.03</v>
+        <v>4.09</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.05</v>
+        <v>3.51</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>13/08/2023 17:21</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-rudar/KCBZlkG0/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-jadran-dekani/OpIQjBol/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>1.64</v>
+        <v>2.97</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.94</v>
+        <v>3.01</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>13/08/2023 16:02</t>
+          <t>13/08/2023 17:21</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.51</v>
+        <v>3.78</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>13/08/2023 16:02</t>
+          <t>13/08/2023 17:21</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>4.07</v>
+        <v>2.03</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>13/08/2023 16:02</t>
+          <t>13/08/2023 17:21</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bilje/b3Awl9V6/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-rudar/KCBZlkG0/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.77</v>
+        <v>3.44</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,48 +2160,48 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.77</v>
+        <v>4.01</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
+          <t>19/08/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
           <t>19/08/2023 09:20</t>
         </is>
       </c>
-      <c r="N19" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>19/08/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S19" t="inlineStr">
         <is>
           <t>19/08/2023 09:20</t>
         </is>
       </c>
-      <c r="P19" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>19/08/2023 15:31</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>19/08/2023 09:20</t>
-        </is>
-      </c>
       <c r="T19" t="n">
-        <v>2.36</v>
+        <v>1.85</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>19/08/2023 09:20</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-triglav/z3lRfu4J/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-nd-gorica/t4X9nHBa/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>1.41</v>
+        <v>2.77</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>18/08/2023 05:42</t>
+          <t>19/08/2023 09:20</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.33</v>
+        <v>2.77</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>19/08/2023 15:09</t>
+          <t>19/08/2023 09:20</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>4.49</v>
+        <v>3.26</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>18/08/2023 05:42</t>
+          <t>19/08/2023 09:20</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>5.31</v>
+        <v>3.28</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:27</t>
+          <t>19/08/2023 15:31</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>5.04</v>
+        <v>2.36</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>18/08/2023 05:42</t>
+          <t>19/08/2023 09:20</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>6.88</v>
+        <v>2.36</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:27</t>
+          <t>19/08/2023 09:20</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-fuzinar/2DY5mcdg/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-triglav/z3lRfu4J/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>3.44</v>
+        <v>1.41</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>19/08/2023 09:20</t>
+          <t>18/08/2023 05:42</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4.01</v>
+        <v>1.33</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 15:09</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.28</v>
+        <v>4.49</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>19/08/2023 09:20</t>
+          <t>18/08/2023 05:42</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.38</v>
+        <v>5.31</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 16:27</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.02</v>
+        <v>5.04</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>19/08/2023 09:20</t>
+          <t>18/08/2023 05:42</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.85</v>
+        <v>6.88</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 16:27</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-nd-gorica/t4X9nHBa/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-fuzinar/2DY5mcdg/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.88</v>
+        <v>3.12</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>19/08/2023 05:42</t>
+          <t>20/08/2023 08:59</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.26</v>
+        <v>3.08</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>20/08/2023 17:19</t>
+          <t>20/08/2023 11:20</t>
         </is>
       </c>
       <c r="N23" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>20/08/2023 08:59</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
         <v>3.4</v>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>19/08/2023 05:42</t>
-        </is>
-      </c>
-      <c r="P23" t="n">
-        <v>3.33</v>
-      </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>20/08/2023 17:19</t>
+          <t>20/08/2023 15:35</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.31</v>
+        <v>2.15</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>19/08/2023 05:42</t>
+          <t>20/08/2023 08:59</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.93</v>
+        <v>2.12</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>20/08/2023 17:19</t>
+          <t>20/08/2023 14:26</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-bistrica/n1zIpetC/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-ilirija/zRWDoyR5/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.12</v>
+        <v>1.52</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>20/08/2023 08:59</t>
+          <t>20/08/2023 09:00</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3.08</v>
+        <v>1.47</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>20/08/2023 11:20</t>
+          <t>20/08/2023 17:19</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.27</v>
+        <v>4.26</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>20/08/2023 08:59</t>
+          <t>20/08/2023 09:00</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.4</v>
+        <v>5.59</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>20/08/2023 15:35</t>
+          <t>20/08/2023 17:19</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.15</v>
+        <v>5.03</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>20/08/2023 08:59</t>
+          <t>20/08/2023 09:00</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.12</v>
+        <v>4.39</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>20/08/2023 14:26</t>
+          <t>20/08/2023 17:25</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-ilirija/zRWDoyR5/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-tabor-sezana/6ouckJRt/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,22 +2697,22 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>1.52</v>
+        <v>1.88</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>20/08/2023 09:00</t>
+          <t>19/08/2023 05:42</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.47</v>
+        <v>2.26</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2720,15 +2720,15 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>4.26</v>
+        <v>3.4</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>20/08/2023 09:00</t>
+          <t>19/08/2023 05:42</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>5.59</v>
+        <v>3.33</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2736,24 +2736,24 @@
         </is>
       </c>
       <c r="R25" t="n">
-        <v>5.03</v>
+        <v>3.31</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>20/08/2023 09:00</t>
+          <t>19/08/2023 05:42</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.39</v>
+        <v>2.93</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>20/08/2023 17:25</t>
+          <t>20/08/2023 17:19</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-tabor-sezana/6ouckJRt/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-bistrica/n1zIpetC/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>3.24</v>
+        <v>2.41</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>03/08/2023 23:25</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4.09</v>
+        <v>1.91</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>30/08/2023 15:38</t>
+          <t>30/08/2023 16:02</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.15</v>
+        <v>3.34</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>03/08/2023 23:25</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.69</v>
+        <v>3.65</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>30/08/2023 15:38</t>
+          <t>30/08/2023 16:02</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.03</v>
+        <v>2.66</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>03/08/2023 23:25</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>1.75</v>
+        <v>3.49</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>30/08/2023 15:38</t>
+          <t>30/08/2023 16:02</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-grosuplje/OMD8pzPE/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-dravinja/bN6HPYnk/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,63 +3157,63 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>1.81</v>
+        <v>3.24</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.13</v>
+        <v>4.09</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>30/08/2023 16:51</t>
+          <t>30/08/2023 15:38</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.51</v>
+        <v>3.15</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.62</v>
+        <v>3.69</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>30/08/2023 16:21</t>
+          <t>30/08/2023 15:38</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.42</v>
+        <v>2.03</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.95</v>
+        <v>1.75</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>30/08/2023 16:51</t>
+          <t>30/08/2023 15:38</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-rudar/pv9TMWW7/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-grosuplje/OMD8pzPE/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>2.41</v>
+        <v>1.81</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>03/08/2023 23:25</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.91</v>
+        <v>2.13</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>30/08/2023 16:02</t>
+          <t>30/08/2023 16:51</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.34</v>
+        <v>3.51</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>03/08/2023 23:25</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.65</v>
+        <v>3.62</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>30/08/2023 16:02</t>
+          <t>30/08/2023 16:21</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.66</v>
+        <v>3.42</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>03/08/2023 23:25</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.49</v>
+        <v>2.95</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>30/08/2023 16:02</t>
+          <t>30/08/2023 16:51</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-dravinja/bN6HPYnk/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-rudar/pv9TMWW7/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.54</v>
+        <v>1.19</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 13:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.49</v>
+        <v>1.29</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>09/09/2023 16:22</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.85</v>
+        <v>6.85</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 13:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.38</v>
+        <v>5.9</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>09/09/2023 16:22</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.49</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 13:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>5.37</v>
+        <v>7.25</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>09/09/2023 16:22</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-tolmin/MwmfpnnT/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-tabor-sezana/hMwQvQ9j/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1.19</v>
+        <v>1.54</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>09/09/2023 13:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.29</v>
+        <v>1.49</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:22</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>6.85</v>
+        <v>3.85</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>09/09/2023 13:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>5.9</v>
+        <v>4.38</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:22</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>8.869999999999999</v>
+        <v>4.49</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>09/09/2023 13:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>7.25</v>
+        <v>5.37</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:22</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-tabor-sezana/hMwQvQ9j/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-tolmin/MwmfpnnT/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G77" t="n">
+        <v>3</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Bilje</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
         <v>1</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Tabor Sezana</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
       <c r="J77" t="n">
-        <v>1.41</v>
+        <v>1.72</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.34</v>
+        <v>1.78</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:24</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>4.29</v>
+        <v>3.77</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>5.2</v>
+        <v>4.06</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>5.33</v>
+        <v>3.65</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>6.9</v>
+        <v>3.61</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tabor-sezana/tbQnLYDg/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-bilje/4bYEu3a8/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1.72</v>
+        <v>1.41</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.78</v>
+        <v>1.34</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:24</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.77</v>
+        <v>4.29</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>4.06</v>
+        <v>5.2</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.65</v>
+        <v>5.33</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.61</v>
+        <v>6.9</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-bilje/4bYEu3a8/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tabor-sezana/tbQnLYDg/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>2.62</v>
+        <v>3.75</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3.04</v>
+        <v>2.86</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 15:27</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.22</v>
+        <v>3.48</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.36</v>
+        <v>3.82</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 15:28</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.29</v>
+        <v>1.74</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 15:27</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-nafta/jTqVXBca/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-nk-krka/0viIzEDt/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J87" t="n">
-        <v>3.75</v>
+        <v>2.62</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.86</v>
+        <v>3.04</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>08/10/2023 15:27</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.48</v>
+        <v>3.22</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.82</v>
+        <v>3.36</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>08/10/2023 15:28</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>1.74</v>
+        <v>2.29</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.11</v>
+        <v>2.18</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>08/10/2023 15:27</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-nk-krka/0viIzEDt/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-nafta/jTqVXBca/</t>
         </is>
       </c>
     </row>
@@ -8734,6 +8734,374 @@
       <c r="V90" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-tabor-sezana/SEAamicn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45213.625</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NK Bistrica</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Tolmin</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:44</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tolmin/bazjTmCU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45213.625</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Dravinja</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Bilje</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:45</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-bilje/xpnsV9sI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45213.625</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Fuzinar</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Primorje</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>13/10/2023 09:50</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:04</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>13/10/2023 09:50</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-primorje/Aw04nBCh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45213.625</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Jadran Dekani</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>4</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:45</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:45</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:45</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-rudar/OtrwWkSB/</t>
         </is>
       </c>
     </row>

--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V94"/>
+  <dimension ref="A1:V96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1317,63 +1317,63 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>2.61</v>
+        <v>5.38</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>11/08/2023 05:43</t>
+          <t>12/08/2023 13:12</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.46</v>
+        <v>3.21</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>12/08/2023 17:14</t>
+          <t>12/08/2023 17:28</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.18</v>
+        <v>3.93</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>11/08/2023 05:43</t>
+          <t>12/08/2023 13:12</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.39</v>
+        <v>4.31</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>12/08/2023 17:11</t>
+          <t>12/08/2023 17:28</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.33</v>
+        <v>1.51</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>11/08/2023 05:43</t>
+          <t>12/08/2023 13:12</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2.61</v>
+        <v>1.8</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>12/08/2023 17:14</t>
+          <t>12/08/2023 17:28</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-nk-krka/SEWfdXNQ/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-grosuplje/hvPtmTpD/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,63 +1501,63 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>5.38</v>
+        <v>2.61</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>12/08/2023 13:12</t>
+          <t>11/08/2023 05:43</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3.21</v>
+        <v>2.46</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>12/08/2023 17:28</t>
+          <t>12/08/2023 17:14</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.93</v>
+        <v>3.18</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>12/08/2023 13:12</t>
+          <t>11/08/2023 05:43</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4.31</v>
+        <v>3.39</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>12/08/2023 17:28</t>
+          <t>12/08/2023 17:11</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.51</v>
+        <v>2.33</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>12/08/2023 13:12</t>
+          <t>11/08/2023 05:43</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>2.61</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>12/08/2023 17:28</t>
+          <t>12/08/2023 17:14</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-grosuplje/hvPtmTpD/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-nk-krka/SEWfdXNQ/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>3.15</v>
+        <v>1.4</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.52</v>
+        <v>1.38</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 15:43</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.16</v>
+        <v>4.36</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.17</v>
+        <v>4.76</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:41</t>
+          <t>24/09/2023 15:54</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.06</v>
+        <v>5.39</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.06</v>
+        <v>6.65</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:41</t>
+          <t>24/09/2023 15:54</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-jadran-dekani/GxhKJLxk/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-dravinja/n3mGK1Nr/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>1.4</v>
+        <v>3.15</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.38</v>
+        <v>3.52</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>24/09/2023 15:43</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>4.36</v>
+        <v>3.16</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>4.76</v>
+        <v>3.17</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>24/09/2023 15:54</t>
+          <t>24/09/2023 15:41</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>5.39</v>
+        <v>2.06</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>6.65</v>
+        <v>2.06</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>24/09/2023 15:54</t>
+          <t>24/09/2023 15:41</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-dravinja/n3mGK1Nr/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-jadran-dekani/GxhKJLxk/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>3.72</v>
+        <v>1.29</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>4.94</v>
+        <v>1.25</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>29/09/2023 15:20</t>
+          <t>29/09/2023 13:45</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.4</v>
+        <v>4.98</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.8</v>
+        <v>6.11</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>29/09/2023 15:20</t>
+          <t>29/09/2023 15:29</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>1.79</v>
+        <v>6.88</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>1.61</v>
+        <v>7.81</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>29/09/2023 15:20</t>
+          <t>29/09/2023 15:29</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-primorje/f1UjKhTa/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-fuzinar/xQJeJCr6/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.29</v>
+        <v>3.72</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.25</v>
+        <v>4.94</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>29/09/2023 13:45</t>
+          <t>29/09/2023 15:20</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>4.98</v>
+        <v>3.4</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>6.11</v>
+        <v>3.8</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>29/09/2023 15:29</t>
+          <t>29/09/2023 15:20</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>6.88</v>
+        <v>1.79</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>7.81</v>
+        <v>1.61</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>29/09/2023 15:29</t>
+          <t>29/09/2023 15:20</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-fuzinar/xQJeJCr6/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-primorje/f1UjKhTa/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.72</v>
+        <v>3.27</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.78</v>
+        <v>4</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.77</v>
+        <v>3.13</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.06</v>
+        <v>3.26</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.65</v>
+        <v>1.99</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.61</v>
+        <v>1.89</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-bilje/4bYEu3a8/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-grosuplje/rkXIvNEE/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>3.27</v>
+        <v>1.41</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>4</v>
+        <v>1.34</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:24</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.13</v>
+        <v>4.29</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.26</v>
+        <v>5.2</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>1.99</v>
+        <v>5.33</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>1.89</v>
+        <v>6.9</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-grosuplje/rkXIvNEE/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tabor-sezana/tbQnLYDg/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G79" t="n">
+        <v>3</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Bilje</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
         <v>1</v>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Tabor Sezana</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
       <c r="J79" t="n">
-        <v>1.41</v>
+        <v>1.72</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.34</v>
+        <v>1.78</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:24</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>4.29</v>
+        <v>3.77</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>5.2</v>
+        <v>4.06</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>5.33</v>
+        <v>3.65</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>6.9</v>
+        <v>3.61</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tabor-sezana/tbQnLYDg/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-bilje/4bYEu3a8/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>3.75</v>
+        <v>2.97</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.86</v>
+        <v>3.94</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>08/10/2023 15:27</t>
+          <t>08/10/2023 13:47</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.48</v>
+        <v>3.28</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.82</v>
+        <v>3.92</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>08/10/2023 15:28</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>1.74</v>
+        <v>2.05</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.11</v>
+        <v>1.72</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>08/10/2023 15:27</t>
+          <t>08/10/2023 13:47</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-nk-krka/0viIzEDt/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-ilirija/OtM7GASO/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>2.97</v>
+        <v>3.75</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3.94</v>
+        <v>2.86</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>08/10/2023 13:47</t>
+          <t>08/10/2023 15:27</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.28</v>
+        <v>3.48</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.92</v>
+        <v>3.82</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 15:28</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.05</v>
+        <v>1.74</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>1.72</v>
+        <v>2.11</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>08/10/2023 13:47</t>
+          <t>08/10/2023 15:27</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-ilirija/OtM7GASO/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-nk-krka/0viIzEDt/</t>
         </is>
       </c>
     </row>
@@ -9102,6 +9102,190 @@
       <c r="V94" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-rudar/OtrwWkSB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45214.625</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Ilirija</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Beltinci</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:41</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-beltinci/lOBelXst/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45214.625</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Nafta</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Triglav</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:41</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:41</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:41</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-triglav/UJrZWVC5/</t>
         </is>
       </c>
     </row>

--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V96"/>
+  <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>2.97</v>
+        <v>3.75</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3.94</v>
+        <v>2.86</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>08/10/2023 13:47</t>
+          <t>08/10/2023 15:27</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.28</v>
+        <v>3.48</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.92</v>
+        <v>3.82</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 15:28</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.05</v>
+        <v>1.74</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>1.72</v>
+        <v>2.11</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>08/10/2023 13:47</t>
+          <t>08/10/2023 15:27</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-ilirija/OtM7GASO/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-nk-krka/0viIzEDt/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J86" t="n">
-        <v>3.75</v>
+        <v>2.62</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.86</v>
+        <v>3.04</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>08/10/2023 15:27</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.48</v>
+        <v>3.22</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.82</v>
+        <v>3.36</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>08/10/2023 15:28</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>1.74</v>
+        <v>2.29</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.11</v>
+        <v>2.18</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>08/10/2023 15:27</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-nk-krka/0viIzEDt/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-nafta/jTqVXBca/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J87" t="n">
-        <v>2.62</v>
+        <v>2.97</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,48 +8416,48 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>3.04</v>
+        <v>3.94</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
+          <t>08/10/2023 13:47</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
           <t>08/10/2023 15:01</t>
         </is>
       </c>
-      <c r="N87" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="O87" t="inlineStr">
+      <c r="R87" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S87" t="inlineStr">
         <is>
           <t>07/10/2023 02:42</t>
         </is>
       </c>
-      <c r="P87" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>08/10/2023 15:01</t>
-        </is>
-      </c>
-      <c r="R87" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>07/10/2023 02:42</t>
-        </is>
-      </c>
       <c r="T87" t="n">
-        <v>2.18</v>
+        <v>1.72</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 13:47</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-nafta/jTqVXBca/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-ilirija/OtM7GASO/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Primorje</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Tolmin</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
       <c r="J91" t="n">
-        <v>1.51</v>
+        <v>3.73</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.71</v>
+        <v>4.44</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>13/10/2023 09:50</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.98</v>
+        <v>3.66</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.79</v>
+        <v>3.91</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 13:04</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>4.65</v>
+        <v>1.7</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>4.19</v>
+        <v>1.64</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:44</t>
+          <t>13/10/2023 09:50</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tolmin/bazjTmCU/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-primorje/Aw04nBCh/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I92" t="n">
         <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>2.62</v>
+        <v>1.51</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.17</v>
+        <v>1.71</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>14/10/2023 14:58</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.24</v>
+        <v>3.98</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.62</v>
+        <v>3.79</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>14/10/2023 14:45</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.33</v>
+        <v>4.65</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.87</v>
+        <v>4.19</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>14/10/2023 14:58</t>
+          <t>14/10/2023 14:44</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-bilje/xpnsV9sI/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tolmin/bazjTmCU/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>3.73</v>
+        <v>2.62</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>4.44</v>
+        <v>2.17</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>13/10/2023 09:50</t>
+          <t>14/10/2023 14:58</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.66</v>
+        <v>3.24</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.91</v>
+        <v>3.62</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>14/10/2023 13:04</t>
+          <t>14/10/2023 14:45</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>1.7</v>
+        <v>2.33</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>1.64</v>
+        <v>2.87</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>13/10/2023 09:50</t>
+          <t>14/10/2023 14:58</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-primorje/Aw04nBCh/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-bilje/xpnsV9sI/</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,14 +9137,14 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>3.48</v>
+        <v>1.72</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>5.99</v>
+        <v>1.6</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>15/10/2023 14:43</t>
+          <t>15/10/2023 14:41</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.44</v>
+        <v>3.57</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>4.19</v>
+        <v>4.03</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>15/10/2023 14:43</t>
+          <t>15/10/2023 14:41</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>1.81</v>
+        <v>3.73</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>1.47</v>
+        <v>4.77</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-beltinci/lOBelXst/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-triglav/UJrZWVC5/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,14 +9229,14 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.72</v>
+        <v>3.48</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,48 +9244,140 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.6</v>
+        <v>5.99</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
+          <t>15/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
           <t>15/10/2023 14:41</t>
         </is>
       </c>
-      <c r="N96" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>14/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P96" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>15/10/2023 14:41</t>
-        </is>
-      </c>
-      <c r="R96" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>14/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T96" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>15/10/2023 14:41</t>
-        </is>
-      </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-triglav/UJrZWVC5/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-beltinci/lOBelXst/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45214.70833333334</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>NK Krka</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Grosuplje</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>14/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>15/10/2023 16:48</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>14/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>15/10/2023 16:49</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>14/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>15/10/2023 16:48</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-grosuplje/K8ynUTdO/</t>
         </is>
       </c>
     </row>

--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.04</v>
+        <v>2.48</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>30/07/2023 17:59</t>
+          <t>30/07/2023 17:06</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.3</v>
+        <v>3.11</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.43</v>
+        <v>3.48</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>30/07/2023 17:59</t>
+          <t>30/07/2023 17:30</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.98</v>
+        <v>2.46</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>3.11</v>
+        <v>2.49</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>30/07/2023 17:59</t>
+          <t>30/07/2023 17:06</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-bistrica/pGQtWzAL/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-primorje/CCVnAgm2/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.48</v>
+        <v>2.04</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,48 +1240,48 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.5</v>
+        <v>2.12</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>30/07/2023 17:06</t>
+          <t>30/07/2023 17:59</t>
         </is>
       </c>
       <c r="N9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>29/07/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>30/07/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>29/07/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
         <v>3.11</v>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>29/07/2023 06:12</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>30/07/2023 17:30</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>29/07/2023 06:12</t>
-        </is>
-      </c>
-      <c r="T9" t="n">
-        <v>2.49</v>
-      </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>30/07/2023 17:06</t>
+          <t>30/07/2023 17:59</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-primorje/CCVnAgm2/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-bistrica/pGQtWzAL/</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1317,63 +1317,63 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>5.38</v>
+        <v>2.61</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>12/08/2023 13:12</t>
+          <t>11/08/2023 05:43</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3.21</v>
+        <v>2.46</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>12/08/2023 17:28</t>
+          <t>12/08/2023 17:14</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.93</v>
+        <v>3.18</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>12/08/2023 13:12</t>
+          <t>11/08/2023 05:43</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>4.31</v>
+        <v>3.39</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>12/08/2023 17:28</t>
+          <t>12/08/2023 17:11</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.51</v>
+        <v>2.33</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>12/08/2023 13:12</t>
+          <t>11/08/2023 05:43</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>1.8</v>
+        <v>2.61</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>12/08/2023 17:28</t>
+          <t>12/08/2023 17:14</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-grosuplje/hvPtmTpD/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-nk-krka/SEWfdXNQ/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>1.46</v>
+        <v>5.38</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.5</v>
+        <v>3.21</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>12/08/2023 15:46</t>
+          <t>12/08/2023 17:28</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>4.4</v>
+        <v>3.93</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>4.27</v>
+        <v>4.31</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>12/08/2023 15:46</t>
+          <t>12/08/2023 17:28</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>5.23</v>
+        <v>1.51</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>5.41</v>
+        <v>1.8</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>12/08/2023 15:46</t>
+          <t>12/08/2023 17:28</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-tolmin/WUNpnm0J/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-grosuplje/hvPtmTpD/</t>
         </is>
       </c>
     </row>
@@ -1493,71 +1493,71 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.61</v>
+        <v>1.46</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>11/08/2023 05:43</t>
+          <t>12/08/2023 13:12</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.46</v>
+        <v>1.5</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>12/08/2023 17:14</t>
+          <t>12/08/2023 15:46</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.18</v>
+        <v>4.4</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>11/08/2023 05:43</t>
+          <t>12/08/2023 13:12</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.39</v>
+        <v>4.27</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>12/08/2023 17:11</t>
+          <t>12/08/2023 15:46</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.33</v>
+        <v>5.23</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>11/08/2023 05:43</t>
+          <t>12/08/2023 13:12</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>2.61</v>
+        <v>5.41</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>12/08/2023 17:14</t>
+          <t>12/08/2023 15:46</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-nk-krka/SEWfdXNQ/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-tolmin/WUNpnm0J/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>3.44</v>
+        <v>2.77</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,48 +2160,48 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4.01</v>
+        <v>2.77</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 09:20</t>
         </is>
       </c>
       <c r="N19" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>19/08/2023 09:20</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
         <v>3.28</v>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>19/08/2023 15:31</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S19" t="inlineStr">
         <is>
           <t>19/08/2023 09:20</t>
         </is>
       </c>
-      <c r="P19" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>19/08/2023 16:59</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S19" t="inlineStr">
+      <c r="T19" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U19" t="inlineStr">
         <is>
           <t>19/08/2023 09:20</t>
         </is>
       </c>
-      <c r="T19" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>19/08/2023 16:59</t>
-        </is>
-      </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-nd-gorica/t4X9nHBa/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-triglav/z3lRfu4J/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Fuzinar</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Triglav</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
       <c r="J20" t="n">
-        <v>2.77</v>
+        <v>1.41</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:20</t>
+          <t>18/08/2023 05:42</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.77</v>
+        <v>1.33</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:20</t>
+          <t>19/08/2023 15:09</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.26</v>
+        <v>4.49</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:20</t>
+          <t>18/08/2023 05:42</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.28</v>
+        <v>5.31</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>19/08/2023 15:31</t>
+          <t>19/08/2023 16:27</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.36</v>
+        <v>5.04</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:20</t>
+          <t>18/08/2023 05:42</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.36</v>
+        <v>6.88</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:20</t>
+          <t>19/08/2023 16:27</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-triglav/z3lRfu4J/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-fuzinar/2DY5mcdg/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.41</v>
+        <v>3.44</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>18/08/2023 05:42</t>
+          <t>19/08/2023 09:20</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.33</v>
+        <v>4.01</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>19/08/2023 15:09</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>4.49</v>
+        <v>3.28</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>18/08/2023 05:42</t>
+          <t>19/08/2023 09:20</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>5.31</v>
+        <v>3.38</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:27</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>5.04</v>
+        <v>2.02</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>18/08/2023 05:42</t>
+          <t>19/08/2023 09:20</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>6.88</v>
+        <v>1.85</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:27</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-fuzinar/2DY5mcdg/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-nd-gorica/t4X9nHBa/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.12</v>
+        <v>1.52</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>20/08/2023 08:59</t>
+          <t>20/08/2023 09:00</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3.08</v>
+        <v>1.47</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>20/08/2023 11:20</t>
+          <t>20/08/2023 17:19</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.27</v>
+        <v>4.26</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>20/08/2023 08:59</t>
+          <t>20/08/2023 09:00</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.4</v>
+        <v>5.59</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>20/08/2023 15:35</t>
+          <t>20/08/2023 17:19</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.15</v>
+        <v>5.03</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>20/08/2023 08:59</t>
+          <t>20/08/2023 09:00</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.12</v>
+        <v>4.39</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>20/08/2023 14:26</t>
+          <t>20/08/2023 17:25</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-ilirija/zRWDoyR5/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-tabor-sezana/6ouckJRt/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,22 +2605,22 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>1.52</v>
+        <v>1.88</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>20/08/2023 09:00</t>
+          <t>19/08/2023 05:42</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.47</v>
+        <v>2.26</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2628,15 +2628,15 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>4.26</v>
+        <v>3.4</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>20/08/2023 09:00</t>
+          <t>19/08/2023 05:42</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>5.59</v>
+        <v>3.33</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2644,24 +2644,24 @@
         </is>
       </c>
       <c r="R24" t="n">
-        <v>5.03</v>
+        <v>3.31</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>20/08/2023 09:00</t>
+          <t>19/08/2023 05:42</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.39</v>
+        <v>2.93</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>20/08/2023 17:25</t>
+          <t>20/08/2023 17:19</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-tabor-sezana/6ouckJRt/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-bistrica/n1zIpetC/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.88</v>
+        <v>3.12</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>19/08/2023 05:42</t>
+          <t>20/08/2023 08:59</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.26</v>
+        <v>3.08</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>20/08/2023 17:19</t>
+          <t>20/08/2023 11:20</t>
         </is>
       </c>
       <c r="N25" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>20/08/2023 08:59</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
         <v>3.4</v>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>19/08/2023 05:42</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>3.33</v>
-      </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>20/08/2023 17:19</t>
+          <t>20/08/2023 15:35</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.31</v>
+        <v>2.15</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>19/08/2023 05:42</t>
+          <t>20/08/2023 08:59</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.93</v>
+        <v>2.12</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>20/08/2023 17:19</t>
+          <t>20/08/2023 14:26</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-bistrica/n1zIpetC/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-ilirija/zRWDoyR5/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>2.41</v>
+        <v>3.24</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>03/08/2023 23:25</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.91</v>
+        <v>4.09</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>30/08/2023 16:02</t>
+          <t>30/08/2023 15:38</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.34</v>
+        <v>3.15</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>03/08/2023 23:25</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.65</v>
+        <v>3.69</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>30/08/2023 16:02</t>
+          <t>30/08/2023 15:38</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.66</v>
+        <v>2.03</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>03/08/2023 23:25</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.49</v>
+        <v>1.75</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>30/08/2023 16:02</t>
+          <t>30/08/2023 15:38</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-dravinja/bN6HPYnk/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-grosuplje/OMD8pzPE/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,63 +3157,63 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.24</v>
+        <v>1.81</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4.09</v>
+        <v>2.13</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>30/08/2023 15:38</t>
+          <t>30/08/2023 16:51</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.15</v>
+        <v>3.51</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.69</v>
+        <v>3.62</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>30/08/2023 15:38</t>
+          <t>30/08/2023 16:21</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.03</v>
+        <v>3.42</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>1.75</v>
+        <v>2.95</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>30/08/2023 15:38</t>
+          <t>30/08/2023 16:51</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-grosuplje/OMD8pzPE/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-rudar/pv9TMWW7/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.81</v>
+        <v>2.41</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>03/08/2023 23:25</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.13</v>
+        <v>1.91</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>30/08/2023 16:51</t>
+          <t>30/08/2023 16:02</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.51</v>
+        <v>3.34</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>03/08/2023 23:25</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.62</v>
+        <v>3.65</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>30/08/2023 16:21</t>
+          <t>30/08/2023 16:02</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.42</v>
+        <v>2.66</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>03/08/2023 23:25</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.95</v>
+        <v>3.49</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>30/08/2023 16:51</t>
+          <t>30/08/2023 16:02</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-rudar/pv9TMWW7/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-dravinja/bN6HPYnk/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.54</v>
+        <v>1.93</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.49</v>
+        <v>2.32</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>09/09/2023 16:22</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.85</v>
+        <v>3.41</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4.38</v>
+        <v>3.53</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>09/09/2023 16:22</t>
+          <t>09/09/2023 16:20</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.49</v>
+        <v>3.15</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>5.37</v>
+        <v>2.69</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>09/09/2023 16:22</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-tolmin/MwmfpnnT/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-fuzinar/YHGC2T1c/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.93</v>
+        <v>1.54</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.32</v>
+        <v>1.49</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:22</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.41</v>
+        <v>3.85</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.53</v>
+        <v>4.38</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>09/09/2023 16:20</t>
+          <t>09/09/2023 16:22</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.15</v>
+        <v>4.49</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.69</v>
+        <v>5.37</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:22</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-fuzinar/YHGC2T1c/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-tolmin/MwmfpnnT/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>3.75</v>
+        <v>2.44</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>4.99</v>
+        <v>2.45</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:47</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.56</v>
+        <v>3.32</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>4.23</v>
+        <v>3.7</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:47</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>1.72</v>
+        <v>2.45</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>1.54</v>
+        <v>2.46</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:47</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-nk-krka/pf1lPsFR/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-ilirija/dY8ySqV8/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>2.44</v>
+        <v>3.75</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.45</v>
+        <v>4.99</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:47</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.32</v>
+        <v>3.56</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.7</v>
+        <v>4.23</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:47</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.45</v>
+        <v>1.72</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.46</v>
+        <v>1.54</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:47</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-ilirija/dY8ySqV8/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-nk-krka/pf1lPsFR/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.29</v>
+        <v>3.72</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.25</v>
+        <v>4.94</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>29/09/2023 13:45</t>
+          <t>29/09/2023 15:20</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>4.98</v>
+        <v>3.4</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>6.11</v>
+        <v>3.8</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>29/09/2023 15:29</t>
+          <t>29/09/2023 15:20</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>6.88</v>
+        <v>1.79</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>7.81</v>
+        <v>1.61</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>29/09/2023 15:29</t>
+          <t>29/09/2023 15:20</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-fuzinar/xQJeJCr6/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-primorje/f1UjKhTa/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>3.72</v>
+        <v>1.29</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4.94</v>
+        <v>1.25</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>29/09/2023 15:20</t>
+          <t>29/09/2023 13:45</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.4</v>
+        <v>4.98</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.8</v>
+        <v>6.11</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>29/09/2023 15:20</t>
+          <t>29/09/2023 15:29</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>1.79</v>
+        <v>6.88</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>1.61</v>
+        <v>7.81</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>29/09/2023 15:20</t>
+          <t>29/09/2023 15:29</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-primorje/f1UjKhTa/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-fuzinar/xQJeJCr6/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>2.29</v>
+        <v>3.27</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.37</v>
+        <v>3.26</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>30/09/2023 15:25</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.64</v>
+        <v>1.99</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.9</v>
+        <v>1.89</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>30/09/2023 15:24</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-triglav/jepXGJM7/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-grosuplje/rkXIvNEE/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>3.27</v>
+        <v>1.72</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>4</v>
+        <v>1.78</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.13</v>
+        <v>3.77</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.26</v>
+        <v>4.06</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>1.99</v>
+        <v>3.65</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>1.89</v>
+        <v>3.61</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-grosuplje/rkXIvNEE/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-bilje/4bYEu3a8/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>1.41</v>
+        <v>2.29</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,48 +7588,48 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.34</v>
+        <v>2.25</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
+          <t>30/09/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>29/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:25</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>29/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
           <t>30/09/2023 15:24</t>
         </is>
       </c>
-      <c r="N78" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>29/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="P78" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:29</t>
-        </is>
-      </c>
-      <c r="R78" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>29/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T78" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:29</t>
-        </is>
-      </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tabor-sezana/tbQnLYDg/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-triglav/jepXGJM7/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1.72</v>
+        <v>1.41</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.78</v>
+        <v>1.34</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:24</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.77</v>
+        <v>4.29</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>4.06</v>
+        <v>5.2</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.65</v>
+        <v>5.33</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.61</v>
+        <v>6.9</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-bilje/4bYEu3a8/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tabor-sezana/tbQnLYDg/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>3.75</v>
+        <v>2.97</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.86</v>
+        <v>3.94</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>08/10/2023 15:27</t>
+          <t>08/10/2023 13:47</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.48</v>
+        <v>3.28</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.82</v>
+        <v>3.92</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>08/10/2023 15:28</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>1.74</v>
+        <v>2.05</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.11</v>
+        <v>1.72</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>08/10/2023 15:27</t>
+          <t>08/10/2023 13:47</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-nk-krka/0viIzEDt/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-ilirija/OtM7GASO/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>2.62</v>
+        <v>3.75</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3.04</v>
+        <v>2.86</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 15:27</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.22</v>
+        <v>3.48</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.36</v>
+        <v>3.82</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 15:28</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.29</v>
+        <v>1.74</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 15:27</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-nafta/jTqVXBca/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-nk-krka/0viIzEDt/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J87" t="n">
-        <v>2.97</v>
+        <v>2.62</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>3.94</v>
+        <v>3.04</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>08/10/2023 13:47</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.92</v>
+        <v>3.36</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.05</v>
+        <v>2.29</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1.72</v>
+        <v>2.18</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>08/10/2023 13:47</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-ilirija/OtM7GASO/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-nafta/jTqVXBca/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>3.73</v>
+        <v>1.51</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>4.44</v>
+        <v>1.71</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>13/10/2023 09:50</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.66</v>
+        <v>3.98</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.91</v>
+        <v>3.79</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>14/10/2023 13:04</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>1.7</v>
+        <v>4.65</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>1.64</v>
+        <v>4.19</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>13/10/2023 09:50</t>
+          <t>14/10/2023 14:44</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-primorje/Aw04nBCh/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tolmin/bazjTmCU/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I92" t="n">
         <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>1.51</v>
+        <v>2.62</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.71</v>
+        <v>2.17</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 14:58</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.98</v>
+        <v>3.24</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.79</v>
+        <v>3.62</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 14:45</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>4.65</v>
+        <v>2.33</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>4.19</v>
+        <v>2.87</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>14/10/2023 14:44</t>
+          <t>14/10/2023 14:58</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tolmin/bazjTmCU/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-bilje/xpnsV9sI/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Primorje</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Bilje</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
       <c r="J93" t="n">
-        <v>2.62</v>
+        <v>3.73</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.17</v>
+        <v>4.44</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>14/10/2023 14:58</t>
+          <t>13/10/2023 09:50</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.24</v>
+        <v>3.66</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.62</v>
+        <v>3.91</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>14/10/2023 14:45</t>
+          <t>14/10/2023 13:04</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.33</v>
+        <v>1.7</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.87</v>
+        <v>1.64</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>14/10/2023 14:58</t>
+          <t>13/10/2023 09:50</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-bilje/xpnsV9sI/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-primorje/Aw04nBCh/</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,14 +9137,14 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1.72</v>
+        <v>3.48</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,48 +9152,48 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.6</v>
+        <v>5.99</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
+          <t>15/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
           <t>15/10/2023 14:41</t>
         </is>
       </c>
-      <c r="N95" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>14/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P95" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>15/10/2023 14:41</t>
-        </is>
-      </c>
-      <c r="R95" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>14/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T95" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>15/10/2023 14:41</t>
-        </is>
-      </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-triglav/UJrZWVC5/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-beltinci/lOBelXst/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,14 +9229,14 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>3.48</v>
+        <v>1.72</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>5.99</v>
+        <v>1.6</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>15/10/2023 14:43</t>
+          <t>15/10/2023 14:41</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.44</v>
+        <v>3.57</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>4.19</v>
+        <v>4.03</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>15/10/2023 14:43</t>
+          <t>15/10/2023 14:41</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>1.81</v>
+        <v>3.73</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>1.47</v>
+        <v>4.77</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-beltinci/lOBelXst/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-triglav/UJrZWVC5/</t>
         </is>
       </c>
     </row>
@@ -9378,6 +9378,282 @@
       <c r="V97" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-grosuplje/K8ynUTdO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45219.625</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Grosuplje</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>NK Bistrica</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>20/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>20/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>20/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-bistrica/hMePsmRN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45219.625</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Bilje</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>NK Krka</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>20/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>20/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>20/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-nk-krka/nqeTt7tU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45219.625</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Tabor Sezana</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>4</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Fuzinar</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>4</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>20/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>20/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>20/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-fuzinar/I33Cpks5/</t>
         </is>
       </c>
     </row>

--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J85" t="n">
-        <v>2.97</v>
+        <v>2.62</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3.94</v>
+        <v>3.04</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>08/10/2023 13:47</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.92</v>
+        <v>3.36</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.05</v>
+        <v>2.29</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>1.72</v>
+        <v>2.18</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>08/10/2023 13:47</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-ilirija/OtM7GASO/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-nafta/jTqVXBca/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>3.75</v>
+        <v>2.97</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.86</v>
+        <v>3.94</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>08/10/2023 15:27</t>
+          <t>08/10/2023 13:47</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.48</v>
+        <v>3.28</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.82</v>
+        <v>3.92</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>08/10/2023 15:28</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>1.74</v>
+        <v>2.05</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.11</v>
+        <v>1.72</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>08/10/2023 15:27</t>
+          <t>08/10/2023 13:47</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-nk-krka/0viIzEDt/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-ilirija/OtM7GASO/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J87" t="n">
-        <v>2.62</v>
+        <v>3.75</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>3.04</v>
+        <v>2.86</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 15:27</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.22</v>
+        <v>3.48</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.36</v>
+        <v>3.82</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 15:28</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.29</v>
+        <v>1.74</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 15:27</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-nafta/jTqVXBca/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-nk-krka/0viIzEDt/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="n">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>20/10/2023 14:57</t>
+          <t>20/10/2023 14:58</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.44</v>
+        <v>3.22</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.56</v>
+        <v>3.76</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>20/10/2023 14:57</t>
+          <t>20/10/2023 14:58</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.74</v>
+        <v>2.36</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>4.32</v>
+        <v>2.35</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>20/10/2023 14:57</t>
+          <t>20/10/2023 14:58</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-bistrica/hMePsmRN/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-nk-krka/nqeTt7tU/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>20/10/2023 14:58</t>
+          <t>20/10/2023 14:57</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.76</v>
+        <v>3.56</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>20/10/2023 14:58</t>
+          <t>20/10/2023 14:57</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>2.36</v>
+        <v>3.74</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2.35</v>
+        <v>4.32</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>20/10/2023 14:58</t>
+          <t>20/10/2023 14:57</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-nk-krka/nqeTt7tU/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-bistrica/hMePsmRN/</t>
         </is>
       </c>
     </row>
@@ -9654,6 +9654,98 @@
       <c r="V100" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-fuzinar/I33Cpks5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45219.70833333334</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Triglav</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Primorje</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>19/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>19/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>19/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>20/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-primorje/Ot48oVRb/</t>
         </is>
       </c>
     </row>

--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:V104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.49</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>28/07/2023 06:12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3.12</v>
+        <v>2.05</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>29/07/2023 17:58</t>
+          <t>29/07/2023 17:59</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.66</v>
+        <v>3.43</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>28/07/2023 06:12</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.45</v>
+        <v>3.62</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>29/07/2023 17:58</t>
+          <t>29/07/2023 17:59</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>28/07/2023 06:12</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>1.92</v>
+        <v>2.72</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>29/07/2023 17:58</t>
+          <t>29/07/2023 17:59</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-triglav/YLWrBZXe/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-ilirija/6PRxXGfF/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.49</v>
+        <v>1.91</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>28/07/2023 06:12</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>29/07/2023 17:59</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.43</v>
+        <v>3.42</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>28/07/2023 06:12</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.62</v>
+        <v>3.44</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>29/07/2023 17:59</t>
+          <t>29/07/2023 16:02</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>3.48</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>28/07/2023 06:12</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.72</v>
+        <v>3.48</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>29/07/2023 17:59</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-ilirija/6PRxXGfF/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-dravinja/GbHCQEXr/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.91</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,48 +964,48 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.91</v>
+        <v>3.12</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
+          <t>29/07/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>29/07/2023 14:12</t>
         </is>
       </c>
-      <c r="N6" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>29/07/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>29/07/2023 14:12</t>
         </is>
       </c>
-      <c r="P6" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>29/07/2023 16:02</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>29/07/2023 14:12</t>
-        </is>
-      </c>
       <c r="T6" t="n">
-        <v>3.48</v>
+        <v>1.92</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>29/07/2023 17:58</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-dravinja/GbHCQEXr/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-triglav/YLWrBZXe/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.48</v>
+        <v>2.04</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,48 +1148,48 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.5</v>
+        <v>2.12</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>30/07/2023 17:06</t>
+          <t>30/07/2023 17:59</t>
         </is>
       </c>
       <c r="N8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>29/07/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>30/07/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>29/07/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
         <v>3.11</v>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>29/07/2023 06:12</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>30/07/2023 17:30</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>29/07/2023 06:12</t>
-        </is>
-      </c>
-      <c r="T8" t="n">
-        <v>2.49</v>
-      </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>30/07/2023 17:06</t>
+          <t>30/07/2023 17:59</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-primorje/CCVnAgm2/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-bistrica/pGQtWzAL/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>2.04</v>
+        <v>2.48</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>30/07/2023 17:59</t>
+          <t>30/07/2023 17:06</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.3</v>
+        <v>3.11</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.43</v>
+        <v>3.48</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>30/07/2023 17:59</t>
+          <t>30/07/2023 17:30</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.98</v>
+        <v>2.46</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>3.11</v>
+        <v>2.49</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>30/07/2023 17:59</t>
+          <t>30/07/2023 17:06</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-bistrica/pGQtWzAL/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-primorje/CCVnAgm2/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>13/08/2023 16:02</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.65</v>
+        <v>3.56</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,32 +1624,32 @@
         </is>
       </c>
       <c r="P13" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>13/08/2023 17:17</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>12/08/2023 05:43</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
         <v>3.51</v>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>13/08/2023 16:02</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>12/08/2023 05:43</t>
-        </is>
-      </c>
-      <c r="T13" t="n">
-        <v>3.5</v>
-      </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>13/08/2023 16:02</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bilje/b3Awl9V6/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-jadran-dekani/OpIQjBol/</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,63 +1685,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.03</v>
+        <v>1.64</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:40</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.25</v>
+        <v>1.94</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>13/08/2023 15:23</t>
+          <t>13/08/2023 16:02</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:40</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.42</v>
+        <v>3.51</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>13/08/2023 15:34</t>
+          <t>13/08/2023 16:02</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.21</v>
+        <v>4.07</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:40</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.83</v>
+        <v>3.5</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>13/08/2023 15:23</t>
+          <t>13/08/2023 16:02</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-nafta/xlMUkV0f/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bilje/b3Awl9V6/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>1.66</v>
+        <v>2.03</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>13/08/2023 10:40</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.89</v>
+        <v>2.25</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 15:23</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.56</v>
+        <v>3.49</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>13/08/2023 10:40</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.68</v>
+        <v>3.42</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 15:34</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>4.09</v>
+        <v>3.21</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>13/08/2023 10:40</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.51</v>
+        <v>2.83</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 15:23</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-jadran-dekani/OpIQjBol/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-nafta/xlMUkV0f/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,22 +2513,22 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>1.52</v>
+        <v>1.88</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>20/08/2023 09:00</t>
+          <t>19/08/2023 05:42</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.47</v>
+        <v>2.26</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2536,15 +2536,15 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>4.26</v>
+        <v>3.4</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>20/08/2023 09:00</t>
+          <t>19/08/2023 05:42</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>5.59</v>
+        <v>3.33</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2552,24 +2552,24 @@
         </is>
       </c>
       <c r="R23" t="n">
-        <v>5.03</v>
+        <v>3.31</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>20/08/2023 09:00</t>
+          <t>19/08/2023 05:42</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>4.39</v>
+        <v>2.93</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>20/08/2023 17:25</t>
+          <t>20/08/2023 17:19</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-tabor-sezana/6ouckJRt/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-bistrica/n1zIpetC/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.88</v>
+        <v>3.12</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>19/08/2023 05:42</t>
+          <t>20/08/2023 08:59</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.26</v>
+        <v>3.08</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>20/08/2023 17:19</t>
+          <t>20/08/2023 11:20</t>
         </is>
       </c>
       <c r="N24" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>20/08/2023 08:59</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
         <v>3.4</v>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>19/08/2023 05:42</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>3.33</v>
-      </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>20/08/2023 17:19</t>
+          <t>20/08/2023 15:35</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.31</v>
+        <v>2.15</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>19/08/2023 05:42</t>
+          <t>20/08/2023 08:59</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.93</v>
+        <v>2.12</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>20/08/2023 17:19</t>
+          <t>20/08/2023 14:26</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-bistrica/n1zIpetC/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-ilirija/zRWDoyR5/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>3.12</v>
+        <v>1.52</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>20/08/2023 08:59</t>
+          <t>20/08/2023 09:00</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3.08</v>
+        <v>1.47</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>20/08/2023 11:20</t>
+          <t>20/08/2023 17:19</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.27</v>
+        <v>4.26</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>20/08/2023 08:59</t>
+          <t>20/08/2023 09:00</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.4</v>
+        <v>5.59</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>20/08/2023 15:35</t>
+          <t>20/08/2023 17:19</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.15</v>
+        <v>5.03</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>20/08/2023 08:59</t>
+          <t>20/08/2023 09:00</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.12</v>
+        <v>4.39</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>20/08/2023 14:26</t>
+          <t>20/08/2023 17:25</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-ilirija/zRWDoyR5/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-tabor-sezana/6ouckJRt/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>3.24</v>
+        <v>1.81</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4.09</v>
+        <v>2.13</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>30/08/2023 15:38</t>
+          <t>30/08/2023 16:51</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.15</v>
+        <v>3.51</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.69</v>
+        <v>3.62</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>30/08/2023 15:38</t>
+          <t>30/08/2023 16:21</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.03</v>
+        <v>3.42</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>1.75</v>
+        <v>2.95</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>30/08/2023 15:38</t>
+          <t>30/08/2023 16:51</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-grosuplje/OMD8pzPE/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-rudar/pv9TMWW7/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.81</v>
+        <v>2.41</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>03/08/2023 23:25</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.13</v>
+        <v>1.91</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>30/08/2023 16:51</t>
+          <t>30/08/2023 16:02</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.51</v>
+        <v>3.34</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>03/08/2023 23:25</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.62</v>
+        <v>3.65</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>30/08/2023 16:21</t>
+          <t>30/08/2023 16:02</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.42</v>
+        <v>2.66</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>03/08/2023 23:25</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.95</v>
+        <v>3.49</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>30/08/2023 16:51</t>
+          <t>30/08/2023 16:02</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-rudar/pv9TMWW7/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-dravinja/bN6HPYnk/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>2.41</v>
+        <v>3.24</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>03/08/2023 23:25</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.91</v>
+        <v>4.09</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>30/08/2023 16:02</t>
+          <t>30/08/2023 15:38</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.34</v>
+        <v>3.15</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>03/08/2023 23:25</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.65</v>
+        <v>3.69</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>30/08/2023 16:02</t>
+          <t>30/08/2023 15:38</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.66</v>
+        <v>2.03</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>03/08/2023 23:25</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.49</v>
+        <v>1.75</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>30/08/2023 16:02</t>
+          <t>30/08/2023 15:38</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-dravinja/bN6HPYnk/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-grosuplje/OMD8pzPE/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Dravinja</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
         <v>1</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Jadran Dekani</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>2</v>
-      </c>
       <c r="J54" t="n">
-        <v>3.41</v>
+        <v>1.43</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3.07</v>
+        <v>1.44</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>16/09/2023 14:53</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.32</v>
+        <v>4.12</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.44</v>
+        <v>4.32</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>16/09/2023 14:51</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>1.9</v>
+        <v>5.25</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.13</v>
+        <v>6.23</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>16/09/2023 14:53</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-jadran-dekani/za83hqvj/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-dravinja/INDbgPOq/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1.43</v>
+        <v>3.49</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.44</v>
+        <v>3.58</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:51</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4.12</v>
+        <v>3.52</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.32</v>
+        <v>3.74</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:51</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>5.25</v>
+        <v>1.79</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>6.23</v>
+        <v>1.85</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:51</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-dravinja/INDbgPOq/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-nk-krka/GERWc5GS/</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -5549,14 +5549,14 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>3.49</v>
+        <v>3.41</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3.58</v>
+        <v>3.07</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>16/09/2023 15:51</t>
+          <t>16/09/2023 14:53</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.52</v>
+        <v>3.32</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.74</v>
+        <v>3.44</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>16/09/2023 15:51</t>
+          <t>16/09/2023 14:51</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>1.85</v>
+        <v>2.13</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>16/09/2023 15:51</t>
+          <t>16/09/2023 14:53</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-nk-krka/GERWc5GS/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-jadran-dekani/za83hqvj/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>2.44</v>
+        <v>3.75</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.45</v>
+        <v>4.99</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:47</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.32</v>
+        <v>3.56</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.7</v>
+        <v>4.23</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:47</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.45</v>
+        <v>1.72</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.46</v>
+        <v>1.54</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:47</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-ilirija/dY8ySqV8/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-nk-krka/pf1lPsFR/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>1.84</v>
+        <v>2.44</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.4</v>
+        <v>3.32</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.42</v>
+        <v>2.45</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.15</v>
+        <v>2.46</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bistrica/je8uR3pF/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-ilirija/dY8ySqV8/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>3.75</v>
+        <v>1.84</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>4.99</v>
+        <v>1.75</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:47</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.56</v>
+        <v>3.4</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.23</v>
+        <v>3.65</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:47</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>1.72</v>
+        <v>3.42</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>1.54</v>
+        <v>4.15</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:47</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-nk-krka/pf1lPsFR/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bistrica/je8uR3pF/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>1.4</v>
+        <v>3.15</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.38</v>
+        <v>3.52</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:43</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.36</v>
+        <v>3.16</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.76</v>
+        <v>3.17</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:54</t>
+          <t>24/09/2023 15:41</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>5.39</v>
+        <v>2.06</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>6.65</v>
+        <v>2.06</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:54</t>
+          <t>24/09/2023 15:41</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-dravinja/n3mGK1Nr/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-jadran-dekani/GxhKJLxk/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>3.15</v>
+        <v>1.4</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.52</v>
+        <v>1.38</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 15:43</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.16</v>
+        <v>4.36</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.17</v>
+        <v>4.76</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>24/09/2023 15:41</t>
+          <t>24/09/2023 15:54</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.06</v>
+        <v>5.39</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.06</v>
+        <v>6.65</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>24/09/2023 15:41</t>
+          <t>24/09/2023 15:54</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-jadran-dekani/GxhKJLxk/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-dravinja/n3mGK1Nr/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>3.27</v>
+        <v>1.41</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>4</v>
+        <v>1.34</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:24</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.13</v>
+        <v>4.29</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.26</v>
+        <v>5.2</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>1.99</v>
+        <v>5.33</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>1.89</v>
+        <v>6.9</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-grosuplje/rkXIvNEE/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tabor-sezana/tbQnLYDg/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.72</v>
+        <v>3.27</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.78</v>
+        <v>4</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.77</v>
+        <v>3.13</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.06</v>
+        <v>3.26</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.65</v>
+        <v>1.99</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.61</v>
+        <v>1.89</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-bilje/4bYEu3a8/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-grosuplje/rkXIvNEE/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.29</v>
+        <v>1.72</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.25</v>
+        <v>1.78</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.2</v>
+        <v>3.77</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.37</v>
+        <v>4.06</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>30/09/2023 15:25</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.64</v>
+        <v>3.65</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.9</v>
+        <v>3.61</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>30/09/2023 15:24</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-triglav/jepXGJM7/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-bilje/4bYEu3a8/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>1.41</v>
+        <v>2.29</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,48 +7680,48 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.34</v>
+        <v>2.25</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
+          <t>30/09/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>29/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:25</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>29/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
           <t>30/09/2023 15:24</t>
         </is>
       </c>
-      <c r="N79" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>29/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="P79" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:29</t>
-        </is>
-      </c>
-      <c r="R79" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>29/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T79" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:29</t>
-        </is>
-      </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tabor-sezana/tbQnLYDg/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-triglav/jepXGJM7/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>1.71</v>
+        <v>1.34</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.52</v>
+        <v>1.29</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>07/10/2023 10:57</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.56</v>
+        <v>4.49</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4.11</v>
+        <v>5.25</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>07/10/2023 13:35</t>
+          <t>07/10/2023 15:19</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.79</v>
+        <v>6.24</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>5.27</v>
+        <v>8.34</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>07/10/2023 10:57</t>
+          <t>07/10/2023 15:19</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-bistrica/Qo0juf5P/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-dravinja/f1jMZXSn/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.04</v>
+        <v>1.71</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.34</v>
+        <v>1.52</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 10:57</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.22</v>
+        <v>3.56</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.34</v>
+        <v>4.11</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 13:35</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.06</v>
+        <v>3.79</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.8</v>
+        <v>5.27</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 10:57</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-jadran-dekani/YikQYirg/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-bistrica/Qo0juf5P/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>1.34</v>
+        <v>2.04</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.29</v>
+        <v>2.34</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>4.49</v>
+        <v>3.22</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>5.25</v>
+        <v>3.34</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>07/10/2023 15:19</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>6.24</v>
+        <v>3.06</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>8.34</v>
+        <v>2.8</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>07/10/2023 15:19</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-dravinja/f1jMZXSn/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-jadran-dekani/YikQYirg/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>1.51</v>
+        <v>2.1</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.71</v>
+        <v>2.22</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 14:45</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.98</v>
+        <v>3.17</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.79</v>
+        <v>3.54</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 14:45</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>4.65</v>
+        <v>2.97</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>4.19</v>
+        <v>2.83</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:44</t>
+          <t>14/10/2023 14:45</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tolmin/bazjTmCU/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-rudar/OtrwWkSB/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G92" t="n">
+        <v>2</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Primorje</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Bilje</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
       <c r="J92" t="n">
-        <v>2.62</v>
+        <v>3.73</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.17</v>
+        <v>4.44</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>14/10/2023 14:58</t>
+          <t>13/10/2023 09:50</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.24</v>
+        <v>3.66</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.62</v>
+        <v>3.91</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>14/10/2023 14:45</t>
+          <t>14/10/2023 13:04</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.33</v>
+        <v>1.7</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.87</v>
+        <v>1.64</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>14/10/2023 14:58</t>
+          <t>13/10/2023 09:50</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-bilje/xpnsV9sI/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-primorje/Aw04nBCh/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>3.73</v>
+        <v>1.51</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>4.44</v>
+        <v>1.71</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>13/10/2023 09:50</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.66</v>
+        <v>3.98</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.91</v>
+        <v>3.79</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>14/10/2023 13:04</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>1.7</v>
+        <v>4.65</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>1.64</v>
+        <v>4.19</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>13/10/2023 09:50</t>
+          <t>14/10/2023 14:44</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-primorje/Aw04nBCh/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tolmin/bazjTmCU/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2.1</v>
+        <v>2.62</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,48 +9060,48 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.22</v>
+        <v>2.17</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
+          <t>14/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
           <t>14/10/2023 14:45</t>
         </is>
       </c>
-      <c r="N94" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="O94" t="inlineStr">
+      <c r="R94" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S94" t="inlineStr">
         <is>
           <t>13/10/2023 02:13</t>
         </is>
       </c>
-      <c r="P94" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>14/10/2023 14:45</t>
-        </is>
-      </c>
-      <c r="R94" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>13/10/2023 02:13</t>
-        </is>
-      </c>
       <c r="T94" t="n">
-        <v>2.83</v>
+        <v>2.87</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>14/10/2023 14:45</t>
+          <t>14/10/2023 14:58</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-rudar/OtrwWkSB/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-bilje/xpnsV9sI/</t>
         </is>
       </c>
     </row>
@@ -9746,6 +9746,282 @@
       <c r="V101" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-primorje/Ot48oVRb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45220.53125</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Beltinci</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>ND Gorica</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:44</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:44</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>3</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:29</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-nd-gorica/df2Gq9dB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Dravinja</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:41</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-dravinja/8n1fxRlo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Tolmin</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>3</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Ilirija</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-ilirija/EVdLrTBH/</t>
         </is>
       </c>
     </row>

--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V104"/>
+  <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>1.83</v>
+        <v>2.56</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.9</v>
+        <v>2.52</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
@@ -9896,40 +9896,40 @@
         </is>
       </c>
       <c r="N103" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
         <v>3.49</v>
       </c>
-      <c r="O103" t="inlineStr">
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S103" t="inlineStr">
         <is>
           <t>20/10/2023 02:12</t>
         </is>
       </c>
-      <c r="P103" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="Q103" t="inlineStr">
+      <c r="T103" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U103" t="inlineStr">
         <is>
           <t>21/10/2023 14:43</t>
         </is>
       </c>
-      <c r="R103" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>20/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T103" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="U103" t="inlineStr">
-        <is>
-          <t>21/10/2023 14:41</t>
-        </is>
-      </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-dravinja/8n1fxRlo/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-ilirija/EVdLrTBH/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>2.56</v>
+        <v>1.83</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.52</v>
+        <v>1.9</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.16</v>
+        <v>3.49</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.49</v>
+        <v>3.67</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,108 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.5</v>
+        <v>3.48</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:41</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-ilirija/EVdLrTBH/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-dravinja/8n1fxRlo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45220.70833333334</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Nafta</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Jadran Dekani</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>20/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:52</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>20/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:52</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>20/10/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:45</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-jadran-dekani/Aiuw1ARo/</t>
         </is>
       </c>
     </row>

--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V105"/>
+  <dimension ref="A1:V107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.49</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>28/07/2023 06:12</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>29/07/2023 17:59</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.43</v>
+        <v>3.29</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>28/07/2023 06:12</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.62</v>
+        <v>3.16</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>29/07/2023 17:59</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>28/07/2023 06:12</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2.72</v>
+        <v>2.07</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>29/07/2023 17:59</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-ilirija/6PRxXGfF/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-nd-gorica/O0xYXdu9/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.49</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>28/07/2023 06:12</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 17:59</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.29</v>
+        <v>3.43</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>28/07/2023 06:12</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.16</v>
+        <v>3.62</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 17:59</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>28/07/2023 06:12</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.07</v>
+        <v>2.72</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 17:59</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-nd-gorica/O0xYXdu9/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-ilirija/6PRxXGfF/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>1.71</v>
+        <v>2.04</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.52</v>
+        <v>2.34</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>07/10/2023 10:57</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.56</v>
+        <v>3.22</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4.11</v>
+        <v>3.34</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>07/10/2023 13:35</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.79</v>
+        <v>3.06</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>5.27</v>
+        <v>2.8</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>07/10/2023 10:57</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-bistrica/Qo0juf5P/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-jadran-dekani/YikQYirg/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>2.04</v>
+        <v>1.71</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.34</v>
+        <v>1.52</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 10:57</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.22</v>
+        <v>3.56</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.34</v>
+        <v>4.11</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 13:35</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.06</v>
+        <v>3.79</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.8</v>
+        <v>5.27</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 10:57</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-jadran-dekani/YikQYirg/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-bistrica/Qo0juf5P/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>2.1</v>
+        <v>1.51</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.22</v>
+        <v>1.71</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:45</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.17</v>
+        <v>3.98</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.54</v>
+        <v>3.79</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:45</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.97</v>
+        <v>4.65</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2.83</v>
+        <v>4.19</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:45</t>
+          <t>14/10/2023 14:44</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-rudar/OtrwWkSB/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tolmin/bazjTmCU/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>3.73</v>
+        <v>2.62</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>4.44</v>
+        <v>2.17</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>13/10/2023 09:50</t>
+          <t>14/10/2023 14:58</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.66</v>
+        <v>3.24</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.91</v>
+        <v>3.62</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>14/10/2023 13:04</t>
+          <t>14/10/2023 14:45</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>1.7</v>
+        <v>2.33</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>1.64</v>
+        <v>2.87</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>13/10/2023 09:50</t>
+          <t>14/10/2023 14:58</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-primorje/Aw04nBCh/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-bilje/xpnsV9sI/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Primorje</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Tolmin</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
       <c r="J93" t="n">
-        <v>1.51</v>
+        <v>3.73</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.71</v>
+        <v>4.44</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>13/10/2023 09:50</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.98</v>
+        <v>3.66</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.79</v>
+        <v>3.91</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 13:04</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>4.65</v>
+        <v>1.7</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>4.19</v>
+        <v>1.64</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>14/10/2023 14:44</t>
+          <t>13/10/2023 09:50</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tolmin/bazjTmCU/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-primorje/Aw04nBCh/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2.62</v>
+        <v>2.1</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.17</v>
+        <v>2.22</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>14/10/2023 14:58</t>
+          <t>14/10/2023 14:45</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.24</v>
+        <v>3.17</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.62</v>
+        <v>3.54</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.33</v>
+        <v>2.97</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.87</v>
+        <v>2.83</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>14/10/2023 14:58</t>
+          <t>14/10/2023 14:45</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-bilje/xpnsV9sI/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-rudar/OtrwWkSB/</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,14 +9137,14 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>3.48</v>
+        <v>1.72</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>5.99</v>
+        <v>1.6</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>15/10/2023 14:43</t>
+          <t>15/10/2023 14:41</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.44</v>
+        <v>3.57</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>4.19</v>
+        <v>4.03</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>15/10/2023 14:43</t>
+          <t>15/10/2023 14:41</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>1.81</v>
+        <v>3.73</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>1.47</v>
+        <v>4.77</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-beltinci/lOBelXst/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-triglav/UJrZWVC5/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,14 +9229,14 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.72</v>
+        <v>3.48</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,48 +9244,48 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.6</v>
+        <v>5.99</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
+          <t>15/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
           <t>15/10/2023 14:41</t>
         </is>
       </c>
-      <c r="N96" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>14/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P96" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>15/10/2023 14:41</t>
-        </is>
-      </c>
-      <c r="R96" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>14/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T96" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>15/10/2023 14:41</t>
-        </is>
-      </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-triglav/UJrZWVC5/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-beltinci/lOBelXst/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>2.56</v>
+        <v>1.83</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.52</v>
+        <v>1.9</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.16</v>
+        <v>3.49</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.49</v>
+        <v>3.67</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.5</v>
+        <v>3.48</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:41</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-ilirija/EVdLrTBH/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-dravinja/8n1fxRlo/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>1.83</v>
+        <v>2.56</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.9</v>
+        <v>2.52</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
@@ -9988,40 +9988,40 @@
         </is>
       </c>
       <c r="N104" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
         <v>3.49</v>
       </c>
-      <c r="O104" t="inlineStr">
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S104" t="inlineStr">
         <is>
           <t>20/10/2023 02:12</t>
         </is>
       </c>
-      <c r="P104" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="Q104" t="inlineStr">
+      <c r="T104" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U104" t="inlineStr">
         <is>
           <t>21/10/2023 14:43</t>
         </is>
       </c>
-      <c r="R104" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>20/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T104" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="U104" t="inlineStr">
-        <is>
-          <t>21/10/2023 14:41</t>
-        </is>
-      </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-dravinja/8n1fxRlo/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-ilirija/EVdLrTBH/</t>
         </is>
       </c>
     </row>
@@ -10114,6 +10114,190 @@
       <c r="V105" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-jadran-dekani/Aiuw1ARo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45223.625</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Bilje</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>5</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Fuzinar</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>23/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>2</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>24/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>23/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>24/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>23/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>24/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-fuzinar/OpdeyWo1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45223.625</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Grosuplje</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Primorje</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>08/08/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>24/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>08/08/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>24/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>08/08/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>24/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-primorje/pfcixCWf/</t>
         </is>
       </c>
     </row>

--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V107"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>2.44</v>
+        <v>1.84</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.45</v>
+        <v>3.42</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.46</v>
+        <v>4.15</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-ilirija/dY8ySqV8/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bistrica/je8uR3pF/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>1.84</v>
+        <v>2.44</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.4</v>
+        <v>3.32</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.42</v>
+        <v>2.45</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.15</v>
+        <v>2.46</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bistrica/je8uR3pF/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-ilirija/dY8ySqV8/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>3.72</v>
+        <v>1.29</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>4.94</v>
+        <v>1.25</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>29/09/2023 15:20</t>
+          <t>29/09/2023 13:45</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.4</v>
+        <v>4.98</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.8</v>
+        <v>6.11</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>29/09/2023 15:20</t>
+          <t>29/09/2023 15:29</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>1.79</v>
+        <v>6.88</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>1.61</v>
+        <v>7.81</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>29/09/2023 15:20</t>
+          <t>29/09/2023 15:29</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-primorje/f1UjKhTa/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-fuzinar/xQJeJCr6/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.29</v>
+        <v>3.72</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.25</v>
+        <v>4.94</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>29/09/2023 13:45</t>
+          <t>29/09/2023 15:20</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>4.98</v>
+        <v>3.4</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>6.11</v>
+        <v>3.8</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>29/09/2023 15:29</t>
+          <t>29/09/2023 15:20</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>6.88</v>
+        <v>1.79</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>7.81</v>
+        <v>1.61</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>29/09/2023 15:29</t>
+          <t>29/09/2023 15:20</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-fuzinar/xQJeJCr6/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-primorje/f1UjKhTa/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>1.34</v>
+        <v>2.04</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.29</v>
+        <v>2.34</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>4.49</v>
+        <v>3.22</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>5.25</v>
+        <v>3.34</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>07/10/2023 15:19</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>6.24</v>
+        <v>3.06</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>8.34</v>
+        <v>2.8</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>07/10/2023 15:19</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-dravinja/f1jMZXSn/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-jadran-dekani/YikQYirg/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>2.04</v>
+        <v>1.34</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.34</v>
+        <v>1.29</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.22</v>
+        <v>4.49</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.34</v>
+        <v>5.25</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 15:19</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.06</v>
+        <v>6.24</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.8</v>
+        <v>8.34</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 15:19</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-jadran-dekani/YikQYirg/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-dravinja/f1jMZXSn/</t>
         </is>
       </c>
     </row>
@@ -10298,6 +10298,374 @@
       <c r="V107" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-primorje/pfcixCWf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45224.625</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Jadran Dekani</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>NK Bistrica</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>4</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>25/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>25/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>25/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-bistrica/WnwnbggE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45224.625</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Beltinci</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Triglav</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>2</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>08/08/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>25/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>08/08/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>25/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>08/08/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>25/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-triglav/xUgqvY1r/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45224.625</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Dravinja</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>3</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>NK Krka</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>25/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>25/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>25/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-nk-krka/AwxjcD8K/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45224.625</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Tolmin</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>3</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Tabor Sezana</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>25/10/2023 14:50</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>25/10/2023 14:50</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>25/10/2023 14:50</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-tabor-sezana/GKhmwhHl/</t>
         </is>
       </c>
     </row>

--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:V112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>3.75</v>
+        <v>1.84</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>4.99</v>
+        <v>1.75</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:47</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.56</v>
+        <v>3.4</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>4.23</v>
+        <v>3.65</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:47</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>1.72</v>
+        <v>3.42</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>1.54</v>
+        <v>4.15</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:47</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-nk-krka/pf1lPsFR/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bistrica/je8uR3pF/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>1.84</v>
+        <v>2.44</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.4</v>
+        <v>3.32</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.42</v>
+        <v>2.45</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.15</v>
+        <v>2.46</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bistrica/je8uR3pF/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-ilirija/dY8ySqV8/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>2.44</v>
+        <v>3.75</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.45</v>
+        <v>4.99</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:47</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.32</v>
+        <v>3.56</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.7</v>
+        <v>4.23</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:47</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.45</v>
+        <v>1.72</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.46</v>
+        <v>1.54</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:47</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-ilirija/dY8ySqV8/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-nk-krka/pf1lPsFR/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>1.41</v>
+        <v>2.29</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,48 +7404,48 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.34</v>
+        <v>2.25</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
+          <t>30/09/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>29/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:25</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>29/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
           <t>30/09/2023 15:24</t>
         </is>
       </c>
-      <c r="N76" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>29/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="P76" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:29</t>
-        </is>
-      </c>
-      <c r="R76" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>29/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T76" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:29</t>
-        </is>
-      </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tabor-sezana/tbQnLYDg/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-triglav/jepXGJM7/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1.72</v>
+        <v>1.41</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.78</v>
+        <v>1.34</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:24</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.77</v>
+        <v>4.29</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.06</v>
+        <v>5.2</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.65</v>
+        <v>5.33</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.61</v>
+        <v>6.9</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-bilje/4bYEu3a8/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tabor-sezana/tbQnLYDg/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.29</v>
+        <v>1.72</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.25</v>
+        <v>1.78</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.2</v>
+        <v>3.77</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.37</v>
+        <v>4.06</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:25</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.64</v>
+        <v>3.65</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.9</v>
+        <v>3.61</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:24</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-triglav/jepXGJM7/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-bilje/4bYEu3a8/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>2.04</v>
+        <v>1.71</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.34</v>
+        <v>1.52</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 10:57</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.22</v>
+        <v>3.56</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.34</v>
+        <v>4.11</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 13:35</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.06</v>
+        <v>3.79</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.8</v>
+        <v>5.27</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 10:57</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-jadran-dekani/YikQYirg/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-bistrica/Qo0juf5P/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>1.34</v>
+        <v>2.04</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.29</v>
+        <v>2.34</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>4.49</v>
+        <v>3.22</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>5.25</v>
+        <v>3.34</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>07/10/2023 15:19</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>6.24</v>
+        <v>3.06</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>8.34</v>
+        <v>2.8</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>07/10/2023 15:19</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-dravinja/f1jMZXSn/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-jadran-dekani/YikQYirg/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>1.71</v>
+        <v>1.34</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.52</v>
+        <v>1.29</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>07/10/2023 10:57</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.56</v>
+        <v>4.49</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.11</v>
+        <v>5.25</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>07/10/2023 13:35</t>
+          <t>07/10/2023 15:19</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.79</v>
+        <v>6.24</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>5.27</v>
+        <v>8.34</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>07/10/2023 10:57</t>
+          <t>07/10/2023 15:19</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-bistrica/Qo0juf5P/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-dravinja/f1jMZXSn/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>2.62</v>
+        <v>3.75</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3.04</v>
+        <v>2.86</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 15:27</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.22</v>
+        <v>3.48</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.36</v>
+        <v>3.82</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 15:28</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.29</v>
+        <v>1.74</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 15:27</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-nafta/jTqVXBca/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-nk-krka/0viIzEDt/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J86" t="n">
-        <v>2.97</v>
+        <v>2.62</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3.94</v>
+        <v>3.04</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>08/10/2023 13:47</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.92</v>
+        <v>3.36</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.05</v>
+        <v>2.29</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>1.72</v>
+        <v>2.18</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>08/10/2023 13:47</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-ilirija/OtM7GASO/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-nafta/jTqVXBca/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>3</v>
       </c>
       <c r="J87" t="n">
-        <v>3.75</v>
+        <v>2.97</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.86</v>
+        <v>3.94</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>08/10/2023 15:27</t>
+          <t>08/10/2023 13:47</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.48</v>
+        <v>3.28</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.82</v>
+        <v>3.92</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>08/10/2023 15:28</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>1.74</v>
+        <v>2.05</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.11</v>
+        <v>1.72</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>08/10/2023 15:27</t>
+          <t>08/10/2023 13:47</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-nk-krka/0viIzEDt/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-ilirija/OtM7GASO/</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,14 +9137,14 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1.72</v>
+        <v>3.48</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,48 +9152,48 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.6</v>
+        <v>5.99</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
+          <t>15/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
           <t>15/10/2023 14:41</t>
         </is>
       </c>
-      <c r="N95" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>14/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P95" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>15/10/2023 14:41</t>
-        </is>
-      </c>
-      <c r="R95" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>14/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T95" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>15/10/2023 14:41</t>
-        </is>
-      </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-triglav/UJrZWVC5/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-beltinci/lOBelXst/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,14 +9229,14 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>3.48</v>
+        <v>1.72</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>5.99</v>
+        <v>1.6</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>15/10/2023 14:43</t>
+          <t>15/10/2023 14:41</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.44</v>
+        <v>3.57</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>4.19</v>
+        <v>4.03</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>15/10/2023 14:43</t>
+          <t>15/10/2023 14:41</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>1.81</v>
+        <v>3.73</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>1.47</v>
+        <v>4.77</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-beltinci/lOBelXst/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-triglav/UJrZWVC5/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J98" t="n">
-        <v>2.55</v>
+        <v>2.71</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.55</v>
+        <v>3.21</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>20/10/2023 14:58</t>
+          <t>20/10/2023 14:55</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.22</v>
+        <v>3.31</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.76</v>
+        <v>3.81</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>20/10/2023 14:58</t>
+          <t>20/10/2023 14:59</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>2.36</v>
+        <v>2.19</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>20/10/2023 14:58</t>
+          <t>20/10/2023 14:59</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-nk-krka/nqeTt7tU/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-fuzinar/I33Cpks5/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>2.71</v>
+        <v>2.55</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>3.21</v>
+        <v>2.55</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>20/10/2023 14:55</t>
+          <t>20/10/2023 14:58</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.31</v>
+        <v>3.22</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.81</v>
+        <v>3.76</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>20/10/2023 14:59</t>
+          <t>20/10/2023 14:58</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>2.19</v>
+        <v>2.36</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>20/10/2023 14:59</t>
+          <t>20/10/2023 14:58</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-fuzinar/I33Cpks5/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-nk-krka/nqeTt7tU/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>1.89</v>
+        <v>2.62</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>23/10/2023 02:12</t>
+          <t>08/08/2023 04:42</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2</v>
+        <v>2.54</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>24/10/2023 14:56</t>
+          <t>24/10/2023 14:54</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.58</v>
+        <v>3.06</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>23/10/2023 02:12</t>
+          <t>08/08/2023 04:42</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.68</v>
+        <v>3.05</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>24/10/2023 14:58</t>
+          <t>24/10/2023 14:59</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.12</v>
+        <v>2.44</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>23/10/2023 02:12</t>
+          <t>08/08/2023 04:42</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>3.19</v>
+        <v>2.75</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>24/10/2023 14:58</t>
+          <t>24/10/2023 14:54</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-fuzinar/OpdeyWo1/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-primorje/pfcixCWf/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G107" t="n">
+        <v>5</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Fuzinar</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
         <v>1</v>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Primorje</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
       <c r="J107" t="n">
-        <v>2.62</v>
+        <v>1.89</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>08/08/2023 04:42</t>
+          <t>23/10/2023 02:12</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.54</v>
+        <v>2</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>24/10/2023 14:54</t>
+          <t>24/10/2023 14:56</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.06</v>
+        <v>3.58</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>08/08/2023 04:42</t>
+          <t>23/10/2023 02:12</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.05</v>
+        <v>3.68</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>24/10/2023 14:59</t>
+          <t>24/10/2023 14:58</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.44</v>
+        <v>3.12</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>08/08/2023 04:42</t>
+          <t>23/10/2023 02:12</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.75</v>
+        <v>3.19</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>24/10/2023 14:54</t>
+          <t>24/10/2023 14:58</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-primorje/pfcixCWf/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-fuzinar/OpdeyWo1/</t>
         </is>
       </c>
     </row>
@@ -10417,71 +10417,71 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G109" t="n">
+        <v>3</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Tabor Sezana</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
         <v>1</v>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Triglav</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
-        <v>2</v>
-      </c>
       <c r="J109" t="n">
-        <v>2.13</v>
+        <v>1.69</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>08/08/2023 04:42</t>
+          <t>24/10/2023 02:12</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.49</v>
+        <v>1.96</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>25/10/2023 14:59</t>
+          <t>25/10/2023 14:50</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>08/08/2023 04:42</t>
+          <t>24/10/2023 02:12</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>4.51</v>
+        <v>3.8</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>25/10/2023 14:59</t>
+          <t>25/10/2023 14:50</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>2.86</v>
+        <v>3.78</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>08/08/2023 04:42</t>
+          <t>24/10/2023 02:12</t>
         </is>
       </c>
       <c r="T109" t="n">
-        <v>5.21</v>
+        <v>3.2</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>25/10/2023 14:59</t>
+          <t>25/10/2023 14:50</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-triglav/xUgqvY1r/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-tabor-sezana/GKhmwhHl/</t>
         </is>
       </c>
     </row>
@@ -10509,71 +10509,71 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="n">
-        <v>3.2</v>
+        <v>2.13</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>24/10/2023 02:12</t>
+          <t>08/08/2023 04:42</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.88</v>
+        <v>1.49</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>25/10/2023 14:57</t>
+          <t>25/10/2023 14:59</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.36</v>
+        <v>3.25</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>24/10/2023 02:12</t>
+          <t>08/08/2023 04:42</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.39</v>
+        <v>4.51</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>25/10/2023 14:57</t>
+          <t>25/10/2023 14:59</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>1.93</v>
+        <v>2.86</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>24/10/2023 02:12</t>
+          <t>08/08/2023 04:42</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>2.26</v>
+        <v>5.21</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>25/10/2023 14:57</t>
+          <t>25/10/2023 14:59</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-nk-krka/AwxjcD8K/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-triglav/xUgqvY1r/</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -10609,14 +10609,14 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>1.69</v>
+        <v>3.2</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.96</v>
+        <v>2.88</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>25/10/2023 14:50</t>
+          <t>25/10/2023 14:57</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.65</v>
+        <v>3.36</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.8</v>
+        <v>3.39</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>25/10/2023 14:50</t>
+          <t>25/10/2023 14:57</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>3.78</v>
+        <v>1.93</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,108 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.2</v>
+        <v>2.26</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>25/10/2023 14:50</t>
+          <t>25/10/2023 14:57</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-tabor-sezana/GKhmwhHl/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-nk-krka/AwxjcD8K/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45225.625</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>ND Gorica</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>25/10/2023 02:15</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>26/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>25/10/2023 02:15</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>26/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>25/10/2023 02:15</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>26/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-nd-gorica/69o0zj17/</t>
         </is>
       </c>
     </row>

--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V112"/>
+  <dimension ref="A1:V120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3.5</v>
+        <v>3.12</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 17:58</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.29</v>
+        <v>3.66</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.16</v>
+        <v>3.45</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 17:58</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2.07</v>
+        <v>1.92</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 17:58</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-nd-gorica/O0xYXdu9/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-triglav/YLWrBZXe/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.49</v>
+        <v>1.91</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>28/07/2023 06:12</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>29/07/2023 17:59</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.43</v>
+        <v>3.42</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>28/07/2023 06:12</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.62</v>
+        <v>3.44</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>29/07/2023 17:59</t>
+          <t>29/07/2023 16:02</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.85</v>
+        <v>3.48</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>28/07/2023 06:12</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.72</v>
+        <v>3.48</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>29/07/2023 17:59</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-ilirija/6PRxXGfF/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-dravinja/GbHCQEXr/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>1.91</v>
+        <v>3.49</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>28/07/2023 06:12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>29/07/2023 17:59</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.42</v>
+        <v>3.43</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>28/07/2023 06:12</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.44</v>
+        <v>3.62</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>29/07/2023 16:02</t>
+          <t>29/07/2023 17:59</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.48</v>
+        <v>1.85</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>28/07/2023 06:12</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.48</v>
+        <v>2.72</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>29/07/2023 17:59</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-dravinja/GbHCQEXr/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-ilirija/6PRxXGfF/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>29/07/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
         <v>3.5</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>29/07/2023 17:02</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>29/07/2023 14:12</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>29/07/2023 17:58</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>29/07/2023 17:02</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>29/07/2023 14:12</t>
         </is>
       </c>
-      <c r="P6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>29/07/2023 17:58</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>29/07/2023 14:12</t>
-        </is>
-      </c>
       <c r="T6" t="n">
-        <v>1.92</v>
+        <v>2.07</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>29/07/2023 17:58</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-triglav/YLWrBZXe/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-nd-gorica/O0xYXdu9/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>1.66</v>
+        <v>2.97</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.89</v>
+        <v>3.01</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 17:21</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.56</v>
+        <v>3.35</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.68</v>
+        <v>3.78</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 17:21</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.09</v>
+        <v>2.03</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.51</v>
+        <v>2.05</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 17:21</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-jadran-dekani/OpIQjBol/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-rudar/KCBZlkG0/</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,63 +1685,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>1.64</v>
+        <v>2.03</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>13/08/2023 10:40</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.94</v>
+        <v>2.25</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>13/08/2023 16:02</t>
+          <t>13/08/2023 15:23</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>13/08/2023 10:40</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.51</v>
+        <v>3.42</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>13/08/2023 16:02</t>
+          <t>13/08/2023 15:34</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>4.07</v>
+        <v>3.21</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>13/08/2023 10:40</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.5</v>
+        <v>2.83</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>13/08/2023 16:02</t>
+          <t>13/08/2023 15:23</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bilje/b3Awl9V6/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-nafta/xlMUkV0f/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.03</v>
+        <v>1.64</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>13/08/2023 10:40</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.25</v>
+        <v>1.94</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>13/08/2023 15:23</t>
+          <t>13/08/2023 16:02</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>13/08/2023 10:40</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.42</v>
+        <v>3.51</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>13/08/2023 15:34</t>
+          <t>13/08/2023 16:02</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.21</v>
+        <v>4.07</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>13/08/2023 10:40</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.83</v>
+        <v>3.5</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>13/08/2023 15:23</t>
+          <t>13/08/2023 16:02</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-nafta/xlMUkV0f/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bilje/b3Awl9V6/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.97</v>
+        <v>1.66</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.01</v>
+        <v>1.89</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>13/08/2023 17:21</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.35</v>
+        <v>3.56</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.78</v>
+        <v>3.68</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>13/08/2023 17:21</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.03</v>
+        <v>4.09</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.05</v>
+        <v>3.51</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>13/08/2023 17:21</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-rudar/KCBZlkG0/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-jadran-dekani/OpIQjBol/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>2.41</v>
+        <v>3.24</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>03/08/2023 23:25</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.91</v>
+        <v>4.09</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>30/08/2023 16:02</t>
+          <t>30/08/2023 15:38</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.34</v>
+        <v>3.15</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>03/08/2023 23:25</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.65</v>
+        <v>3.69</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>30/08/2023 16:02</t>
+          <t>30/08/2023 15:38</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.66</v>
+        <v>2.03</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>03/08/2023 23:25</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.49</v>
+        <v>1.75</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>30/08/2023 16:02</t>
+          <t>30/08/2023 15:38</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-dravinja/bN6HPYnk/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-grosuplje/OMD8pzPE/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>3.24</v>
+        <v>2.41</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>03/08/2023 23:25</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4.09</v>
+        <v>1.91</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>30/08/2023 15:38</t>
+          <t>30/08/2023 16:02</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.15</v>
+        <v>3.34</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>03/08/2023 23:25</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.69</v>
+        <v>3.65</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>30/08/2023 15:38</t>
+          <t>30/08/2023 16:02</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.03</v>
+        <v>2.66</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>03/08/2023 23:25</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>1.75</v>
+        <v>3.49</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>30/08/2023 15:38</t>
+          <t>30/08/2023 16:02</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-grosuplje/OMD8pzPE/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-dravinja/bN6HPYnk/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>4.32</v>
+        <v>1.58</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>3.42</v>
+        <v>1.44</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 14:41</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.88</v>
+        <v>3.99</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.99</v>
+        <v>4.38</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 14:41</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>1.66</v>
+        <v>4.75</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>1.85</v>
+        <v>6.18</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 14:41</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-rudar/UNYplUn4/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-dravinja/f5tYjW2o/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Jadran Dekani</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
         <v>3</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Nafta</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
       <c r="J34" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.33</v>
+        <v>2.84</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>02/09/2023 16:27</t>
+          <t>02/09/2023 16:21</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.25</v>
+        <v>3.12</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.38</v>
+        <v>3.36</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>02/09/2023 16:27</t>
+          <t>02/09/2023 16:21</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.77</v>
+        <v>2.3</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>02/09/2023 16:27</t>
+          <t>02/09/2023 16:21</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-nafta/GKUtkAXc/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-jadran-dekani/YeuxjjIi/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.58</v>
+        <v>4.32</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,48 +3632,48 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.44</v>
+        <v>3.42</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>02/09/2023 14:41</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="N35" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>02/09/2023 14:10</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
         <v>3.99</v>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>02/09/2023 16:28</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S35" t="inlineStr">
         <is>
           <t>02/09/2023 14:10</t>
         </is>
       </c>
-      <c r="P35" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>02/09/2023 14:41</t>
-        </is>
-      </c>
-      <c r="R35" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>02/09/2023 14:10</t>
-        </is>
-      </c>
       <c r="T35" t="n">
-        <v>6.18</v>
+        <v>1.85</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>02/09/2023 14:41</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-dravinja/f5tYjW2o/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-rudar/UNYplUn4/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Nafta</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Jadran Dekani</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>3</v>
-      </c>
       <c r="J36" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.84</v>
+        <v>2.33</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>02/09/2023 16:21</t>
+          <t>02/09/2023 16:27</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.12</v>
+        <v>3.25</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.36</v>
+        <v>3.38</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>02/09/2023 16:21</t>
+          <t>02/09/2023 16:27</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.3</v>
+        <v>2.77</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>02/09/2023 16:21</t>
+          <t>02/09/2023 16:27</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-jadran-dekani/YeuxjjIi/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-nafta/GKUtkAXc/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2.41</v>
+        <v>1.54</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.4</v>
+        <v>1.49</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>09/09/2023 16:15</t>
+          <t>09/09/2023 16:22</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.23</v>
+        <v>3.85</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.56</v>
+        <v>4.38</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>09/09/2023 16:14</t>
+          <t>09/09/2023 16:22</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.54</v>
+        <v>4.49</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.91</v>
+        <v>5.37</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>09/09/2023 16:15</t>
+          <t>09/09/2023 16:22</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-beltinci/vJZLu6fp/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-tolmin/MwmfpnnT/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,63 +4537,63 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.19</v>
+        <v>1.93</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>09/09/2023 13:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.29</v>
+        <v>2.32</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>6.85</v>
+        <v>3.41</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>09/09/2023 13:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>5.9</v>
+        <v>3.53</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:20</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>8.869999999999999</v>
+        <v>3.15</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>09/09/2023 13:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>7.25</v>
+        <v>2.69</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-tabor-sezana/hMwQvQ9j/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-fuzinar/YHGC2T1c/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,63 +4629,63 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.93</v>
+        <v>1.19</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 13:42</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.32</v>
+        <v>1.29</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.41</v>
+        <v>6.85</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 13:42</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.53</v>
+        <v>5.9</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>09/09/2023 16:20</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.15</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 13:42</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.69</v>
+        <v>7.25</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-fuzinar/YHGC2T1c/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-tabor-sezana/hMwQvQ9j/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.54</v>
+        <v>2.41</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.49</v>
+        <v>3.4</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>09/09/2023 16:22</t>
+          <t>09/09/2023 16:15</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.85</v>
+        <v>3.23</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.38</v>
+        <v>3.56</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>09/09/2023 16:22</t>
+          <t>09/09/2023 16:14</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>4.49</v>
+        <v>2.54</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>5.37</v>
+        <v>1.91</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>09/09/2023 16:22</t>
+          <t>09/09/2023 16:15</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-tolmin/MwmfpnnT/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-beltinci/vJZLu6fp/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Jadran Dekani</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
         <v>2</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Dravinja</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
       <c r="J54" t="n">
-        <v>1.43</v>
+        <v>3.41</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.44</v>
+        <v>3.07</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 14:53</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4.12</v>
+        <v>3.32</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>4.32</v>
+        <v>3.44</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 14:51</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>5.25</v>
+        <v>1.9</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>6.23</v>
+        <v>2.13</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 14:53</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-dravinja/INDbgPOq/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-jadran-dekani/za83hqvj/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>3.49</v>
+        <v>1.43</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3.58</v>
+        <v>1.44</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>16/09/2023 15:51</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.52</v>
+        <v>4.12</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.74</v>
+        <v>4.32</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>16/09/2023 15:51</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1.79</v>
+        <v>5.25</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.85</v>
+        <v>6.23</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>16/09/2023 15:51</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-nk-krka/GERWc5GS/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-dravinja/INDbgPOq/</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -5549,14 +5549,14 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>3.41</v>
+        <v>3.49</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3.07</v>
+        <v>3.58</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>16/09/2023 14:53</t>
+          <t>16/09/2023 15:51</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.32</v>
+        <v>3.52</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.44</v>
+        <v>3.74</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>16/09/2023 14:51</t>
+          <t>16/09/2023 15:51</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>2.13</v>
+        <v>1.85</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>16/09/2023 14:53</t>
+          <t>16/09/2023 15:51</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-jadran-dekani/za83hqvj/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-nk-krka/GERWc5GS/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>1.84</v>
+        <v>2.44</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.4</v>
+        <v>3.32</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>3.42</v>
+        <v>2.45</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>4.15</v>
+        <v>2.46</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bistrica/je8uR3pF/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-ilirija/dY8ySqV8/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>2.44</v>
+        <v>1.84</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.45</v>
+        <v>3.42</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.46</v>
+        <v>4.15</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-ilirija/dY8ySqV8/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bistrica/je8uR3pF/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>3.15</v>
+        <v>1.4</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.52</v>
+        <v>1.38</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 15:43</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.16</v>
+        <v>4.36</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.17</v>
+        <v>4.76</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:41</t>
+          <t>24/09/2023 15:54</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.06</v>
+        <v>5.39</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.06</v>
+        <v>6.65</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:41</t>
+          <t>24/09/2023 15:54</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-jadran-dekani/GxhKJLxk/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-dravinja/n3mGK1Nr/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>1.4</v>
+        <v>3.15</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.38</v>
+        <v>3.52</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>24/09/2023 15:43</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>4.36</v>
+        <v>3.16</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>4.76</v>
+        <v>3.17</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>24/09/2023 15:54</t>
+          <t>24/09/2023 15:41</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>5.39</v>
+        <v>2.06</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>6.65</v>
+        <v>2.06</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>24/09/2023 15:54</t>
+          <t>24/09/2023 15:41</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-dravinja/n3mGK1Nr/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-jadran-dekani/GxhKJLxk/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J85" t="n">
-        <v>3.75</v>
+        <v>2.62</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.86</v>
+        <v>3.04</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>08/10/2023 15:27</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.48</v>
+        <v>3.22</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.82</v>
+        <v>3.36</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>08/10/2023 15:28</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>1.74</v>
+        <v>2.29</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.11</v>
+        <v>2.18</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>08/10/2023 15:27</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-nk-krka/0viIzEDt/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-nafta/jTqVXBca/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>2.62</v>
+        <v>2.97</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,48 +8324,48 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3.04</v>
+        <v>3.94</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
+          <t>08/10/2023 13:47</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
           <t>08/10/2023 15:01</t>
         </is>
       </c>
-      <c r="N86" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="O86" t="inlineStr">
+      <c r="R86" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S86" t="inlineStr">
         <is>
           <t>07/10/2023 02:42</t>
         </is>
       </c>
-      <c r="P86" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>08/10/2023 15:01</t>
-        </is>
-      </c>
-      <c r="R86" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>07/10/2023 02:42</t>
-        </is>
-      </c>
       <c r="T86" t="n">
-        <v>2.18</v>
+        <v>1.72</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 13:47</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-nafta/jTqVXBca/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-ilirija/OtM7GASO/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>3</v>
       </c>
       <c r="J87" t="n">
-        <v>2.97</v>
+        <v>3.75</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>3.94</v>
+        <v>2.86</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>08/10/2023 13:47</t>
+          <t>08/10/2023 15:27</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.28</v>
+        <v>3.48</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.92</v>
+        <v>3.82</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 15:28</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.05</v>
+        <v>1.74</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1.72</v>
+        <v>2.11</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>08/10/2023 13:47</t>
+          <t>08/10/2023 15:27</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-ilirija/OtM7GASO/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-nk-krka/0viIzEDt/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>1.51</v>
+        <v>2.1</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.71</v>
+        <v>2.22</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 14:45</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.98</v>
+        <v>3.17</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.79</v>
+        <v>3.54</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 14:45</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>4.65</v>
+        <v>2.97</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>4.19</v>
+        <v>2.83</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:44</t>
+          <t>14/10/2023 14:45</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tolmin/bazjTmCU/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-rudar/OtrwWkSB/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G92" t="n">
+        <v>2</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Primorje</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Bilje</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
       <c r="J92" t="n">
-        <v>2.62</v>
+        <v>3.73</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.17</v>
+        <v>4.44</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>14/10/2023 14:58</t>
+          <t>13/10/2023 09:50</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.24</v>
+        <v>3.66</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.62</v>
+        <v>3.91</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>14/10/2023 14:45</t>
+          <t>14/10/2023 13:04</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.33</v>
+        <v>1.7</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.87</v>
+        <v>1.64</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>14/10/2023 14:58</t>
+          <t>13/10/2023 09:50</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-bilje/xpnsV9sI/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-primorje/Aw04nBCh/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>3.73</v>
+        <v>1.51</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>4.44</v>
+        <v>1.71</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>13/10/2023 09:50</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.66</v>
+        <v>3.98</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.91</v>
+        <v>3.79</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>14/10/2023 13:04</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>1.7</v>
+        <v>4.65</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>1.64</v>
+        <v>4.19</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>13/10/2023 09:50</t>
+          <t>14/10/2023 14:44</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-primorje/Aw04nBCh/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tolmin/bazjTmCU/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2.1</v>
+        <v>2.62</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,48 +9060,48 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.22</v>
+        <v>2.17</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
+          <t>14/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
           <t>14/10/2023 14:45</t>
         </is>
       </c>
-      <c r="N94" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="O94" t="inlineStr">
+      <c r="R94" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S94" t="inlineStr">
         <is>
           <t>13/10/2023 02:13</t>
         </is>
       </c>
-      <c r="P94" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>14/10/2023 14:45</t>
-        </is>
-      </c>
-      <c r="R94" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>13/10/2023 02:13</t>
-        </is>
-      </c>
       <c r="T94" t="n">
-        <v>2.83</v>
+        <v>2.87</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>14/10/2023 14:45</t>
+          <t>14/10/2023 14:58</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-rudar/OtrwWkSB/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-bilje/xpnsV9sI/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J98" t="n">
-        <v>2.71</v>
+        <v>2.55</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>3.21</v>
+        <v>2.55</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>20/10/2023 14:55</t>
+          <t>20/10/2023 14:58</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.31</v>
+        <v>3.22</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.81</v>
+        <v>3.76</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>20/10/2023 14:59</t>
+          <t>20/10/2023 14:58</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>2.19</v>
+        <v>2.36</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>20/10/2023 14:59</t>
+          <t>20/10/2023 14:58</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-fuzinar/I33Cpks5/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-nk-krka/nqeTt7tU/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J100" t="n">
-        <v>2.55</v>
+        <v>2.71</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.55</v>
+        <v>3.21</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>20/10/2023 14:58</t>
+          <t>20/10/2023 14:55</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.22</v>
+        <v>3.31</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.76</v>
+        <v>3.81</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>20/10/2023 14:58</t>
+          <t>20/10/2023 14:59</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>2.36</v>
+        <v>2.19</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>20/10/2023 14:58</t>
+          <t>20/10/2023 14:59</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-nk-krka/nqeTt7tU/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-fuzinar/I33Cpks5/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,63 +10333,63 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>2.31</v>
+        <v>2.13</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>24/10/2023 02:12</t>
+          <t>08/08/2023 04:42</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.05</v>
+        <v>1.49</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>25/10/2023 14:57</t>
+          <t>25/10/2023 14:59</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.11</v>
+        <v>3.25</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>24/10/2023 02:12</t>
+          <t>08/08/2023 04:42</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.32</v>
+        <v>4.51</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>25/10/2023 14:58</t>
+          <t>25/10/2023 14:59</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.68</v>
+        <v>2.86</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>24/10/2023 02:12</t>
+          <t>08/08/2023 04:42</t>
         </is>
       </c>
       <c r="T108" t="n">
-        <v>3.37</v>
+        <v>5.21</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>25/10/2023 14:58</t>
+          <t>25/10/2023 14:59</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-bistrica/WnwnbggE/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-triglav/xUgqvY1r/</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -10425,14 +10425,14 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>1.69</v>
+        <v>3.2</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.96</v>
+        <v>2.88</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>25/10/2023 14:50</t>
+          <t>25/10/2023 14:57</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.65</v>
+        <v>3.36</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.8</v>
+        <v>3.39</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>25/10/2023 14:50</t>
+          <t>25/10/2023 14:57</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>3.78</v>
+        <v>1.93</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.2</v>
+        <v>2.26</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>25/10/2023 14:50</t>
+          <t>25/10/2023 14:57</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-tabor-sezana/GKhmwhHl/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-nk-krka/AwxjcD8K/</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -10517,63 +10517,63 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J110" t="n">
-        <v>2.13</v>
+        <v>2.31</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>08/08/2023 04:42</t>
+          <t>24/10/2023 02:12</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.49</v>
+        <v>2.05</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>25/10/2023 14:59</t>
+          <t>25/10/2023 14:57</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.25</v>
+        <v>3.11</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>08/08/2023 04:42</t>
+          <t>24/10/2023 02:12</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>4.51</v>
+        <v>3.32</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>25/10/2023 14:59</t>
+          <t>25/10/2023 14:58</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>2.86</v>
+        <v>2.68</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>08/08/2023 04:42</t>
+          <t>24/10/2023 02:12</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>5.21</v>
+        <v>3.37</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>25/10/2023 14:59</t>
+          <t>25/10/2023 14:58</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-triglav/xUgqvY1r/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-bistrica/WnwnbggE/</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -10609,63 +10609,63 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>25/10/2023 14:50</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>25/10/2023 14:50</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
         <v>3.2</v>
       </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>24/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>25/10/2023 14:57</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>24/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P111" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="Q111" t="inlineStr">
-        <is>
-          <t>25/10/2023 14:57</t>
-        </is>
-      </c>
-      <c r="R111" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>24/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T111" t="n">
-        <v>2.26</v>
-      </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>25/10/2023 14:57</t>
+          <t>25/10/2023 14:50</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-nk-krka/AwxjcD8K/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-tabor-sezana/GKhmwhHl/</t>
         </is>
       </c>
     </row>
@@ -10758,6 +10758,742 @@
       <c r="V112" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-nd-gorica/69o0zj17/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>NK Bistrica</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>4</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Bilje</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>3</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:53</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:53</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:53</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-bilje/vXWgcSQA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Jadran Dekani</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>3</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Triglav</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:36</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:56</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-triglav/lrvs0Uth/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Primorje</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>2</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Tabor Sezana</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:41</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-tabor-sezana/UHwRkpJp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45227.625</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Fuzinar</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Beltinci</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:33</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:33</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:33</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-beltinci/QmZ5fQAT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45228.58333333334</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>ND Gorica</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Tolmin</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>3</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:36</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>5</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:03</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:36</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-tolmin/ncz2e6eN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45228.58333333334</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>NK Krka</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>4</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>5</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:33</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:33</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:33</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-rudar/d8skb8B4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45228.58333333334</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Dravinja</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Nafta</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:08</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:08</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:08</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-nafta/IHroaldb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45228.58333333334</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Ilirija</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>4</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Grosuplje</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:45</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:45</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>2</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:45</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-grosuplje/hzybdntH/</t>
         </is>
       </c>
     </row>

--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V120"/>
+  <dimension ref="A1:V122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.49</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>28/07/2023 06:12</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>29/07/2023 17:59</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.43</v>
+        <v>3.29</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>28/07/2023 06:12</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.62</v>
+        <v>3.16</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>29/07/2023 17:59</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>28/07/2023 06:12</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.72</v>
+        <v>2.07</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>29/07/2023 17:59</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-ilirija/6PRxXGfF/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-nd-gorica/O0xYXdu9/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.49</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>28/07/2023 06:12</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 17:59</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.29</v>
+        <v>3.43</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>28/07/2023 06:12</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.16</v>
+        <v>3.62</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 17:59</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>28/07/2023 06:12</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.07</v>
+        <v>2.72</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 17:59</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-nd-gorica/O0xYXdu9/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-ilirija/6PRxXGfF/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,63 +2789,63 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>28/08/2023 22:57</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.53</v>
+        <v>2.57</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>29/08/2023 16:49</t>
+          <t>29/08/2023 16:48</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>4.67</v>
+        <v>3.2</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>28/08/2023 22:57</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.07</v>
+        <v>3.46</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>29/08/2023 16:49</t>
+          <t>29/08/2023 16:48</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>6.1</v>
+        <v>2.37</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>28/08/2023 22:57</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>5.36</v>
+        <v>2.46</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>29/08/2023 16:49</t>
+          <t>29/08/2023 16:48</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-tolmin/IqDCqfvL/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-nafta/6mAPNCH1/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,63 +2881,63 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>28/08/2023 22:57</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.57</v>
+        <v>1.53</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>29/08/2023 16:48</t>
+          <t>29/08/2023 16:49</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.2</v>
+        <v>4.67</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>28/08/2023 22:57</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.46</v>
+        <v>4.07</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>29/08/2023 16:48</t>
+          <t>29/08/2023 16:49</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.37</v>
+        <v>6.1</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>28/08/2023 22:57</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.46</v>
+        <v>5.36</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>29/08/2023 16:48</t>
+          <t>29/08/2023 16:49</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-nafta/6mAPNCH1/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-tolmin/IqDCqfvL/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>1.81</v>
+        <v>3.24</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.13</v>
+        <v>4.09</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>30/08/2023 16:51</t>
+          <t>30/08/2023 15:38</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.51</v>
+        <v>3.15</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.62</v>
+        <v>3.69</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>30/08/2023 16:21</t>
+          <t>30/08/2023 15:38</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.42</v>
+        <v>2.03</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.95</v>
+        <v>1.75</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>30/08/2023 16:51</t>
+          <t>30/08/2023 15:38</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-rudar/pv9TMWW7/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-grosuplje/OMD8pzPE/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>3.24</v>
+        <v>2.41</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>03/08/2023 23:25</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4.09</v>
+        <v>1.91</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>30/08/2023 15:38</t>
+          <t>30/08/2023 16:02</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.15</v>
+        <v>3.34</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>03/08/2023 23:25</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.69</v>
+        <v>3.65</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>30/08/2023 15:38</t>
+          <t>30/08/2023 16:02</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.03</v>
+        <v>2.66</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>03/08/2023 23:25</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>1.75</v>
+        <v>3.49</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>30/08/2023 15:38</t>
+          <t>30/08/2023 16:02</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-grosuplje/OMD8pzPE/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-dravinja/bN6HPYnk/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>2.41</v>
+        <v>1.81</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>03/08/2023 23:25</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.91</v>
+        <v>2.13</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>30/08/2023 16:02</t>
+          <t>30/08/2023 16:51</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.34</v>
+        <v>3.51</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>03/08/2023 23:25</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.65</v>
+        <v>3.62</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>30/08/2023 16:02</t>
+          <t>30/08/2023 16:21</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.66</v>
+        <v>3.42</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>03/08/2023 23:25</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.49</v>
+        <v>2.95</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>30/08/2023 16:02</t>
+          <t>30/08/2023 16:51</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-dravinja/bN6HPYnk/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-rudar/pv9TMWW7/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2.38</v>
+        <v>1.32</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,48 +6116,48 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.69</v>
+        <v>1.47</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
+          <t>21/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>20/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
           <t>21/09/2023 15:59</t>
         </is>
       </c>
-      <c r="N62" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="O62" t="inlineStr">
+      <c r="R62" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="S62" t="inlineStr">
         <is>
           <t>20/09/2023 03:12</t>
         </is>
       </c>
-      <c r="P62" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q62" t="inlineStr">
+      <c r="T62" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="U62" t="inlineStr">
         <is>
           <t>21/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R62" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>20/09/2023 03:12</t>
-        </is>
-      </c>
-      <c r="T62" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>21/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-triglav/OKlbEQ09/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-tolmin/Aym6C4VL/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>2.74</v>
+        <v>2.38</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3.03</v>
+        <v>2.69</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.07</v>
+        <v>3.24</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.18</v>
+        <v>3.06</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.3</v>
+        <v>2.51</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.27</v>
+        <v>2.6</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>21/09/2023 14:40</t>
+          <t>21/09/2023 15:59</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-beltinci/lSoABOpS/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-triglav/OKlbEQ09/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Beltinci</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>3</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Tolmin</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
       <c r="J64" t="n">
-        <v>1.32</v>
+        <v>2.74</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.47</v>
+        <v>3.03</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>21/09/2023 15:58</t>
+          <t>21/09/2023 15:59</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.8</v>
+        <v>3.07</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.17</v>
+        <v>3.18</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         </is>
       </c>
       <c r="R64" t="n">
-        <v>6.17</v>
+        <v>2.3</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>6.11</v>
+        <v>2.27</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>21/09/2023 15:59</t>
+          <t>21/09/2023 14:40</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-tolmin/Aym6C4VL/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-beltinci/lSoABOpS/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>2.29</v>
+        <v>3.27</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.37</v>
+        <v>3.26</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>30/09/2023 15:25</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.64</v>
+        <v>1.99</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.9</v>
+        <v>1.89</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>30/09/2023 15:24</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-triglav/jepXGJM7/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-grosuplje/rkXIvNEE/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>3.27</v>
+        <v>1.72</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>4</v>
+        <v>1.78</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.13</v>
+        <v>3.77</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.26</v>
+        <v>4.06</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>1.99</v>
+        <v>3.65</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>1.89</v>
+        <v>3.61</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-grosuplje/rkXIvNEE/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-bilje/4bYEu3a8/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>1.41</v>
+        <v>2.29</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,48 +7588,48 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.34</v>
+        <v>2.25</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
+          <t>30/09/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>29/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:25</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>29/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
           <t>30/09/2023 15:24</t>
         </is>
       </c>
-      <c r="N78" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>29/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="P78" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:29</t>
-        </is>
-      </c>
-      <c r="R78" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>29/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T78" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:29</t>
-        </is>
-      </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tabor-sezana/tbQnLYDg/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-triglav/jepXGJM7/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1.72</v>
+        <v>1.41</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.78</v>
+        <v>1.34</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:24</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.77</v>
+        <v>4.29</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>4.06</v>
+        <v>5.2</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.65</v>
+        <v>5.33</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.61</v>
+        <v>6.9</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-bilje/4bYEu3a8/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tabor-sezana/tbQnLYDg/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>1.71</v>
+        <v>1.34</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.52</v>
+        <v>1.29</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>07/10/2023 10:57</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.56</v>
+        <v>4.49</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4.11</v>
+        <v>5.25</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>07/10/2023 13:35</t>
+          <t>07/10/2023 15:19</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.79</v>
+        <v>6.24</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>5.27</v>
+        <v>8.34</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>07/10/2023 10:57</t>
+          <t>07/10/2023 15:19</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-bistrica/Qo0juf5P/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-dravinja/f1jMZXSn/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.04</v>
+        <v>1.71</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.34</v>
+        <v>1.52</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 10:57</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.22</v>
+        <v>3.56</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.34</v>
+        <v>4.11</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 13:35</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.06</v>
+        <v>3.79</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.8</v>
+        <v>5.27</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 10:57</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-jadran-dekani/YikQYirg/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-bistrica/Qo0juf5P/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>1.34</v>
+        <v>2.04</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.29</v>
+        <v>2.34</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>4.49</v>
+        <v>3.22</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>5.25</v>
+        <v>3.34</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>07/10/2023 15:19</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>6.24</v>
+        <v>3.06</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>8.34</v>
+        <v>2.8</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>07/10/2023 15:19</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-dravinja/f1jMZXSn/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-jadran-dekani/YikQYirg/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>1.51</v>
+        <v>2.62</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.71</v>
+        <v>2.17</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 14:58</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.98</v>
+        <v>3.24</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.79</v>
+        <v>3.62</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 14:45</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>4.65</v>
+        <v>2.33</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>4.19</v>
+        <v>2.87</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>14/10/2023 14:44</t>
+          <t>14/10/2023 14:58</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tolmin/bazjTmCU/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-bilje/xpnsV9sI/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2.62</v>
+        <v>1.51</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.17</v>
+        <v>1.71</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>14/10/2023 14:58</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.24</v>
+        <v>3.98</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.62</v>
+        <v>3.79</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>14/10/2023 14:45</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.33</v>
+        <v>4.65</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.87</v>
+        <v>4.19</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>14/10/2023 14:58</t>
+          <t>14/10/2023 14:44</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-bilje/xpnsV9sI/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tolmin/bazjTmCU/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>1.92</v>
+        <v>2.19</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.13</v>
+        <v>2.4</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>28/10/2023 13:53</t>
+          <t>28/10/2023 13:56</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.44</v>
+        <v>3.11</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.39</v>
+        <v>3.35</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>28/10/2023 13:53</t>
+          <t>28/10/2023 13:36</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.16</v>
+        <v>2.86</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>3.13</v>
+        <v>2.7</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>28/10/2023 13:53</t>
+          <t>28/10/2023 13:56</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-bilje/vXWgcSQA/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-triglav/lrvs0Uth/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G114" t="n">
+        <v>4</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Bilje</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
         <v>3</v>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Triglav</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
       <c r="J114" t="n">
-        <v>2.19</v>
+        <v>1.92</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.4</v>
+        <v>2.13</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>28/10/2023 13:56</t>
+          <t>28/10/2023 13:53</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.11</v>
+        <v>3.44</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.35</v>
+        <v>3.39</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>28/10/2023 13:36</t>
+          <t>28/10/2023 13:53</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>2.86</v>
+        <v>3.16</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.7</v>
+        <v>3.13</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>28/10/2023 13:56</t>
+          <t>28/10/2023 13:53</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-triglav/lrvs0Uth/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-bilje/vXWgcSQA/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>1.27</v>
+        <v>3.82</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.32</v>
+        <v>3.46</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>29/10/2023 11:36</t>
+          <t>29/10/2023 13:08</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>5</v>
+        <v>3.57</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>4.94</v>
+        <v>3.62</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>29/10/2023 12:03</t>
+          <t>29/10/2023 13:08</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>7.14</v>
+        <v>1.7</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>7.46</v>
+        <v>1.92</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>29/10/2023 11:36</t>
+          <t>29/10/2023 13:08</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-tolmin/ncz2e6eN/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-nafta/IHroaldb/</t>
         </is>
       </c>
     </row>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -11253,14 +11253,14 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>1.9</v>
+        <v>3.17</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,48 +11268,48 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.06</v>
+        <v>3.45</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:45</t>
         </is>
       </c>
       <c r="N118" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
         <v>3.4</v>
       </c>
-      <c r="O118" t="inlineStr">
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:45</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S118" t="inlineStr">
         <is>
           <t>28/10/2023 03:12</t>
         </is>
       </c>
-      <c r="P118" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="Q118" t="inlineStr">
-        <is>
-          <t>29/10/2023 13:33</t>
-        </is>
-      </c>
-      <c r="R118" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="S118" t="inlineStr">
-        <is>
-          <t>28/10/2023 03:12</t>
-        </is>
-      </c>
       <c r="T118" t="n">
-        <v>3.09</v>
+        <v>2</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:45</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-rudar/d8skb8B4/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-grosuplje/hzybdntH/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J119" t="n">
-        <v>3.82</v>
+        <v>1.27</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>3.46</v>
+        <v>1.32</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>29/10/2023 13:08</t>
+          <t>29/10/2023 11:36</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.57</v>
+        <v>5</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.62</v>
+        <v>4.94</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>29/10/2023 13:08</t>
+          <t>29/10/2023 12:03</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>1.7</v>
+        <v>7.14</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>1.92</v>
+        <v>7.46</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>29/10/2023 13:08</t>
+          <t>29/10/2023 11:36</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-nafta/IHroaldb/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-tolmin/ncz2e6eN/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,63 +11437,247 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I120" t="n">
+        <v>5</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:33</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:33</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:33</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-rudar/d8skb8B4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Dravinja</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>28/10/2023 03:12</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>29/10/2023 13:45</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>28/10/2023 03:12</t>
-        </is>
-      </c>
-      <c r="P120" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q120" t="inlineStr">
-        <is>
-          <t>29/10/2023 13:45</t>
-        </is>
-      </c>
-      <c r="R120" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S120" t="inlineStr">
-        <is>
-          <t>28/10/2023 03:12</t>
-        </is>
-      </c>
-      <c r="T120" t="n">
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Jadran Dekani</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-jadran-dekani/phz2icfk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45234.70833333334</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Triglav</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Tabor Sezana</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
         <v>2</v>
       </c>
-      <c r="U120" t="inlineStr">
-        <is>
-          <t>29/10/2023 13:45</t>
-        </is>
-      </c>
-      <c r="V120" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-grosuplje/hzybdntH/</t>
+      <c r="J122" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>03/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:51</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>03/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:51</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>03/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:51</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-tabor-sezana/88xVl4Yj/</t>
         </is>
       </c>
     </row>

--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V122"/>
+  <dimension ref="A1:V125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J63" t="n">
-        <v>2.38</v>
+        <v>2.74</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.69</v>
+        <v>3.03</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.24</v>
+        <v>3.07</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.06</v>
+        <v>3.18</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.51</v>
+        <v>2.3</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.6</v>
+        <v>2.27</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>21/09/2023 15:59</t>
+          <t>21/09/2023 14:40</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-triglav/OKlbEQ09/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-beltinci/lSoABOpS/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>2.74</v>
+        <v>2.38</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3.03</v>
+        <v>2.69</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.07</v>
+        <v>3.24</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.18</v>
+        <v>3.06</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.3</v>
+        <v>2.51</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.27</v>
+        <v>2.6</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>21/09/2023 14:40</t>
+          <t>21/09/2023 15:59</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-beltinci/lSoABOpS/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-triglav/OKlbEQ09/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>3.27</v>
+        <v>2.29</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.26</v>
+        <v>3.37</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:25</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>1.99</v>
+        <v>2.64</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>1.89</v>
+        <v>2.9</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:24</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-grosuplje/rkXIvNEE/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-triglav/jepXGJM7/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.72</v>
+        <v>3.27</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.78</v>
+        <v>4</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.77</v>
+        <v>3.13</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.06</v>
+        <v>3.26</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.65</v>
+        <v>1.99</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.61</v>
+        <v>1.89</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-bilje/4bYEu3a8/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-grosuplje/rkXIvNEE/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Tabor Sezana</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Triglav</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>2</v>
-      </c>
       <c r="J78" t="n">
-        <v>2.29</v>
+        <v>1.41</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,48 +7588,48 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.25</v>
+        <v>1.34</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
+          <t>30/09/2023 15:24</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>29/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
           <t>30/09/2023 15:29</t>
         </is>
       </c>
-      <c r="N78" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O78" t="inlineStr">
+      <c r="R78" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="S78" t="inlineStr">
         <is>
           <t>29/09/2023 02:42</t>
         </is>
       </c>
-      <c r="P78" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:25</t>
-        </is>
-      </c>
-      <c r="R78" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>29/09/2023 02:42</t>
-        </is>
-      </c>
       <c r="T78" t="n">
-        <v>2.9</v>
+        <v>6.9</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>30/09/2023 15:24</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-triglav/jepXGJM7/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tabor-sezana/tbQnLYDg/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G79" t="n">
+        <v>3</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Bilje</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
         <v>1</v>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Tabor Sezana</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
       <c r="J79" t="n">
-        <v>1.41</v>
+        <v>1.72</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.34</v>
+        <v>1.78</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:24</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>4.29</v>
+        <v>3.77</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>5.2</v>
+        <v>4.06</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>5.33</v>
+        <v>3.65</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>6.9</v>
+        <v>3.61</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tabor-sezana/tbQnLYDg/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-bilje/4bYEu3a8/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>1.34</v>
+        <v>1.71</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.29</v>
+        <v>1.52</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 10:57</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>4.49</v>
+        <v>3.56</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>5.25</v>
+        <v>4.11</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>07/10/2023 15:19</t>
+          <t>07/10/2023 13:35</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>6.24</v>
+        <v>3.79</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>8.34</v>
+        <v>5.27</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>07/10/2023 15:19</t>
+          <t>07/10/2023 10:57</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-dravinja/f1jMZXSn/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-bistrica/Qo0juf5P/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>1.71</v>
+        <v>2.04</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.52</v>
+        <v>2.34</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>07/10/2023 10:57</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.56</v>
+        <v>3.22</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4.11</v>
+        <v>3.34</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>07/10/2023 13:35</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.79</v>
+        <v>3.06</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>5.27</v>
+        <v>2.8</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>07/10/2023 10:57</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-bistrica/Qo0juf5P/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-jadran-dekani/YikQYirg/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>2.04</v>
+        <v>1.34</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.34</v>
+        <v>1.29</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.22</v>
+        <v>4.49</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.34</v>
+        <v>5.25</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 15:19</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.06</v>
+        <v>6.24</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.8</v>
+        <v>8.34</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 15:19</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-jadran-dekani/YikQYirg/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-dravinja/f1jMZXSn/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>2.1</v>
+        <v>3.73</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.22</v>
+        <v>4.44</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:45</t>
+          <t>13/10/2023 09:50</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.17</v>
+        <v>3.66</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.54</v>
+        <v>3.91</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:45</t>
+          <t>14/10/2023 13:04</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.97</v>
+        <v>1.7</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2.83</v>
+        <v>1.64</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:45</t>
+          <t>13/10/2023 09:50</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-rudar/OtrwWkSB/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-primorje/Aw04nBCh/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>3.73</v>
+        <v>2.1</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>4.44</v>
+        <v>2.22</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>13/10/2023 09:50</t>
+          <t>14/10/2023 14:45</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.66</v>
+        <v>3.17</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.91</v>
+        <v>3.54</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>14/10/2023 13:04</t>
+          <t>14/10/2023 14:45</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>1.7</v>
+        <v>2.97</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>1.64</v>
+        <v>2.83</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>13/10/2023 09:50</t>
+          <t>14/10/2023 14:45</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-primorje/Aw04nBCh/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-rudar/OtrwWkSB/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>2.62</v>
+        <v>1.51</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.17</v>
+        <v>1.71</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>14/10/2023 14:58</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.24</v>
+        <v>3.98</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.62</v>
+        <v>3.79</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>14/10/2023 14:45</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.33</v>
+        <v>4.65</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.87</v>
+        <v>4.19</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>14/10/2023 14:58</t>
+          <t>14/10/2023 14:44</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-bilje/xpnsV9sI/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tolmin/bazjTmCU/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>1.51</v>
+        <v>2.62</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.71</v>
+        <v>2.17</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 14:58</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.98</v>
+        <v>3.24</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.79</v>
+        <v>3.62</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 14:45</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>4.65</v>
+        <v>2.33</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>4.19</v>
+        <v>2.87</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>14/10/2023 14:44</t>
+          <t>14/10/2023 14:58</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tolmin/bazjTmCU/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-bilje/xpnsV9sI/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G106" t="n">
+        <v>5</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Fuzinar</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
         <v>1</v>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Primorje</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
       <c r="J106" t="n">
-        <v>2.62</v>
+        <v>1.89</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>08/08/2023 04:42</t>
+          <t>23/10/2023 02:12</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.54</v>
+        <v>2</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>24/10/2023 14:54</t>
+          <t>24/10/2023 14:56</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.06</v>
+        <v>3.58</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>08/08/2023 04:42</t>
+          <t>23/10/2023 02:12</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.05</v>
+        <v>3.68</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>24/10/2023 14:59</t>
+          <t>24/10/2023 14:58</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>2.44</v>
+        <v>3.12</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>08/08/2023 04:42</t>
+          <t>23/10/2023 02:12</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.75</v>
+        <v>3.19</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>24/10/2023 14:54</t>
+          <t>24/10/2023 14:58</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-primorje/pfcixCWf/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-fuzinar/OpdeyWo1/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>1.89</v>
+        <v>2.62</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>23/10/2023 02:12</t>
+          <t>08/08/2023 04:42</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2</v>
+        <v>2.54</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>24/10/2023 14:56</t>
+          <t>24/10/2023 14:54</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.58</v>
+        <v>3.06</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>23/10/2023 02:12</t>
+          <t>08/08/2023 04:42</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.68</v>
+        <v>3.05</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>24/10/2023 14:58</t>
+          <t>24/10/2023 14:59</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.12</v>
+        <v>2.44</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>23/10/2023 02:12</t>
+          <t>08/08/2023 04:42</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.19</v>
+        <v>2.75</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>24/10/2023 14:58</t>
+          <t>24/10/2023 14:54</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-fuzinar/OpdeyWo1/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-primorje/pfcixCWf/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,63 +10333,63 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J108" t="n">
-        <v>2.13</v>
+        <v>2.31</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>08/08/2023 04:42</t>
+          <t>24/10/2023 02:12</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.49</v>
+        <v>2.05</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>25/10/2023 14:59</t>
+          <t>25/10/2023 14:57</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.25</v>
+        <v>3.11</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>08/08/2023 04:42</t>
+          <t>24/10/2023 02:12</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>4.51</v>
+        <v>3.32</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>25/10/2023 14:59</t>
+          <t>25/10/2023 14:58</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.86</v>
+        <v>2.68</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>08/08/2023 04:42</t>
+          <t>24/10/2023 02:12</t>
         </is>
       </c>
       <c r="T108" t="n">
-        <v>5.21</v>
+        <v>3.37</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>25/10/2023 14:59</t>
+          <t>25/10/2023 14:58</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-triglav/xUgqvY1r/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-bistrica/WnwnbggE/</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -10425,63 +10425,63 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>25/10/2023 14:50</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>25/10/2023 14:50</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
         <v>3.2</v>
       </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>24/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>25/10/2023 14:57</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>24/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P109" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="Q109" t="inlineStr">
-        <is>
-          <t>25/10/2023 14:57</t>
-        </is>
-      </c>
-      <c r="R109" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S109" t="inlineStr">
-        <is>
-          <t>24/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T109" t="n">
-        <v>2.26</v>
-      </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>25/10/2023 14:57</t>
+          <t>25/10/2023 14:50</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-nk-krka/AwxjcD8K/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-tabor-sezana/GKhmwhHl/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>2.31</v>
+        <v>3.2</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.05</v>
+        <v>2.88</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.11</v>
+        <v>3.36</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.32</v>
+        <v>3.39</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>25/10/2023 14:58</t>
+          <t>25/10/2023 14:57</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>2.68</v>
+        <v>1.93</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>3.37</v>
+        <v>2.26</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>25/10/2023 14:58</t>
+          <t>25/10/2023 14:57</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-bistrica/WnwnbggE/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-nk-krka/AwxjcD8K/</t>
         </is>
       </c>
     </row>
@@ -10601,71 +10601,71 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J111" t="n">
-        <v>1.69</v>
+        <v>2.13</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>24/10/2023 02:12</t>
+          <t>08/08/2023 04:42</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.96</v>
+        <v>1.49</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>25/10/2023 14:50</t>
+          <t>25/10/2023 14:59</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>24/10/2023 02:12</t>
+          <t>08/08/2023 04:42</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.8</v>
+        <v>4.51</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>25/10/2023 14:50</t>
+          <t>25/10/2023 14:59</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>3.78</v>
+        <v>2.86</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>24/10/2023 02:12</t>
+          <t>08/08/2023 04:42</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.2</v>
+        <v>5.21</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>25/10/2023 14:50</t>
+          <t>25/10/2023 14:59</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-tabor-sezana/GKhmwhHl/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-triglav/xUgqvY1r/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G113" t="n">
+        <v>4</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Bilje</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
         <v>3</v>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Triglav</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
       <c r="J113" t="n">
-        <v>2.19</v>
+        <v>1.92</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.4</v>
+        <v>2.13</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>28/10/2023 13:56</t>
+          <t>28/10/2023 13:53</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.11</v>
+        <v>3.44</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.35</v>
+        <v>3.39</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>28/10/2023 13:36</t>
+          <t>28/10/2023 13:53</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>2.86</v>
+        <v>3.16</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.7</v>
+        <v>3.13</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>28/10/2023 13:56</t>
+          <t>28/10/2023 13:53</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-triglav/lrvs0Uth/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-bilje/vXWgcSQA/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>1.92</v>
+        <v>2.19</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.13</v>
+        <v>2.4</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>28/10/2023 13:53</t>
+          <t>28/10/2023 13:56</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.44</v>
+        <v>3.11</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.39</v>
+        <v>3.35</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>28/10/2023 13:53</t>
+          <t>28/10/2023 13:36</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.16</v>
+        <v>2.86</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>3.13</v>
+        <v>2.7</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>28/10/2023 13:53</t>
+          <t>28/10/2023 13:56</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-bilje/vXWgcSQA/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-triglav/lrvs0Uth/</t>
         </is>
       </c>
     </row>
@@ -11678,6 +11678,282 @@
       <c r="V122" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-tabor-sezana/88xVl4Yj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45235.5625</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Fuzinar</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Tolmin</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:05</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:05</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:03</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-tolmin/zFUGC7Qc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45235.58333333334</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>ND Gorica</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Grosuplje</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>04/11/2023 06:38</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:03</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>04/11/2023 06:38</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-grosuplje/IwKLBRu4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45235.59375</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Primorje</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>3</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Beltinci</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:43</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:46</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:43</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:46</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:43</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:46</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-beltinci/MBQCDmBi/</t>
         </is>
       </c>
     </row>

--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V125"/>
+  <dimension ref="A1:V126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Beltinci</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
         <v>3</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Tolmin</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
       <c r="J62" t="n">
-        <v>1.32</v>
+        <v>2.74</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.47</v>
+        <v>3.03</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>21/09/2023 15:58</t>
+          <t>21/09/2023 15:59</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>4.8</v>
+        <v>3.07</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>4.17</v>
+        <v>3.18</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="R62" t="n">
-        <v>6.17</v>
+        <v>2.3</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>6.11</v>
+        <v>2.27</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>21/09/2023 15:59</t>
+          <t>21/09/2023 14:40</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-tolmin/Aym6C4VL/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-beltinci/lSoABOpS/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>3</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Tolmin</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Beltinci</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>3</v>
-      </c>
       <c r="J63" t="n">
-        <v>2.74</v>
+        <v>1.32</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,48 +6208,48 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3.03</v>
+        <v>1.47</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
+          <t>21/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>20/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
           <t>21/09/2023 15:59</t>
         </is>
       </c>
-      <c r="N63" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="O63" t="inlineStr">
+      <c r="R63" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="S63" t="inlineStr">
         <is>
           <t>20/09/2023 03:12</t>
         </is>
       </c>
-      <c r="P63" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="Q63" t="inlineStr">
+      <c r="T63" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="U63" t="inlineStr">
         <is>
           <t>21/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R63" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>20/09/2023 03:12</t>
-        </is>
-      </c>
-      <c r="T63" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>21/09/2023 14:40</t>
-        </is>
-      </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-beltinci/lSoABOpS/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-tolmin/Aym6C4VL/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.29</v>
+        <v>3.72</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.25</v>
+        <v>4.94</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>29/09/2023 13:45</t>
+          <t>29/09/2023 15:20</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>4.98</v>
+        <v>3.4</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>6.11</v>
+        <v>3.8</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>29/09/2023 15:29</t>
+          <t>29/09/2023 15:20</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>6.88</v>
+        <v>1.79</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>7.81</v>
+        <v>1.61</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>29/09/2023 15:29</t>
+          <t>29/09/2023 15:20</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-fuzinar/xQJeJCr6/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-primorje/f1UjKhTa/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>3.72</v>
+        <v>1.29</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4.94</v>
+        <v>1.25</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>29/09/2023 15:20</t>
+          <t>29/09/2023 13:45</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.4</v>
+        <v>4.98</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.8</v>
+        <v>6.11</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>29/09/2023 15:20</t>
+          <t>29/09/2023 15:29</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>1.79</v>
+        <v>6.88</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>1.61</v>
+        <v>7.81</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>29/09/2023 15:20</t>
+          <t>29/09/2023 15:29</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-primorje/f1UjKhTa/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-fuzinar/xQJeJCr6/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>2.29</v>
+        <v>3.27</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.37</v>
+        <v>3.26</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>30/09/2023 15:25</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.64</v>
+        <v>1.99</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.9</v>
+        <v>1.89</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>30/09/2023 15:24</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-triglav/jepXGJM7/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-grosuplje/rkXIvNEE/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>3.27</v>
+        <v>1.72</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>4</v>
+        <v>1.78</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.13</v>
+        <v>3.77</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.26</v>
+        <v>4.06</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>1.99</v>
+        <v>3.65</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>1.89</v>
+        <v>3.61</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-grosuplje/rkXIvNEE/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-bilje/4bYEu3a8/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>1.41</v>
+        <v>2.29</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,48 +7588,48 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.34</v>
+        <v>2.25</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
+          <t>30/09/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>29/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:25</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>29/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
           <t>30/09/2023 15:24</t>
         </is>
       </c>
-      <c r="N78" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>29/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="P78" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:29</t>
-        </is>
-      </c>
-      <c r="R78" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>29/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T78" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:29</t>
-        </is>
-      </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tabor-sezana/tbQnLYDg/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-triglav/jepXGJM7/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1.72</v>
+        <v>1.41</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.78</v>
+        <v>1.34</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:24</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.77</v>
+        <v>4.29</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>4.06</v>
+        <v>5.2</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.65</v>
+        <v>5.33</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.61</v>
+        <v>6.9</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-bilje/4bYEu3a8/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tabor-sezana/tbQnLYDg/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>2.62</v>
+        <v>3.75</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3.04</v>
+        <v>2.86</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 15:27</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.22</v>
+        <v>3.48</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.36</v>
+        <v>3.82</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 15:28</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.29</v>
+        <v>1.74</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 15:27</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-nafta/jTqVXBca/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-nk-krka/0viIzEDt/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J86" t="n">
-        <v>2.97</v>
+        <v>2.62</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3.94</v>
+        <v>3.04</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>08/10/2023 13:47</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.92</v>
+        <v>3.36</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.05</v>
+        <v>2.29</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>1.72</v>
+        <v>2.18</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>08/10/2023 13:47</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-ilirija/OtM7GASO/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-nafta/jTqVXBca/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>3</v>
       </c>
       <c r="J87" t="n">
-        <v>3.75</v>
+        <v>2.97</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.86</v>
+        <v>3.94</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>08/10/2023 15:27</t>
+          <t>08/10/2023 13:47</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.48</v>
+        <v>3.28</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.82</v>
+        <v>3.92</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>08/10/2023 15:28</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>1.74</v>
+        <v>2.05</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.11</v>
+        <v>1.72</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>08/10/2023 15:27</t>
+          <t>08/10/2023 13:47</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-nk-krka/0viIzEDt/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-ilirija/OtM7GASO/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>3.73</v>
+        <v>1.51</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>4.44</v>
+        <v>1.71</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>13/10/2023 09:50</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.66</v>
+        <v>3.98</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.91</v>
+        <v>3.79</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>14/10/2023 13:04</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>1.7</v>
+        <v>4.65</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>1.64</v>
+        <v>4.19</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>13/10/2023 09:50</t>
+          <t>14/10/2023 14:44</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-primorje/Aw04nBCh/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tolmin/bazjTmCU/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I92" t="n">
         <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>2.1</v>
+        <v>2.62</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,48 +8876,48 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.22</v>
+        <v>2.17</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
+          <t>14/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
           <t>14/10/2023 14:45</t>
         </is>
       </c>
-      <c r="N92" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="O92" t="inlineStr">
+      <c r="R92" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S92" t="inlineStr">
         <is>
           <t>13/10/2023 02:13</t>
         </is>
       </c>
-      <c r="P92" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>14/10/2023 14:45</t>
-        </is>
-      </c>
-      <c r="R92" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>13/10/2023 02:13</t>
-        </is>
-      </c>
       <c r="T92" t="n">
-        <v>2.83</v>
+        <v>2.87</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>14/10/2023 14:45</t>
+          <t>14/10/2023 14:58</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-rudar/OtrwWkSB/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-bilje/xpnsV9sI/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Primorje</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Tolmin</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
       <c r="J93" t="n">
-        <v>1.51</v>
+        <v>3.73</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.71</v>
+        <v>4.44</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>13/10/2023 09:50</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.98</v>
+        <v>3.66</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.79</v>
+        <v>3.91</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 13:04</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>4.65</v>
+        <v>1.7</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>4.19</v>
+        <v>1.64</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>14/10/2023 14:44</t>
+          <t>13/10/2023 09:50</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tolmin/bazjTmCU/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-primorje/Aw04nBCh/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2.62</v>
+        <v>2.1</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.17</v>
+        <v>2.22</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>14/10/2023 14:58</t>
+          <t>14/10/2023 14:45</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.24</v>
+        <v>3.17</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.62</v>
+        <v>3.54</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.33</v>
+        <v>2.97</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.87</v>
+        <v>2.83</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>14/10/2023 14:58</t>
+          <t>14/10/2023 14:45</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-bilje/xpnsV9sI/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-rudar/OtrwWkSB/</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,14 +9137,14 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>3.48</v>
+        <v>1.72</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>5.99</v>
+        <v>1.6</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>15/10/2023 14:43</t>
+          <t>15/10/2023 14:41</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.44</v>
+        <v>3.57</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>4.19</v>
+        <v>4.03</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>15/10/2023 14:43</t>
+          <t>15/10/2023 14:41</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>1.81</v>
+        <v>3.73</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>1.47</v>
+        <v>4.77</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-beltinci/lOBelXst/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-triglav/UJrZWVC5/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,14 +9229,14 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.72</v>
+        <v>3.48</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,48 +9244,48 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.6</v>
+        <v>5.99</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
+          <t>15/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
           <t>15/10/2023 14:41</t>
         </is>
       </c>
-      <c r="N96" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>14/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P96" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>15/10/2023 14:41</t>
-        </is>
-      </c>
-      <c r="R96" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>14/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T96" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>15/10/2023 14:41</t>
-        </is>
-      </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-triglav/UJrZWVC5/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-beltinci/lOBelXst/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G108" t="n">
+        <v>3</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Tabor Sezana</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
         <v>1</v>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>NK Bistrica</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
-        <v>4</v>
-      </c>
       <c r="J108" t="n">
-        <v>2.31</v>
+        <v>1.69</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>25/10/2023 14:57</t>
+          <t>25/10/2023 14:50</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.11</v>
+        <v>3.65</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.32</v>
+        <v>3.8</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>25/10/2023 14:58</t>
+          <t>25/10/2023 14:50</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.68</v>
+        <v>3.78</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>3.37</v>
+        <v>3.2</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>25/10/2023 14:58</t>
+          <t>25/10/2023 14:50</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-bistrica/WnwnbggE/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-tabor-sezana/GKhmwhHl/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J109" t="n">
-        <v>1.69</v>
+        <v>2.31</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>25/10/2023 14:50</t>
+          <t>25/10/2023 14:57</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.65</v>
+        <v>3.11</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.8</v>
+        <v>3.32</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>25/10/2023 14:50</t>
+          <t>25/10/2023 14:58</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>3.78</v>
+        <v>2.68</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.2</v>
+        <v>3.37</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>25/10/2023 14:50</t>
+          <t>25/10/2023 14:58</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-tabor-sezana/GKhmwhHl/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-bistrica/WnwnbggE/</t>
         </is>
       </c>
     </row>
@@ -10509,71 +10509,71 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="n">
-        <v>3.2</v>
+        <v>2.13</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>24/10/2023 02:12</t>
+          <t>08/08/2023 04:42</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.88</v>
+        <v>1.49</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>25/10/2023 14:57</t>
+          <t>25/10/2023 14:59</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.36</v>
+        <v>3.25</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>24/10/2023 02:12</t>
+          <t>08/08/2023 04:42</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.39</v>
+        <v>4.51</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>25/10/2023 14:57</t>
+          <t>25/10/2023 14:59</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>1.93</v>
+        <v>2.86</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>24/10/2023 02:12</t>
+          <t>08/08/2023 04:42</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>2.26</v>
+        <v>5.21</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>25/10/2023 14:57</t>
+          <t>25/10/2023 14:59</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-nk-krka/AwxjcD8K/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-triglav/xUgqvY1r/</t>
         </is>
       </c>
     </row>
@@ -10601,71 +10601,71 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>2.13</v>
+        <v>3.2</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>08/08/2023 04:42</t>
+          <t>24/10/2023 02:12</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.49</v>
+        <v>2.88</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>25/10/2023 14:59</t>
+          <t>25/10/2023 14:57</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.25</v>
+        <v>3.36</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>08/08/2023 04:42</t>
+          <t>24/10/2023 02:12</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>4.51</v>
+        <v>3.39</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>25/10/2023 14:59</t>
+          <t>25/10/2023 14:57</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>2.86</v>
+        <v>1.93</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>08/08/2023 04:42</t>
+          <t>24/10/2023 02:12</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>5.21</v>
+        <v>2.26</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>25/10/2023 14:59</t>
+          <t>25/10/2023 14:57</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-triglav/xUgqvY1r/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-nk-krka/AwxjcD8K/</t>
         </is>
       </c>
     </row>
@@ -11954,6 +11954,98 @@
       <c r="V125" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-beltinci/MBQCDmBi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45235.66666666666</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>NK Krka</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Nafta</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>2</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:33</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:05</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:33</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-nafta/2Tpchwuq/</t>
         </is>
       </c>
     </row>

--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V126"/>
+  <dimension ref="A1:V128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>3.24</v>
+        <v>1.81</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>4.09</v>
+        <v>2.13</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>30/08/2023 15:38</t>
+          <t>30/08/2023 16:51</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.15</v>
+        <v>3.51</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.69</v>
+        <v>3.62</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>30/08/2023 15:38</t>
+          <t>30/08/2023 16:21</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.03</v>
+        <v>3.42</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>1.75</v>
+        <v>2.95</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>30/08/2023 15:38</t>
+          <t>30/08/2023 16:51</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-grosuplje/OMD8pzPE/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-rudar/pv9TMWW7/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>2.41</v>
+        <v>3.24</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>03/08/2023 23:25</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.91</v>
+        <v>4.09</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>30/08/2023 16:02</t>
+          <t>30/08/2023 15:38</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.34</v>
+        <v>3.15</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>03/08/2023 23:25</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.65</v>
+        <v>3.69</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>30/08/2023 16:02</t>
+          <t>30/08/2023 15:38</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.66</v>
+        <v>2.03</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>03/08/2023 23:25</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.49</v>
+        <v>1.75</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>30/08/2023 16:02</t>
+          <t>30/08/2023 15:38</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-dravinja/bN6HPYnk/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-grosuplje/OMD8pzPE/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.81</v>
+        <v>2.41</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>03/08/2023 23:25</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.13</v>
+        <v>1.91</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>30/08/2023 16:51</t>
+          <t>30/08/2023 16:02</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.51</v>
+        <v>3.34</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>03/08/2023 23:25</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.62</v>
+        <v>3.65</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>30/08/2023 16:21</t>
+          <t>30/08/2023 16:02</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.42</v>
+        <v>2.66</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>03/08/2023 23:25</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.95</v>
+        <v>3.49</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>30/08/2023 16:51</t>
+          <t>30/08/2023 16:02</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-rudar/pv9TMWW7/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-dravinja/bN6HPYnk/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>2.74</v>
+        <v>2.38</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>3.03</v>
+        <v>2.69</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.07</v>
+        <v>3.24</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.18</v>
+        <v>3.06</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.3</v>
+        <v>2.51</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.27</v>
+        <v>2.6</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>21/09/2023 14:40</t>
+          <t>21/09/2023 15:59</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-beltinci/lSoABOpS/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-triglav/OKlbEQ09/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Beltinci</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>3</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Tolmin</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
       <c r="J63" t="n">
-        <v>1.32</v>
+        <v>2.74</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.47</v>
+        <v>3.03</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>21/09/2023 15:58</t>
+          <t>21/09/2023 15:59</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4.8</v>
+        <v>3.07</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.17</v>
+        <v>3.18</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="R63" t="n">
-        <v>6.17</v>
+        <v>2.3</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>6.11</v>
+        <v>2.27</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>21/09/2023 15:59</t>
+          <t>21/09/2023 14:40</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-tolmin/Aym6C4VL/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-beltinci/lSoABOpS/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>2.38</v>
+        <v>1.32</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,48 +6300,48 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.69</v>
+        <v>1.47</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
+          <t>21/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>20/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
           <t>21/09/2023 15:59</t>
         </is>
       </c>
-      <c r="N64" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="O64" t="inlineStr">
+      <c r="R64" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="S64" t="inlineStr">
         <is>
           <t>20/09/2023 03:12</t>
         </is>
       </c>
-      <c r="P64" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q64" t="inlineStr">
+      <c r="T64" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="U64" t="inlineStr">
         <is>
           <t>21/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R64" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>20/09/2023 03:12</t>
-        </is>
-      </c>
-      <c r="T64" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>21/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-triglav/OKlbEQ09/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-tolmin/Aym6C4VL/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>3.72</v>
+        <v>1.29</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>4.94</v>
+        <v>1.25</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>29/09/2023 15:20</t>
+          <t>29/09/2023 13:45</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.4</v>
+        <v>4.98</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.8</v>
+        <v>6.11</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>29/09/2023 15:20</t>
+          <t>29/09/2023 15:29</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>1.79</v>
+        <v>6.88</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>1.61</v>
+        <v>7.81</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>29/09/2023 15:20</t>
+          <t>29/09/2023 15:29</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-primorje/f1UjKhTa/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-fuzinar/xQJeJCr6/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.29</v>
+        <v>3.72</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.25</v>
+        <v>4.94</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>29/09/2023 13:45</t>
+          <t>29/09/2023 15:20</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>4.98</v>
+        <v>3.4</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>6.11</v>
+        <v>3.8</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>29/09/2023 15:29</t>
+          <t>29/09/2023 15:20</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>6.88</v>
+        <v>1.79</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>7.81</v>
+        <v>1.61</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>29/09/2023 15:29</t>
+          <t>29/09/2023 15:20</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-fuzinar/xQJeJCr6/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-primorje/f1UjKhTa/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>3.27</v>
+        <v>2.29</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.26</v>
+        <v>3.37</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:25</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>1.99</v>
+        <v>2.64</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>1.89</v>
+        <v>2.9</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:24</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-grosuplje/rkXIvNEE/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-triglav/jepXGJM7/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.72</v>
+        <v>1.41</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.78</v>
+        <v>1.34</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:24</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.77</v>
+        <v>4.29</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.06</v>
+        <v>5.2</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.65</v>
+        <v>5.33</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.61</v>
+        <v>6.9</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-bilje/4bYEu3a8/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tabor-sezana/tbQnLYDg/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.29</v>
+        <v>3.27</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.37</v>
+        <v>3.26</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>30/09/2023 15:25</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.64</v>
+        <v>1.99</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.9</v>
+        <v>1.89</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>30/09/2023 15:24</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-triglav/jepXGJM7/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-grosuplje/rkXIvNEE/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G79" t="n">
+        <v>3</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Bilje</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
         <v>1</v>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Tabor Sezana</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
       <c r="J79" t="n">
-        <v>1.41</v>
+        <v>1.72</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.34</v>
+        <v>1.78</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:24</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>4.29</v>
+        <v>3.77</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>5.2</v>
+        <v>4.06</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>5.33</v>
+        <v>3.65</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>6.9</v>
+        <v>3.61</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tabor-sezana/tbQnLYDg/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-bilje/4bYEu3a8/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>1.71</v>
+        <v>1.34</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.52</v>
+        <v>1.29</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>07/10/2023 10:57</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.56</v>
+        <v>4.49</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4.11</v>
+        <v>5.25</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>07/10/2023 13:35</t>
+          <t>07/10/2023 15:19</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.79</v>
+        <v>6.24</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>5.27</v>
+        <v>8.34</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>07/10/2023 10:57</t>
+          <t>07/10/2023 15:19</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-bistrica/Qo0juf5P/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-dravinja/f1jMZXSn/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.04</v>
+        <v>1.71</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.34</v>
+        <v>1.52</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 10:57</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.22</v>
+        <v>3.56</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.34</v>
+        <v>4.11</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 13:35</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.06</v>
+        <v>3.79</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.8</v>
+        <v>5.27</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 10:57</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-jadran-dekani/YikQYirg/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-bistrica/Qo0juf5P/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>1.34</v>
+        <v>2.04</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.29</v>
+        <v>2.34</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>4.49</v>
+        <v>3.22</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>5.25</v>
+        <v>3.34</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>07/10/2023 15:19</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>6.24</v>
+        <v>3.06</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>8.34</v>
+        <v>2.8</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>07/10/2023 15:19</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-dravinja/f1jMZXSn/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-jadran-dekani/YikQYirg/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J85" t="n">
-        <v>3.75</v>
+        <v>2.62</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.86</v>
+        <v>3.04</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>08/10/2023 15:27</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.48</v>
+        <v>3.22</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.82</v>
+        <v>3.36</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>08/10/2023 15:28</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>1.74</v>
+        <v>2.29</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.11</v>
+        <v>2.18</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>08/10/2023 15:27</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-nk-krka/0viIzEDt/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-nafta/jTqVXBca/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>2.62</v>
+        <v>2.97</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,48 +8324,48 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3.04</v>
+        <v>3.94</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
+          <t>08/10/2023 13:47</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
           <t>08/10/2023 15:01</t>
         </is>
       </c>
-      <c r="N86" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="O86" t="inlineStr">
+      <c r="R86" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S86" t="inlineStr">
         <is>
           <t>07/10/2023 02:42</t>
         </is>
       </c>
-      <c r="P86" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>08/10/2023 15:01</t>
-        </is>
-      </c>
-      <c r="R86" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>07/10/2023 02:42</t>
-        </is>
-      </c>
       <c r="T86" t="n">
-        <v>2.18</v>
+        <v>1.72</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 13:47</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-nafta/jTqVXBca/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-ilirija/OtM7GASO/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>3</v>
       </c>
       <c r="J87" t="n">
-        <v>2.97</v>
+        <v>3.75</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>3.94</v>
+        <v>2.86</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>08/10/2023 13:47</t>
+          <t>08/10/2023 15:27</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.28</v>
+        <v>3.48</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.92</v>
+        <v>3.82</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 15:28</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.05</v>
+        <v>1.74</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1.72</v>
+        <v>2.11</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>08/10/2023 13:47</t>
+          <t>08/10/2023 15:27</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-ilirija/OtM7GASO/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-nk-krka/0viIzEDt/</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,14 +9137,14 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1.72</v>
+        <v>3.48</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,48 +9152,48 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.6</v>
+        <v>5.99</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
+          <t>15/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
           <t>15/10/2023 14:41</t>
         </is>
       </c>
-      <c r="N95" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>14/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P95" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>15/10/2023 14:41</t>
-        </is>
-      </c>
-      <c r="R95" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>14/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T95" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>15/10/2023 14:41</t>
-        </is>
-      </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-triglav/UJrZWVC5/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-beltinci/lOBelXst/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,14 +9229,14 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>3.48</v>
+        <v>1.72</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>5.99</v>
+        <v>1.6</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>15/10/2023 14:43</t>
+          <t>15/10/2023 14:41</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.44</v>
+        <v>3.57</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>4.19</v>
+        <v>4.03</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>15/10/2023 14:43</t>
+          <t>15/10/2023 14:41</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>1.81</v>
+        <v>3.73</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>1.47</v>
+        <v>4.77</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-beltinci/lOBelXst/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-triglav/UJrZWVC5/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>1.89</v>
+        <v>2.62</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>23/10/2023 02:12</t>
+          <t>08/08/2023 04:42</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2</v>
+        <v>2.54</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>24/10/2023 14:56</t>
+          <t>24/10/2023 14:54</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.58</v>
+        <v>3.06</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>23/10/2023 02:12</t>
+          <t>08/08/2023 04:42</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.68</v>
+        <v>3.05</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>24/10/2023 14:58</t>
+          <t>24/10/2023 14:59</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.12</v>
+        <v>2.44</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>23/10/2023 02:12</t>
+          <t>08/08/2023 04:42</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>3.19</v>
+        <v>2.75</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>24/10/2023 14:58</t>
+          <t>24/10/2023 14:54</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-fuzinar/OpdeyWo1/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-primorje/pfcixCWf/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G107" t="n">
+        <v>5</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Fuzinar</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
         <v>1</v>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Primorje</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
       <c r="J107" t="n">
-        <v>2.62</v>
+        <v>1.89</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>08/08/2023 04:42</t>
+          <t>23/10/2023 02:12</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.54</v>
+        <v>2</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>24/10/2023 14:54</t>
+          <t>24/10/2023 14:56</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.06</v>
+        <v>3.58</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>08/08/2023 04:42</t>
+          <t>23/10/2023 02:12</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.05</v>
+        <v>3.68</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>24/10/2023 14:59</t>
+          <t>24/10/2023 14:58</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.44</v>
+        <v>3.12</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>08/08/2023 04:42</t>
+          <t>23/10/2023 02:12</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.75</v>
+        <v>3.19</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>24/10/2023 14:54</t>
+          <t>24/10/2023 14:58</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-primorje/pfcixCWf/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-fuzinar/OpdeyWo1/</t>
         </is>
       </c>
     </row>
@@ -10325,71 +10325,71 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>1.69</v>
+        <v>2.13</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>24/10/2023 02:12</t>
+          <t>08/08/2023 04:42</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.96</v>
+        <v>1.49</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>25/10/2023 14:50</t>
+          <t>25/10/2023 14:59</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>24/10/2023 02:12</t>
+          <t>08/08/2023 04:42</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.8</v>
+        <v>4.51</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>25/10/2023 14:50</t>
+          <t>25/10/2023 14:59</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>3.78</v>
+        <v>2.86</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>24/10/2023 02:12</t>
+          <t>08/08/2023 04:42</t>
         </is>
       </c>
       <c r="T108" t="n">
-        <v>3.2</v>
+        <v>5.21</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>25/10/2023 14:50</t>
+          <t>25/10/2023 14:59</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-tabor-sezana/GKhmwhHl/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-triglav/xUgqvY1r/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>2.31</v>
+        <v>3.2</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.05</v>
+        <v>2.88</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.11</v>
+        <v>3.36</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.32</v>
+        <v>3.39</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>25/10/2023 14:58</t>
+          <t>25/10/2023 14:57</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>2.68</v>
+        <v>1.93</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.37</v>
+        <v>2.26</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>25/10/2023 14:58</t>
+          <t>25/10/2023 14:57</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-bistrica/WnwnbggE/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-nk-krka/AwxjcD8K/</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -10517,63 +10517,63 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J110" t="n">
-        <v>2.13</v>
+        <v>2.31</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>08/08/2023 04:42</t>
+          <t>24/10/2023 02:12</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.49</v>
+        <v>2.05</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>25/10/2023 14:59</t>
+          <t>25/10/2023 14:57</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.25</v>
+        <v>3.11</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>08/08/2023 04:42</t>
+          <t>24/10/2023 02:12</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>4.51</v>
+        <v>3.32</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>25/10/2023 14:59</t>
+          <t>25/10/2023 14:58</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>2.86</v>
+        <v>2.68</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>08/08/2023 04:42</t>
+          <t>24/10/2023 02:12</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>5.21</v>
+        <v>3.37</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>25/10/2023 14:59</t>
+          <t>25/10/2023 14:58</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-triglav/xUgqvY1r/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-bistrica/WnwnbggE/</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -10609,63 +10609,63 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>25/10/2023 14:50</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>25/10/2023 14:50</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
         <v>3.2</v>
       </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>24/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>25/10/2023 14:57</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>24/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P111" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="Q111" t="inlineStr">
-        <is>
-          <t>25/10/2023 14:57</t>
-        </is>
-      </c>
-      <c r="R111" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>24/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T111" t="n">
-        <v>2.26</v>
-      </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>25/10/2023 14:57</t>
+          <t>25/10/2023 14:50</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-nk-krka/AwxjcD8K/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-tabor-sezana/GKhmwhHl/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>1.92</v>
+        <v>1.19</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.13</v>
+        <v>1.28</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>28/10/2023 13:53</t>
+          <t>28/10/2023 13:41</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.44</v>
+        <v>5.89</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.39</v>
+        <v>5.51</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>28/10/2023 13:53</t>
+          <t>28/10/2023 13:42</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.16</v>
+        <v>8.67</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>3.13</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>28/10/2023 13:53</t>
+          <t>28/10/2023 13:42</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-bilje/vXWgcSQA/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-tabor-sezana/UHwRkpJp/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J115" t="n">
-        <v>1.19</v>
+        <v>1.92</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.28</v>
+        <v>2.13</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>28/10/2023 13:41</t>
+          <t>28/10/2023 13:53</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>5.89</v>
+        <v>3.44</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>5.51</v>
+        <v>3.39</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>28/10/2023 13:42</t>
+          <t>28/10/2023 13:53</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>8.67</v>
+        <v>3.16</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>8.279999999999999</v>
+        <v>3.13</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>28/10/2023 13:42</t>
+          <t>28/10/2023 13:53</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-tabor-sezana/UHwRkpJp/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-bilje/vXWgcSQA/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J118" t="n">
-        <v>3.17</v>
+        <v>1.27</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>3.45</v>
+        <v>1.32</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>29/10/2023 13:45</t>
+          <t>29/10/2023 11:36</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.4</v>
+        <v>4.94</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>29/10/2023 13:45</t>
+          <t>29/10/2023 12:03</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>1.98</v>
+        <v>7.14</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2</v>
+        <v>7.46</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>29/10/2023 13:45</t>
+          <t>29/10/2023 11:36</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-grosuplje/hzybdntH/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-tolmin/ncz2e6eN/</t>
         </is>
       </c>
     </row>
@@ -11337,71 +11337,71 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G119" t="n">
+        <v>4</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Grosuplje</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:45</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:45</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
         <v>2</v>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Tolmin</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
-        <v>3</v>
-      </c>
-      <c r="J119" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>28/10/2023 03:12</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>29/10/2023 11:36</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
-        <v>5</v>
-      </c>
-      <c r="O119" t="inlineStr">
-        <is>
-          <t>28/10/2023 03:12</t>
-        </is>
-      </c>
-      <c r="P119" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="Q119" t="inlineStr">
-        <is>
-          <t>29/10/2023 12:03</t>
-        </is>
-      </c>
-      <c r="R119" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="S119" t="inlineStr">
-        <is>
-          <t>28/10/2023 03:12</t>
-        </is>
-      </c>
-      <c r="T119" t="n">
-        <v>7.46</v>
-      </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>29/10/2023 11:36</t>
+          <t>29/10/2023 13:45</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-tolmin/ncz2e6eN/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-grosuplje/hzybdntH/</t>
         </is>
       </c>
     </row>
@@ -12046,6 +12046,190 @@
       <c r="V126" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-nafta/2Tpchwuq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45236.58333333334</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>NK Bistrica</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>5</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>05/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>06/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>05/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>06/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>05/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>3</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>06/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-rudar/Q3NT95AG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45236.58333333334</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Ilirija</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Bilje</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>3</v>
+      </c>
+      <c r="J128" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>05/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>06/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>05/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>06/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>05/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>06/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-bilje/dUIPAoeA/</t>
         </is>
       </c>
     </row>

--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V128"/>
+  <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J127" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>2.17</v>
+        <v>2.04</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>06/11/2023 13:56</t>
+          <t>06/11/2023 13:57</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.44</v>
+        <v>3.66</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>06/11/2023 13:56</t>
+          <t>06/11/2023 13:57</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>06/11/2023 13:56</t>
+          <t>06/11/2023 13:57</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-rudar/Q3NT95AG/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-bilje/dUIPAoeA/</t>
         </is>
       </c>
     </row>
@@ -12165,71 +12165,163 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
+          <t>NK Bistrica</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>5</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>05/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>06/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>05/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>06/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>05/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>3</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>06/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-rudar/Q3NT95AG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45239.70833333334</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Nafta</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>2</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
           <t>Ilirija</t>
         </is>
       </c>
-      <c r="G128" t="n">
+      <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Bilje</t>
-        </is>
-      </c>
-      <c r="I128" t="n">
-        <v>3</v>
-      </c>
-      <c r="J128" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>05/11/2023 02:12</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>06/11/2023 13:57</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="O128" t="inlineStr">
-        <is>
-          <t>05/11/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P128" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="Q128" t="inlineStr">
-        <is>
-          <t>06/11/2023 13:57</t>
-        </is>
-      </c>
-      <c r="R128" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="S128" t="inlineStr">
-        <is>
-          <t>05/11/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T128" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="U128" t="inlineStr">
-        <is>
-          <t>06/11/2023 13:57</t>
-        </is>
-      </c>
-      <c r="V128" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-bilje/dUIPAoeA/</t>
+      <c r="J129" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>17/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>09/11/2023 16:57</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>17/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>09/11/2023 16:57</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>17/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>09/11/2023 16:57</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-ilirija/Iqk4Z9GD/</t>
         </is>
       </c>
     </row>

--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V129"/>
+  <dimension ref="A1:V133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.12</v>
+        <v>1.52</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>20/08/2023 08:59</t>
+          <t>20/08/2023 09:00</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3.08</v>
+        <v>1.47</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>20/08/2023 11:20</t>
+          <t>20/08/2023 17:19</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.27</v>
+        <v>4.26</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>20/08/2023 08:59</t>
+          <t>20/08/2023 09:00</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.4</v>
+        <v>5.59</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>20/08/2023 15:35</t>
+          <t>20/08/2023 17:19</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.15</v>
+        <v>5.03</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>20/08/2023 08:59</t>
+          <t>20/08/2023 09:00</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.12</v>
+        <v>4.39</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>20/08/2023 14:26</t>
+          <t>20/08/2023 17:25</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-ilirija/zRWDoyR5/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-tabor-sezana/6ouckJRt/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.52</v>
+        <v>3.12</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>20/08/2023 09:00</t>
+          <t>20/08/2023 08:59</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.47</v>
+        <v>3.08</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>20/08/2023 17:19</t>
+          <t>20/08/2023 11:20</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>4.26</v>
+        <v>3.27</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>20/08/2023 09:00</t>
+          <t>20/08/2023 08:59</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>5.59</v>
+        <v>3.4</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>20/08/2023 17:19</t>
+          <t>20/08/2023 15:35</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>5.03</v>
+        <v>2.15</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>20/08/2023 09:00</t>
+          <t>20/08/2023 08:59</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>4.39</v>
+        <v>2.12</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>20/08/2023 17:25</t>
+          <t>20/08/2023 14:26</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-tabor-sezana/6ouckJRt/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-ilirija/zRWDoyR5/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>1.81</v>
+        <v>3.24</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.13</v>
+        <v>4.09</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>30/08/2023 16:51</t>
+          <t>30/08/2023 15:38</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.51</v>
+        <v>3.15</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.62</v>
+        <v>3.69</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>30/08/2023 16:21</t>
+          <t>30/08/2023 15:38</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.42</v>
+        <v>2.03</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>05/08/2023 05:42</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.95</v>
+        <v>1.75</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>30/08/2023 16:51</t>
+          <t>30/08/2023 15:38</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-rudar/pv9TMWW7/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-grosuplje/OMD8pzPE/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,63 +3157,63 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.24</v>
+        <v>1.81</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4.09</v>
+        <v>2.13</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>30/08/2023 15:38</t>
+          <t>30/08/2023 16:51</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.15</v>
+        <v>3.51</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.69</v>
+        <v>3.62</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>30/08/2023 15:38</t>
+          <t>30/08/2023 16:21</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.03</v>
+        <v>3.42</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>05/08/2023 05:42</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>1.75</v>
+        <v>2.95</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>30/08/2023 15:38</t>
+          <t>30/08/2023 16:51</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-grosuplje/OMD8pzPE/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-rudar/pv9TMWW7/</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -3433,63 +3433,63 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1.58</v>
+        <v>2.32</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>02/09/2023 14:10</t>
+          <t>01/09/2023 04:43</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.44</v>
+        <v>2.33</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>02/09/2023 14:41</t>
+          <t>02/09/2023 16:27</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.99</v>
+        <v>3.25</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>02/09/2023 14:10</t>
+          <t>01/09/2023 04:43</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>4.38</v>
+        <v>3.38</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>02/09/2023 14:41</t>
+          <t>02/09/2023 16:27</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>4.75</v>
+        <v>2.63</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>02/09/2023 14:10</t>
+          <t>01/09/2023 04:43</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>6.18</v>
+        <v>2.77</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>02/09/2023 14:41</t>
+          <t>02/09/2023 16:27</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-dravinja/f5tYjW2o/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-nafta/GKUtkAXc/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>2.35</v>
+        <v>4.32</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>01/09/2023 04:43</t>
+          <t>02/09/2023 14:10</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.84</v>
+        <v>3.42</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>02/09/2023 16:21</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.12</v>
+        <v>3.88</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>01/09/2023 04:43</t>
+          <t>02/09/2023 14:10</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.36</v>
+        <v>3.99</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>02/09/2023 16:21</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.68</v>
+        <v>1.66</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>01/09/2023 04:43</t>
+          <t>02/09/2023 14:10</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>02/09/2023 16:21</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-jadran-dekani/YeuxjjIi/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-rudar/UNYplUn4/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>4.32</v>
+        <v>2.35</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>02/09/2023 14:10</t>
+          <t>01/09/2023 04:43</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3.42</v>
+        <v>2.84</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 16:21</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.88</v>
+        <v>3.12</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>02/09/2023 14:10</t>
+          <t>01/09/2023 04:43</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.99</v>
+        <v>3.36</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 16:21</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>1.66</v>
+        <v>2.68</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>02/09/2023 14:10</t>
+          <t>01/09/2023 04:43</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 16:21</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-rudar/UNYplUn4/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-jadran-dekani/YeuxjjIi/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,63 +3709,63 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.32</v>
+        <v>1.58</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>01/09/2023 04:43</t>
+          <t>02/09/2023 14:10</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.33</v>
+        <v>1.44</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>02/09/2023 16:27</t>
+          <t>02/09/2023 14:41</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.25</v>
+        <v>3.99</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>01/09/2023 04:43</t>
+          <t>02/09/2023 14:10</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.38</v>
+        <v>4.38</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>02/09/2023 16:27</t>
+          <t>02/09/2023 14:41</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.63</v>
+        <v>4.75</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>01/09/2023 04:43</t>
+          <t>02/09/2023 14:10</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.77</v>
+        <v>6.18</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>02/09/2023 16:27</t>
+          <t>02/09/2023 14:41</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-nafta/GKUtkAXc/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-dravinja/f5tYjW2o/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.54</v>
+        <v>1.19</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 13:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.49</v>
+        <v>1.29</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>09/09/2023 16:22</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.85</v>
+        <v>6.85</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 13:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>4.38</v>
+        <v>5.9</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>09/09/2023 16:22</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.49</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 13:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>5.37</v>
+        <v>7.25</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>09/09/2023 16:22</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-tolmin/MwmfpnnT/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-tabor-sezana/hMwQvQ9j/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,63 +4629,63 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1.19</v>
+        <v>2.41</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>09/09/2023 13:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.29</v>
+        <v>3.4</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:15</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>6.85</v>
+        <v>3.23</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>09/09/2023 13:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>5.9</v>
+        <v>3.56</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:14</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>8.869999999999999</v>
+        <v>2.54</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>09/09/2023 13:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>7.25</v>
+        <v>1.91</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:15</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-tabor-sezana/hMwQvQ9j/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-beltinci/vJZLu6fp/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.41</v>
+        <v>1.54</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3.4</v>
+        <v>1.49</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>09/09/2023 16:15</t>
+          <t>09/09/2023 16:22</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.23</v>
+        <v>3.85</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.56</v>
+        <v>4.38</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>09/09/2023 16:14</t>
+          <t>09/09/2023 16:22</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.54</v>
+        <v>4.49</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>1.91</v>
+        <v>5.37</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>09/09/2023 16:15</t>
+          <t>09/09/2023 16:22</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-beltinci/vJZLu6fp/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-tolmin/MwmfpnnT/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I66" t="n">
         <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>2.44</v>
+        <v>3.75</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.45</v>
+        <v>4.99</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:47</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.32</v>
+        <v>3.56</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.7</v>
+        <v>4.23</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:47</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.45</v>
+        <v>1.72</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.46</v>
+        <v>1.54</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:47</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-ilirija/dY8ySqV8/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-nk-krka/pf1lPsFR/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>3.75</v>
+        <v>2.44</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>4.99</v>
+        <v>2.45</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:47</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.56</v>
+        <v>3.32</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.23</v>
+        <v>3.7</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:47</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>1.72</v>
+        <v>2.45</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>1.54</v>
+        <v>2.46</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:47</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-nk-krka/pf1lPsFR/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-ilirija/dY8ySqV8/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>1.4</v>
+        <v>3.15</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.38</v>
+        <v>3.52</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:43</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.36</v>
+        <v>3.16</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.76</v>
+        <v>3.17</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:54</t>
+          <t>24/09/2023 15:41</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>5.39</v>
+        <v>2.06</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>6.65</v>
+        <v>2.06</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:54</t>
+          <t>24/09/2023 15:41</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-dravinja/n3mGK1Nr/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-jadran-dekani/GxhKJLxk/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>3.15</v>
+        <v>3.01</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.52</v>
+        <v>3.77</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 15:32</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.16</v>
+        <v>3.29</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.17</v>
+        <v>3.27</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>24/09/2023 15:41</t>
+          <t>24/09/2023 15:39</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>24/09/2023 15:41</t>
+          <t>24/09/2023 15:39</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-jadran-dekani/GxhKJLxk/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-nd-gorica/IsAXSPF2/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G71" t="n">
+        <v>3</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Dravinja</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ND Gorica</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>3</v>
-      </c>
       <c r="J71" t="n">
-        <v>3.01</v>
+        <v>1.4</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>3.77</v>
+        <v>1.38</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>24/09/2023 15:32</t>
+          <t>24/09/2023 15:43</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.29</v>
+        <v>4.36</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.27</v>
+        <v>4.76</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>24/09/2023 15:39</t>
+          <t>24/09/2023 15:54</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.03</v>
+        <v>5.39</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>1.94</v>
+        <v>6.65</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>24/09/2023 15:39</t>
+          <t>24/09/2023 15:54</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-nd-gorica/IsAXSPF2/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-dravinja/n3mGK1Nr/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.29</v>
+        <v>3.72</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.25</v>
+        <v>4.94</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>29/09/2023 13:45</t>
+          <t>29/09/2023 15:20</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>4.98</v>
+        <v>3.4</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>6.11</v>
+        <v>3.8</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>29/09/2023 15:29</t>
+          <t>29/09/2023 15:20</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>6.88</v>
+        <v>1.79</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>7.81</v>
+        <v>1.61</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>29/09/2023 15:29</t>
+          <t>29/09/2023 15:20</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-fuzinar/xQJeJCr6/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-primorje/f1UjKhTa/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>3.72</v>
+        <v>1.29</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4.94</v>
+        <v>1.25</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>29/09/2023 15:20</t>
+          <t>29/09/2023 13:45</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.4</v>
+        <v>4.98</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.8</v>
+        <v>6.11</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>29/09/2023 15:20</t>
+          <t>29/09/2023 15:29</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>1.79</v>
+        <v>6.88</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>1.61</v>
+        <v>7.81</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>29/09/2023 15:20</t>
+          <t>29/09/2023 15:29</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-primorje/f1UjKhTa/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-fuzinar/xQJeJCr6/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Tabor Sezana</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Triglav</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>2</v>
-      </c>
       <c r="J76" t="n">
-        <v>2.29</v>
+        <v>1.41</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,48 +7404,48 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.25</v>
+        <v>1.34</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
+          <t>30/09/2023 15:24</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>29/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
           <t>30/09/2023 15:29</t>
         </is>
       </c>
-      <c r="N76" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O76" t="inlineStr">
+      <c r="R76" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="S76" t="inlineStr">
         <is>
           <t>29/09/2023 02:42</t>
         </is>
       </c>
-      <c r="P76" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:25</t>
-        </is>
-      </c>
-      <c r="R76" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>29/09/2023 02:42</t>
-        </is>
-      </c>
       <c r="T76" t="n">
-        <v>2.9</v>
+        <v>6.9</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>30/09/2023 15:24</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-triglav/jepXGJM7/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tabor-sezana/tbQnLYDg/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.41</v>
+        <v>3.27</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.34</v>
+        <v>4</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:24</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>4.29</v>
+        <v>3.13</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>5.2</v>
+        <v>3.26</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>5.33</v>
+        <v>1.99</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>6.9</v>
+        <v>1.89</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:20</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tabor-sezana/tbQnLYDg/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-grosuplje/rkXIvNEE/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>3.27</v>
+        <v>1.72</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>4</v>
+        <v>1.78</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.13</v>
+        <v>3.77</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.26</v>
+        <v>4.06</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>1.99</v>
+        <v>3.65</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>1.89</v>
+        <v>3.61</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>30/09/2023 15:20</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-grosuplje/rkXIvNEE/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-bilje/4bYEu3a8/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>1.72</v>
+        <v>2.29</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.78</v>
+        <v>2.25</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.77</v>
+        <v>3.2</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>4.06</v>
+        <v>3.37</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:25</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.65</v>
+        <v>2.64</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.61</v>
+        <v>2.9</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:24</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-bilje/4bYEu3a8/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-triglav/jepXGJM7/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>1.34</v>
+        <v>1.71</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.29</v>
+        <v>1.52</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>07/10/2023 15:03</t>
+          <t>07/10/2023 10:57</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>4.49</v>
+        <v>3.56</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>5.25</v>
+        <v>4.11</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>07/10/2023 15:19</t>
+          <t>07/10/2023 13:35</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>6.24</v>
+        <v>3.79</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>8.34</v>
+        <v>5.27</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>07/10/2023 15:19</t>
+          <t>07/10/2023 10:57</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-dravinja/f1jMZXSn/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-bistrica/Qo0juf5P/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>1.71</v>
+        <v>2.04</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.52</v>
+        <v>2.34</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>07/10/2023 10:57</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.56</v>
+        <v>3.22</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4.11</v>
+        <v>3.34</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>07/10/2023 13:35</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.79</v>
+        <v>3.06</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>5.27</v>
+        <v>2.8</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>07/10/2023 10:57</t>
+          <t>07/10/2023 15:15</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-bistrica/Qo0juf5P/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-jadran-dekani/YikQYirg/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>2.04</v>
+        <v>1.34</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.34</v>
+        <v>1.29</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 15:03</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.22</v>
+        <v>4.49</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.34</v>
+        <v>5.25</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 15:19</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.06</v>
+        <v>6.24</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.8</v>
+        <v>8.34</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>07/10/2023 15:15</t>
+          <t>07/10/2023 15:19</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-jadran-dekani/YikQYirg/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-dravinja/f1jMZXSn/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>2.62</v>
+        <v>3.75</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3.04</v>
+        <v>2.86</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 15:27</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.22</v>
+        <v>3.48</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.36</v>
+        <v>3.82</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 15:28</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.29</v>
+        <v>1.74</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 15:27</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-nafta/jTqVXBca/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-nk-krka/0viIzEDt/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J86" t="n">
-        <v>2.97</v>
+        <v>2.62</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3.94</v>
+        <v>3.04</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>08/10/2023 13:47</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.92</v>
+        <v>3.36</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.05</v>
+        <v>2.29</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>1.72</v>
+        <v>2.18</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>08/10/2023 13:47</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-ilirija/OtM7GASO/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-nafta/jTqVXBca/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>3</v>
       </c>
       <c r="J87" t="n">
-        <v>3.75</v>
+        <v>2.97</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.86</v>
+        <v>3.94</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>08/10/2023 15:27</t>
+          <t>08/10/2023 13:47</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.48</v>
+        <v>3.28</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.82</v>
+        <v>3.92</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>08/10/2023 15:28</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>1.74</v>
+        <v>2.05</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.11</v>
+        <v>1.72</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>08/10/2023 15:27</t>
+          <t>08/10/2023 13:47</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-nk-krka/0viIzEDt/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-ilirija/OtM7GASO/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>20/10/2023 14:58</t>
+          <t>20/10/2023 14:57</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.76</v>
+        <v>3.56</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>20/10/2023 14:58</t>
+          <t>20/10/2023 14:57</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>2.36</v>
+        <v>3.74</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.35</v>
+        <v>4.32</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>20/10/2023 14:58</t>
+          <t>20/10/2023 14:57</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-nk-krka/nqeTt7tU/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-bistrica/hMePsmRN/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>20/10/2023 14:57</t>
+          <t>20/10/2023 14:58</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.44</v>
+        <v>3.22</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.56</v>
+        <v>3.76</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>20/10/2023 14:57</t>
+          <t>20/10/2023 14:58</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.74</v>
+        <v>2.36</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>4.32</v>
+        <v>2.35</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>20/10/2023 14:57</t>
+          <t>20/10/2023 14:58</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-bistrica/hMePsmRN/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-nk-krka/nqeTt7tU/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G106" t="n">
+        <v>5</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Fuzinar</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
         <v>1</v>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Primorje</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
       <c r="J106" t="n">
-        <v>2.62</v>
+        <v>1.89</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>08/08/2023 04:42</t>
+          <t>23/10/2023 02:12</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.54</v>
+        <v>2</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>24/10/2023 14:54</t>
+          <t>24/10/2023 14:56</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.06</v>
+        <v>3.58</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>08/08/2023 04:42</t>
+          <t>23/10/2023 02:12</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.05</v>
+        <v>3.68</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>24/10/2023 14:59</t>
+          <t>24/10/2023 14:58</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>2.44</v>
+        <v>3.12</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>08/08/2023 04:42</t>
+          <t>23/10/2023 02:12</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.75</v>
+        <v>3.19</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>24/10/2023 14:54</t>
+          <t>24/10/2023 14:58</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-primorje/pfcixCWf/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-fuzinar/OpdeyWo1/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>1.89</v>
+        <v>2.62</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>23/10/2023 02:12</t>
+          <t>08/08/2023 04:42</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2</v>
+        <v>2.54</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>24/10/2023 14:56</t>
+          <t>24/10/2023 14:54</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.58</v>
+        <v>3.06</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>23/10/2023 02:12</t>
+          <t>08/08/2023 04:42</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.68</v>
+        <v>3.05</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>24/10/2023 14:58</t>
+          <t>24/10/2023 14:59</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.12</v>
+        <v>2.44</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>23/10/2023 02:12</t>
+          <t>08/08/2023 04:42</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.19</v>
+        <v>2.75</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>24/10/2023 14:58</t>
+          <t>24/10/2023 14:54</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-fuzinar/OpdeyWo1/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-primorje/pfcixCWf/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J117" t="n">
-        <v>3.82</v>
+        <v>1.9</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>3.46</v>
+        <v>2.06</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>29/10/2023 13:08</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.57</v>
+        <v>3.4</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.62</v>
+        <v>3.61</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>29/10/2023 13:08</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>1.7</v>
+        <v>3.25</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>1.92</v>
+        <v>3.09</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>29/10/2023 13:08</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-nafta/IHroaldb/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-rudar/d8skb8B4/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>1.9</v>
+        <v>3.82</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.06</v>
+        <v>3.46</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:08</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.4</v>
+        <v>3.57</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:08</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>3.25</v>
+        <v>1.7</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>3.09</v>
+        <v>1.92</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:08</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-rudar/d8skb8B4/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-nafta/IHroaldb/</t>
         </is>
       </c>
     </row>
@@ -12073,71 +12073,71 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>05/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>06/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>05/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>06/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>05/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
         <v>3</v>
       </c>
-      <c r="J127" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>05/11/2023 02:12</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>06/11/2023 13:57</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>05/11/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P127" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="Q127" t="inlineStr">
-        <is>
-          <t>06/11/2023 13:57</t>
-        </is>
-      </c>
-      <c r="R127" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="S127" t="inlineStr">
-        <is>
-          <t>05/11/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T127" t="n">
-        <v>3.12</v>
-      </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>06/11/2023 13:57</t>
+          <t>06/11/2023 13:56</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-bilje/dUIPAoeA/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-rudar/Q3NT95AG/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J128" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>2.17</v>
+        <v>2.04</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>06/11/2023 13:56</t>
+          <t>06/11/2023 13:57</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.44</v>
+        <v>3.66</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>06/11/2023 13:56</t>
+          <t>06/11/2023 13:57</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>06/11/2023 13:56</t>
+          <t>06/11/2023 13:57</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-rudar/Q3NT95AG/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-bilje/dUIPAoeA/</t>
         </is>
       </c>
     </row>
@@ -12322,6 +12322,374 @@
       <c r="V129" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-ilirija/Iqk4Z9GD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45241.58333333334</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Dravinja</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>2</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Triglav</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:39</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:39</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:39</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-triglav/dSw6jH9e/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45241.58333333334</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Grosuplje</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>2</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Fuzinar</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-fuzinar/zsHEmc9K/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45241.58333333334</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Bilje</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>ND Gorica</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-nd-gorica/tKHAlwfE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45241.58333333334</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Jadran Dekani</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>3</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>NK Krka</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>2</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:17</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:17</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:17</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-nk-krka/jkwAkyP1/</t>
         </is>
       </c>
     </row>

--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V133"/>
+  <dimension ref="A1:V136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.49</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>28/07/2023 06:12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 17:59</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.29</v>
+        <v>3.43</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>28/07/2023 06:12</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.16</v>
+        <v>3.62</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 17:59</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>28/07/2023 06:12</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.07</v>
+        <v>2.72</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 17:59</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-nd-gorica/O0xYXdu9/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-ilirija/6PRxXGfF/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.49</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>28/07/2023 06:12</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>29/07/2023 17:59</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.43</v>
+        <v>3.29</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>28/07/2023 06:12</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.62</v>
+        <v>3.16</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>29/07/2023 17:59</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>28/07/2023 06:12</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.72</v>
+        <v>2.07</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>29/07/2023 17:59</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-ilirija/6PRxXGfF/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-nd-gorica/O0xYXdu9/</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,63 +1685,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.03</v>
+        <v>1.64</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:40</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.25</v>
+        <v>1.94</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>13/08/2023 15:23</t>
+          <t>13/08/2023 16:02</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:40</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.42</v>
+        <v>3.51</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>13/08/2023 15:34</t>
+          <t>13/08/2023 16:02</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.21</v>
+        <v>4.07</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:40</t>
+          <t>12/08/2023 05:43</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.83</v>
+        <v>3.5</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>13/08/2023 15:23</t>
+          <t>13/08/2023 16:02</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-nafta/xlMUkV0f/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bilje/b3Awl9V6/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>1.64</v>
+        <v>2.03</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>13/08/2023 10:40</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.94</v>
+        <v>2.25</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>13/08/2023 16:02</t>
+          <t>13/08/2023 15:23</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>13/08/2023 10:40</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.51</v>
+        <v>3.42</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>13/08/2023 16:02</t>
+          <t>13/08/2023 15:34</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>4.07</v>
+        <v>3.21</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>12/08/2023 05:43</t>
+          <t>13/08/2023 10:40</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.5</v>
+        <v>2.83</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>13/08/2023 16:02</t>
+          <t>13/08/2023 15:23</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bilje/b3Awl9V6/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-nafta/xlMUkV0f/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.52</v>
+        <v>3.12</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>20/08/2023 09:00</t>
+          <t>20/08/2023 08:59</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.47</v>
+        <v>3.08</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>20/08/2023 17:19</t>
+          <t>20/08/2023 11:20</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>4.26</v>
+        <v>3.27</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>20/08/2023 09:00</t>
+          <t>20/08/2023 08:59</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>5.59</v>
+        <v>3.4</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>20/08/2023 17:19</t>
+          <t>20/08/2023 15:35</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>5.03</v>
+        <v>2.15</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>20/08/2023 09:00</t>
+          <t>20/08/2023 08:59</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.39</v>
+        <v>2.12</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>20/08/2023 17:25</t>
+          <t>20/08/2023 14:26</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-tabor-sezana/6ouckJRt/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-ilirija/zRWDoyR5/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>3.12</v>
+        <v>1.52</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>20/08/2023 08:59</t>
+          <t>20/08/2023 09:00</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3.08</v>
+        <v>1.47</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>20/08/2023 11:20</t>
+          <t>20/08/2023 17:19</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.27</v>
+        <v>4.26</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>20/08/2023 08:59</t>
+          <t>20/08/2023 09:00</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.4</v>
+        <v>5.59</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>20/08/2023 15:35</t>
+          <t>20/08/2023 17:19</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.15</v>
+        <v>5.03</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>20/08/2023 08:59</t>
+          <t>20/08/2023 09:00</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.12</v>
+        <v>4.39</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>20/08/2023 14:26</t>
+          <t>20/08/2023 17:25</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-ilirija/zRWDoyR5/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-tabor-sezana/6ouckJRt/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>3.15</v>
+        <v>3.01</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.52</v>
+        <v>3.77</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 15:32</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.16</v>
+        <v>3.29</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.17</v>
+        <v>3.27</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:41</t>
+          <t>24/09/2023 15:39</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:41</t>
+          <t>24/09/2023 15:39</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-jadran-dekani/GxhKJLxk/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-nd-gorica/IsAXSPF2/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>3.01</v>
+        <v>3.15</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.77</v>
+        <v>3.52</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>24/09/2023 15:32</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.29</v>
+        <v>3.16</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.27</v>
+        <v>3.17</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>24/09/2023 15:39</t>
+          <t>24/09/2023 15:41</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>24/09/2023 15:39</t>
+          <t>24/09/2023 15:41</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-nd-gorica/IsAXSPF2/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-jadran-dekani/GxhKJLxk/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>3.72</v>
+        <v>1.29</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>4.94</v>
+        <v>1.25</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>29/09/2023 15:20</t>
+          <t>29/09/2023 13:45</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.4</v>
+        <v>4.98</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.8</v>
+        <v>6.11</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>29/09/2023 15:20</t>
+          <t>29/09/2023 15:29</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>1.79</v>
+        <v>6.88</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>1.61</v>
+        <v>7.81</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>29/09/2023 15:20</t>
+          <t>29/09/2023 15:29</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-primorje/f1UjKhTa/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-fuzinar/xQJeJCr6/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.29</v>
+        <v>3.72</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.25</v>
+        <v>4.94</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>29/09/2023 13:45</t>
+          <t>29/09/2023 15:20</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>4.98</v>
+        <v>3.4</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>6.11</v>
+        <v>3.8</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>29/09/2023 15:29</t>
+          <t>29/09/2023 15:20</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>6.88</v>
+        <v>1.79</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>7.81</v>
+        <v>1.61</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>29/09/2023 15:29</t>
+          <t>29/09/2023 15:20</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-fuzinar/xQJeJCr6/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-primorje/f1UjKhTa/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>1.41</v>
+        <v>2.29</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,48 +7404,48 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.34</v>
+        <v>2.25</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
+          <t>30/09/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>29/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:25</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>29/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
           <t>30/09/2023 15:24</t>
         </is>
       </c>
-      <c r="N76" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>29/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="P76" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:29</t>
-        </is>
-      </c>
-      <c r="R76" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>29/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T76" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:29</t>
-        </is>
-      </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tabor-sezana/tbQnLYDg/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-triglav/jepXGJM7/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1.72</v>
+        <v>1.41</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.78</v>
+        <v>1.34</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:24</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.77</v>
+        <v>4.29</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.06</v>
+        <v>5.2</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.65</v>
+        <v>5.33</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.61</v>
+        <v>6.9</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-bilje/4bYEu3a8/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tabor-sezana/tbQnLYDg/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.29</v>
+        <v>1.72</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.25</v>
+        <v>1.78</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.2</v>
+        <v>3.77</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.37</v>
+        <v>4.06</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:25</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.64</v>
+        <v>3.65</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.9</v>
+        <v>3.61</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:24</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-triglav/jepXGJM7/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-bilje/4bYEu3a8/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J98" t="n">
-        <v>1.75</v>
+        <v>2.71</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.75</v>
+        <v>3.21</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>20/10/2023 14:57</t>
+          <t>20/10/2023 14:55</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.44</v>
+        <v>3.31</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.56</v>
+        <v>3.81</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>20/10/2023 14:57</t>
+          <t>20/10/2023 14:59</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.74</v>
+        <v>2.19</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>4.32</v>
+        <v>1.95</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>20/10/2023 14:57</t>
+          <t>20/10/2023 14:59</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-bistrica/hMePsmRN/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-fuzinar/I33Cpks5/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>2.71</v>
+        <v>1.75</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>3.21</v>
+        <v>1.75</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>20/10/2023 14:55</t>
+          <t>20/10/2023 14:57</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.31</v>
+        <v>3.44</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.81</v>
+        <v>3.56</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>20/10/2023 14:59</t>
+          <t>20/10/2023 14:57</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>2.19</v>
+        <v>3.74</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>1.95</v>
+        <v>4.32</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>20/10/2023 14:59</t>
+          <t>20/10/2023 14:57</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-fuzinar/I33Cpks5/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-bistrica/hMePsmRN/</t>
         </is>
       </c>
     </row>
@@ -11153,71 +11153,71 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I117" t="n">
+        <v>3</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:36</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>5</v>
       </c>
-      <c r="J117" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K117" t="inlineStr">
+      <c r="O117" t="inlineStr">
         <is>
           <t>28/10/2023 03:12</t>
         </is>
       </c>
-      <c r="L117" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>29/10/2023 13:33</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O117" t="inlineStr">
+      <c r="P117" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:03</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="S117" t="inlineStr">
         <is>
           <t>28/10/2023 03:12</t>
         </is>
       </c>
-      <c r="P117" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="Q117" t="inlineStr">
-        <is>
-          <t>29/10/2023 13:33</t>
-        </is>
-      </c>
-      <c r="R117" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="S117" t="inlineStr">
-        <is>
-          <t>28/10/2023 03:12</t>
-        </is>
-      </c>
       <c r="T117" t="n">
-        <v>3.09</v>
+        <v>7.46</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 11:36</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-rudar/d8skb8B4/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-tolmin/ncz2e6eN/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J118" t="n">
-        <v>1.27</v>
+        <v>1.9</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.32</v>
+        <v>2.06</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>29/10/2023 11:36</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>4.94</v>
+        <v>3.61</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>29/10/2023 12:03</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>7.14</v>
+        <v>3.25</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>7.46</v>
+        <v>3.09</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>29/10/2023 11:36</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-tolmin/ncz2e6eN/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-rudar/d8skb8B4/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="I130" t="n">
         <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>2.58</v>
+        <v>3.31</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>2.8</v>
+        <v>4.22</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>11/11/2023 13:39</t>
+          <t>11/11/2023 13:59</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.09</v>
+        <v>3.41</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.34</v>
+        <v>4.12</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>11/11/2023 13:39</t>
+          <t>11/11/2023 13:59</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>2.4</v>
+        <v>1.87</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>2.34</v>
+        <v>1.65</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>11/11/2023 13:39</t>
+          <t>11/11/2023 13:59</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-triglav/dSw6jH9e/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-nd-gorica/tKHAlwfE/</t>
         </is>
       </c>
     </row>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -12449,14 +12449,14 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="n">
-        <v>1.39</v>
+        <v>2.58</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>1.56</v>
+        <v>2.8</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>11/11/2023 13:56</t>
+          <t>11/11/2023 13:39</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>4.33</v>
+        <v>3.09</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>4.28</v>
+        <v>3.34</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>11/11/2023 13:57</t>
+          <t>11/11/2023 13:39</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>5.51</v>
+        <v>2.4</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>4.69</v>
+        <v>2.34</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>11/11/2023 13:57</t>
+          <t>11/11/2023 13:39</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-fuzinar/zsHEmc9K/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-triglav/dSw6jH9e/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="G132" t="n">
+        <v>2</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Fuzinar</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>ND Gorica</t>
-        </is>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
       <c r="J132" t="n">
-        <v>3.31</v>
+        <v>1.39</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>4.22</v>
+        <v>1.56</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>11/11/2023 13:59</t>
+          <t>11/11/2023 13:56</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.41</v>
+        <v>4.33</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>4.12</v>
+        <v>4.28</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>11/11/2023 13:59</t>
+          <t>11/11/2023 13:57</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>1.87</v>
+        <v>5.51</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>1.65</v>
+        <v>4.69</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>11/11/2023 13:59</t>
+          <t>11/11/2023 13:57</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-nd-gorica/tKHAlwfE/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-fuzinar/zsHEmc9K/</t>
         </is>
       </c>
     </row>
@@ -12690,6 +12690,282 @@
       <c r="V133" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-nk-krka/jkwAkyP1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45242.58333333334</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>2</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Ilirija</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-ilirija/2TI6kJv8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45242.58333333334</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Beltinci</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>2</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Tabor Sezana</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-tabor-sezana/fRcoryXs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45242.58333333334</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Tolmin</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Primorje</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:51</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:51</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:51</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-primorje/lpLInHOQ/</t>
         </is>
       </c>
     </row>

--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V136"/>
+  <dimension ref="A1:V137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>2.62</v>
+        <v>2.97</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,48 +8324,48 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3.04</v>
+        <v>3.94</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
+          <t>08/10/2023 13:47</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
           <t>08/10/2023 15:01</t>
         </is>
       </c>
-      <c r="N86" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="O86" t="inlineStr">
+      <c r="R86" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S86" t="inlineStr">
         <is>
           <t>07/10/2023 02:42</t>
         </is>
       </c>
-      <c r="P86" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>08/10/2023 15:01</t>
-        </is>
-      </c>
-      <c r="R86" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>07/10/2023 02:42</t>
-        </is>
-      </c>
       <c r="T86" t="n">
-        <v>2.18</v>
+        <v>1.72</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 13:47</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-nafta/jTqVXBca/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-ilirija/OtM7GASO/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J87" t="n">
-        <v>2.97</v>
+        <v>2.62</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>3.94</v>
+        <v>3.04</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>08/10/2023 13:47</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.92</v>
+        <v>3.36</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.05</v>
+        <v>2.29</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1.72</v>
+        <v>2.18</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>08/10/2023 13:47</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-ilirija/OtM7GASO/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-nafta/jTqVXBca/</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,14 +9137,14 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>3.48</v>
+        <v>1.72</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>5.99</v>
+        <v>1.6</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>15/10/2023 14:43</t>
+          <t>15/10/2023 14:41</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.44</v>
+        <v>3.57</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>4.19</v>
+        <v>4.03</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>15/10/2023 14:43</t>
+          <t>15/10/2023 14:41</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>1.81</v>
+        <v>3.73</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>1.47</v>
+        <v>4.77</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-beltinci/lOBelXst/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-triglav/UJrZWVC5/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,14 +9229,14 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.72</v>
+        <v>3.48</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,48 +9244,48 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.6</v>
+        <v>5.99</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
+          <t>15/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
           <t>15/10/2023 14:41</t>
         </is>
       </c>
-      <c r="N96" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>14/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P96" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>15/10/2023 14:41</t>
-        </is>
-      </c>
-      <c r="R96" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>14/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T96" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>15/10/2023 14:41</t>
-        </is>
-      </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-triglav/UJrZWVC5/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-beltinci/lOBelXst/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J98" t="n">
-        <v>2.71</v>
+        <v>2.55</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>3.21</v>
+        <v>2.55</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>20/10/2023 14:55</t>
+          <t>20/10/2023 14:58</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.31</v>
+        <v>3.22</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.81</v>
+        <v>3.76</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>20/10/2023 14:59</t>
+          <t>20/10/2023 14:58</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>2.19</v>
+        <v>2.36</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>20/10/2023 14:59</t>
+          <t>20/10/2023 14:58</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-fuzinar/I33Cpks5/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-nk-krka/nqeTt7tU/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>20/10/2023 14:58</t>
+          <t>20/10/2023 14:57</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.76</v>
+        <v>3.56</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>20/10/2023 14:58</t>
+          <t>20/10/2023 14:57</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>2.36</v>
+        <v>3.74</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2.35</v>
+        <v>4.32</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>20/10/2023 14:58</t>
+          <t>20/10/2023 14:57</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-nk-krka/nqeTt7tU/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-bistrica/hMePsmRN/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J100" t="n">
-        <v>1.75</v>
+        <v>2.71</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1.75</v>
+        <v>3.21</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>20/10/2023 14:57</t>
+          <t>20/10/2023 14:55</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.44</v>
+        <v>3.31</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.56</v>
+        <v>3.81</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>20/10/2023 14:57</t>
+          <t>20/10/2023 14:59</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.74</v>
+        <v>2.19</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>4.32</v>
+        <v>1.95</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>20/10/2023 14:57</t>
+          <t>20/10/2023 14:59</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-bistrica/hMePsmRN/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-fuzinar/I33Cpks5/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>1.83</v>
+        <v>2.56</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.9</v>
+        <v>2.52</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
@@ -9896,40 +9896,40 @@
         </is>
       </c>
       <c r="N103" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
         <v>3.49</v>
       </c>
-      <c r="O103" t="inlineStr">
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S103" t="inlineStr">
         <is>
           <t>20/10/2023 02:12</t>
         </is>
       </c>
-      <c r="P103" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="Q103" t="inlineStr">
+      <c r="T103" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U103" t="inlineStr">
         <is>
           <t>21/10/2023 14:43</t>
         </is>
       </c>
-      <c r="R103" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>20/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T103" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="U103" t="inlineStr">
-        <is>
-          <t>21/10/2023 14:41</t>
-        </is>
-      </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-dravinja/8n1fxRlo/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-ilirija/EVdLrTBH/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>2.56</v>
+        <v>1.83</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.52</v>
+        <v>1.9</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.16</v>
+        <v>3.49</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.49</v>
+        <v>3.67</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.5</v>
+        <v>3.48</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:41</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-ilirija/EVdLrTBH/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-dravinja/8n1fxRlo/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G114" t="n">
+        <v>4</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Bilje</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
         <v>3</v>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Triglav</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
       <c r="J114" t="n">
-        <v>2.19</v>
+        <v>1.92</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.4</v>
+        <v>2.13</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>28/10/2023 13:56</t>
+          <t>28/10/2023 13:53</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.11</v>
+        <v>3.44</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.35</v>
+        <v>3.39</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>28/10/2023 13:36</t>
+          <t>28/10/2023 13:53</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>2.86</v>
+        <v>3.16</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.7</v>
+        <v>3.13</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>28/10/2023 13:56</t>
+          <t>28/10/2023 13:53</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-triglav/lrvs0Uth/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-bilje/vXWgcSQA/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>1.92</v>
+        <v>2.19</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>2.13</v>
+        <v>2.4</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>28/10/2023 13:53</t>
+          <t>28/10/2023 13:56</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.44</v>
+        <v>3.11</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.39</v>
+        <v>3.35</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>28/10/2023 13:53</t>
+          <t>28/10/2023 13:36</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>3.16</v>
+        <v>2.86</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>3.13</v>
+        <v>2.7</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>28/10/2023 13:53</t>
+          <t>28/10/2023 13:56</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-bilje/vXWgcSQA/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-triglav/lrvs0Uth/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J117" t="n">
-        <v>1.27</v>
+        <v>1.9</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.32</v>
+        <v>2.06</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>29/10/2023 11:36</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>4.94</v>
+        <v>3.61</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>29/10/2023 12:03</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>7.14</v>
+        <v>3.25</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>7.46</v>
+        <v>3.09</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>29/10/2023 11:36</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-tolmin/ncz2e6eN/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-rudar/d8skb8B4/</t>
         </is>
       </c>
     </row>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -11253,14 +11253,14 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>1.9</v>
+        <v>3.17</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,48 +11268,48 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.06</v>
+        <v>3.45</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:45</t>
         </is>
       </c>
       <c r="N118" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
         <v>3.4</v>
       </c>
-      <c r="O118" t="inlineStr">
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:45</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S118" t="inlineStr">
         <is>
           <t>28/10/2023 03:12</t>
         </is>
       </c>
-      <c r="P118" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="Q118" t="inlineStr">
-        <is>
-          <t>29/10/2023 13:33</t>
-        </is>
-      </c>
-      <c r="R118" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="S118" t="inlineStr">
-        <is>
-          <t>28/10/2023 03:12</t>
-        </is>
-      </c>
       <c r="T118" t="n">
-        <v>3.09</v>
+        <v>2</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:45</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-rudar/d8skb8B4/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-grosuplje/hzybdntH/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J119" t="n">
-        <v>3.17</v>
+        <v>1.27</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>3.45</v>
+        <v>1.32</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>29/10/2023 13:45</t>
+          <t>29/10/2023 11:36</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.4</v>
+        <v>4.94</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>29/10/2023 13:45</t>
+          <t>29/10/2023 12:03</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>1.98</v>
+        <v>7.14</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>2</v>
+        <v>7.46</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>29/10/2023 13:45</t>
+          <t>29/10/2023 11:36</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-grosuplje/hzybdntH/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-tolmin/ncz2e6eN/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>1.2</v>
+        <v>3.95</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.23</v>
+        <v>4.6</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>12/11/2023 13:57</t>
+          <t>12/11/2023 13:51</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>5.72</v>
+        <v>3.54</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>6.45</v>
+        <v>3.83</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 13:51</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>8.220000000000001</v>
+        <v>1.71</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>8.199999999999999</v>
+        <v>1.65</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 13:51</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-tabor-sezana/fRcoryXs/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-primorje/lpLInHOQ/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>3.95</v>
+        <v>1.2</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>4.6</v>
+        <v>1.23</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>12/11/2023 13:51</t>
+          <t>12/11/2023 13:57</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.54</v>
+        <v>5.72</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.83</v>
+        <v>6.45</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>12/11/2023 13:51</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>1.71</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,108 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>1.65</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>12/11/2023 13:51</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-primorje/lpLInHOQ/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-tabor-sezana/fRcoryXs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45243.66666666666</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Nafta</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>3</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>NK Bistrica</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>12/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>13/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>12/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>13/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>12/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>13/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-bistrica/UuxElev8/</t>
         </is>
       </c>
     </row>

--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V137"/>
+  <dimension ref="A1:V138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>1.84</v>
+        <v>2.44</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.4</v>
+        <v>3.32</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.42</v>
+        <v>2.45</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.15</v>
+        <v>2.46</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bistrica/je8uR3pF/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-ilirija/dY8ySqV8/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>2.44</v>
+        <v>1.84</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.45</v>
+        <v>3.42</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.46</v>
+        <v>4.15</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-ilirija/dY8ySqV8/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bistrica/je8uR3pF/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>3.01</v>
+        <v>3.15</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.77</v>
+        <v>3.52</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:32</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.29</v>
+        <v>3.16</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.27</v>
+        <v>3.17</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:39</t>
+          <t>24/09/2023 15:41</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:39</t>
+          <t>24/09/2023 15:41</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-nd-gorica/IsAXSPF2/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-jadran-dekani/GxhKJLxk/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>3.15</v>
+        <v>1.4</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.52</v>
+        <v>1.38</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 15:43</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.16</v>
+        <v>4.36</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.17</v>
+        <v>4.76</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>24/09/2023 15:41</t>
+          <t>24/09/2023 15:54</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.06</v>
+        <v>5.39</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.06</v>
+        <v>6.65</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>24/09/2023 15:41</t>
+          <t>24/09/2023 15:54</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-jadran-dekani/GxhKJLxk/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-dravinja/n3mGK1Nr/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>ND Gorica</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
         <v>3</v>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Dravinja</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
       <c r="J71" t="n">
-        <v>1.4</v>
+        <v>3.01</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.38</v>
+        <v>3.77</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>24/09/2023 15:43</t>
+          <t>24/09/2023 15:32</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>4.36</v>
+        <v>3.29</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>4.76</v>
+        <v>3.27</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>24/09/2023 15:54</t>
+          <t>24/09/2023 15:39</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>5.39</v>
+        <v>2.03</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>6.65</v>
+        <v>1.94</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>24/09/2023 15:54</t>
+          <t>24/09/2023 15:39</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-dravinja/n3mGK1Nr/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-nd-gorica/IsAXSPF2/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.29</v>
+        <v>3.72</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.25</v>
+        <v>4.94</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>29/09/2023 13:45</t>
+          <t>29/09/2023 15:20</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>4.98</v>
+        <v>3.4</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>6.11</v>
+        <v>3.8</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>29/09/2023 15:29</t>
+          <t>29/09/2023 15:20</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>6.88</v>
+        <v>1.79</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>7.81</v>
+        <v>1.61</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>29/09/2023 15:29</t>
+          <t>29/09/2023 15:20</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-fuzinar/xQJeJCr6/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-primorje/f1UjKhTa/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>3.72</v>
+        <v>1.29</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4.94</v>
+        <v>1.25</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>29/09/2023 15:20</t>
+          <t>29/09/2023 13:45</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.4</v>
+        <v>4.98</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.8</v>
+        <v>6.11</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>29/09/2023 15:20</t>
+          <t>29/09/2023 15:29</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>1.79</v>
+        <v>6.88</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>1.61</v>
+        <v>7.81</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>29/09/2023 15:20</t>
+          <t>29/09/2023 15:29</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-primorje/f1UjKhTa/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-fuzinar/xQJeJCr6/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Tabor Sezana</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Triglav</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>2</v>
-      </c>
       <c r="J76" t="n">
-        <v>2.29</v>
+        <v>1.41</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,48 +7404,48 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.25</v>
+        <v>1.34</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
+          <t>30/09/2023 15:24</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>29/09/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
           <t>30/09/2023 15:29</t>
         </is>
       </c>
-      <c r="N76" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O76" t="inlineStr">
+      <c r="R76" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="S76" t="inlineStr">
         <is>
           <t>29/09/2023 02:42</t>
         </is>
       </c>
-      <c r="P76" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:25</t>
-        </is>
-      </c>
-      <c r="R76" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>29/09/2023 02:42</t>
-        </is>
-      </c>
       <c r="T76" t="n">
-        <v>2.9</v>
+        <v>6.9</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>30/09/2023 15:24</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-triglav/jepXGJM7/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tabor-sezana/tbQnLYDg/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G78" t="n">
+        <v>3</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Bilje</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
         <v>1</v>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Tabor Sezana</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
       <c r="J78" t="n">
-        <v>1.41</v>
+        <v>1.72</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.34</v>
+        <v>1.78</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>30/09/2023 15:24</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>4.29</v>
+        <v>3.77</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>5.2</v>
+        <v>4.06</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>5.33</v>
+        <v>3.65</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>6.9</v>
+        <v>3.61</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>30/09/2023 15:29</t>
+          <t>30/09/2023 15:23</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tabor-sezana/tbQnLYDg/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-bilje/4bYEu3a8/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>1.72</v>
+        <v>2.29</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.78</v>
+        <v>2.25</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:29</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.77</v>
+        <v>3.2</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>4.06</v>
+        <v>3.37</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:25</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.65</v>
+        <v>2.64</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.61</v>
+        <v>2.9</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>30/09/2023 15:23</t>
+          <t>30/09/2023 15:24</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-bilje/4bYEu3a8/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-triglav/jepXGJM7/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Primorje</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Tolmin</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
       <c r="J91" t="n">
-        <v>1.51</v>
+        <v>3.73</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.71</v>
+        <v>4.44</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>13/10/2023 09:50</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.98</v>
+        <v>3.66</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.79</v>
+        <v>3.91</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 13:04</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>4.65</v>
+        <v>1.7</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>4.19</v>
+        <v>1.64</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>14/10/2023 14:44</t>
+          <t>13/10/2023 09:50</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tolmin/bazjTmCU/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-primorje/Aw04nBCh/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I92" t="n">
         <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>2.62</v>
+        <v>2.1</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.17</v>
+        <v>2.22</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>14/10/2023 14:58</t>
+          <t>14/10/2023 14:45</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.24</v>
+        <v>3.17</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.62</v>
+        <v>3.54</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.33</v>
+        <v>2.97</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.87</v>
+        <v>2.83</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>14/10/2023 14:58</t>
+          <t>14/10/2023 14:45</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-bilje/xpnsV9sI/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-rudar/OtrwWkSB/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>3.73</v>
+        <v>1.51</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>4.44</v>
+        <v>1.71</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>13/10/2023 09:50</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.66</v>
+        <v>3.98</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.91</v>
+        <v>3.79</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>14/10/2023 13:04</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>1.7</v>
+        <v>4.65</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>1.64</v>
+        <v>4.19</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>13/10/2023 09:50</t>
+          <t>14/10/2023 14:44</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-primorje/Aw04nBCh/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tolmin/bazjTmCU/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2.1</v>
+        <v>2.62</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,48 +9060,48 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.22</v>
+        <v>2.17</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
+          <t>14/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
           <t>14/10/2023 14:45</t>
         </is>
       </c>
-      <c r="N94" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="O94" t="inlineStr">
+      <c r="R94" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S94" t="inlineStr">
         <is>
           <t>13/10/2023 02:13</t>
         </is>
       </c>
-      <c r="P94" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>14/10/2023 14:45</t>
-        </is>
-      </c>
-      <c r="R94" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>13/10/2023 02:13</t>
-        </is>
-      </c>
       <c r="T94" t="n">
-        <v>2.83</v>
+        <v>2.87</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>14/10/2023 14:45</t>
+          <t>14/10/2023 14:58</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-rudar/OtrwWkSB/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-bilje/xpnsV9sI/</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,14 +9137,14 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1.72</v>
+        <v>3.48</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,48 +9152,48 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.6</v>
+        <v>5.99</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
+          <t>15/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
           <t>15/10/2023 14:41</t>
         </is>
       </c>
-      <c r="N95" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>14/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P95" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>15/10/2023 14:41</t>
-        </is>
-      </c>
-      <c r="R95" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>14/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T95" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>15/10/2023 14:41</t>
-        </is>
-      </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-triglav/UJrZWVC5/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-beltinci/lOBelXst/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,14 +9229,14 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>3.48</v>
+        <v>1.72</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>5.99</v>
+        <v>1.6</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>15/10/2023 14:43</t>
+          <t>15/10/2023 14:41</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.44</v>
+        <v>3.57</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>4.19</v>
+        <v>4.03</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>15/10/2023 14:43</t>
+          <t>15/10/2023 14:41</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>1.81</v>
+        <v>3.73</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>1.47</v>
+        <v>4.77</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-beltinci/lOBelXst/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-triglav/UJrZWVC5/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J113" t="n">
-        <v>1.19</v>
+        <v>1.92</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.28</v>
+        <v>2.13</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>28/10/2023 13:41</t>
+          <t>28/10/2023 13:53</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>5.89</v>
+        <v>3.44</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>5.51</v>
+        <v>3.39</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>28/10/2023 13:42</t>
+          <t>28/10/2023 13:53</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>8.67</v>
+        <v>3.16</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>8.279999999999999</v>
+        <v>3.13</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>28/10/2023 13:42</t>
+          <t>28/10/2023 13:53</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-tabor-sezana/UHwRkpJp/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-bilje/vXWgcSQA/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>1.92</v>
+        <v>2.19</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.13</v>
+        <v>2.4</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>28/10/2023 13:53</t>
+          <t>28/10/2023 13:56</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.44</v>
+        <v>3.11</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.39</v>
+        <v>3.35</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>28/10/2023 13:53</t>
+          <t>28/10/2023 13:36</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.16</v>
+        <v>2.86</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>3.13</v>
+        <v>2.7</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>28/10/2023 13:53</t>
+          <t>28/10/2023 13:56</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-bilje/vXWgcSQA/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-triglav/lrvs0Uth/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I115" t="n">
         <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>2.19</v>
+        <v>1.19</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>2.4</v>
+        <v>1.28</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>28/10/2023 13:56</t>
+          <t>28/10/2023 13:41</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.11</v>
+        <v>5.89</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.35</v>
+        <v>5.51</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>28/10/2023 13:36</t>
+          <t>28/10/2023 13:42</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>2.86</v>
+        <v>8.67</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>2.7</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>28/10/2023 13:56</t>
+          <t>28/10/2023 13:42</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-triglav/lrvs0Uth/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-tabor-sezana/UHwRkpJp/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>1.9</v>
+        <v>3.82</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.06</v>
+        <v>3.46</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:08</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.4</v>
+        <v>3.57</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:08</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>3.25</v>
+        <v>1.7</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>3.09</v>
+        <v>1.92</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>29/10/2023 13:33</t>
+          <t>29/10/2023 13:08</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-rudar/d8skb8B4/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-nafta/IHroaldb/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J120" t="n">
-        <v>3.82</v>
+        <v>1.9</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>3.46</v>
+        <v>2.06</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>29/10/2023 13:08</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.57</v>
+        <v>3.4</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.62</v>
+        <v>3.61</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>29/10/2023 13:08</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>1.7</v>
+        <v>3.25</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>1.92</v>
+        <v>3.09</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>29/10/2023 13:08</t>
+          <t>29/10/2023 13:33</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-nafta/IHroaldb/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-rudar/d8skb8B4/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J130" t="n">
-        <v>3.31</v>
+        <v>2.35</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>4.22</v>
+        <v>2.41</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>11/11/2023 13:59</t>
+          <t>11/11/2023 12:17</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.41</v>
+        <v>3.16</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>4.12</v>
+        <v>3.46</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>11/11/2023 13:59</t>
+          <t>11/11/2023 12:17</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>1.87</v>
+        <v>2.6</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>1.65</v>
+        <v>2.63</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>11/11/2023 13:59</t>
+          <t>11/11/2023 12:17</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-nd-gorica/tKHAlwfE/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-nk-krka/jkwAkyP1/</t>
         </is>
       </c>
     </row>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -12449,14 +12449,14 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>2.58</v>
+        <v>1.39</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.8</v>
+        <v>1.56</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>11/11/2023 13:39</t>
+          <t>11/11/2023 13:56</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.09</v>
+        <v>4.33</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.34</v>
+        <v>4.28</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>11/11/2023 13:39</t>
+          <t>11/11/2023 13:57</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>2.4</v>
+        <v>5.51</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>2.34</v>
+        <v>4.69</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>11/11/2023 13:39</t>
+          <t>11/11/2023 13:57</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-triglav/dSw6jH9e/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-fuzinar/zsHEmc9K/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>1.39</v>
+        <v>3.31</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>1.56</v>
+        <v>4.22</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>11/11/2023 13:56</t>
+          <t>11/11/2023 13:59</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>4.33</v>
+        <v>3.41</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>4.28</v>
+        <v>4.12</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>11/11/2023 13:57</t>
+          <t>11/11/2023 13:59</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>5.51</v>
+        <v>1.87</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>4.69</v>
+        <v>1.65</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>11/11/2023 13:57</t>
+          <t>11/11/2023 13:59</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-fuzinar/zsHEmc9K/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-nd-gorica/tKHAlwfE/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>2.35</v>
+        <v>2.58</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>2.41</v>
+        <v>2.8</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>11/11/2023 12:17</t>
+          <t>11/11/2023 13:39</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.16</v>
+        <v>3.09</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.46</v>
+        <v>3.34</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>11/11/2023 12:17</t>
+          <t>11/11/2023 13:39</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>2.63</v>
+        <v>2.34</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>11/11/2023 12:17</t>
+          <t>11/11/2023 13:39</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-nk-krka/jkwAkyP1/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-triglav/dSw6jH9e/</t>
         </is>
       </c>
     </row>
@@ -12717,7 +12717,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -12725,14 +12725,14 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>1.85</v>
+        <v>1.2</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>2.02</v>
+        <v>1.23</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.44</v>
+        <v>5.72</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.86</v>
+        <v>6.45</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>12/11/2023 13:57</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>3.46</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>3.01</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>12/11/2023 13:57</t>
+          <t>12/11/2023 13:58</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-ilirija/2TI6kJv8/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-tabor-sezana/fRcoryXs/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>3.95</v>
+        <v>1.85</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>4.6</v>
+        <v>2.02</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>12/11/2023 13:51</t>
+          <t>12/11/2023 13:57</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.54</v>
+        <v>3.44</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.83</v>
+        <v>3.86</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>12/11/2023 13:51</t>
+          <t>12/11/2023 13:57</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>1.71</v>
+        <v>3.46</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>1.65</v>
+        <v>3.01</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>12/11/2023 13:51</t>
+          <t>12/11/2023 13:57</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-primorje/lpLInHOQ/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-ilirija/2TI6kJv8/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>1.2</v>
+        <v>3.95</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>1.23</v>
+        <v>4.6</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>12/11/2023 13:57</t>
+          <t>12/11/2023 13:51</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>5.72</v>
+        <v>3.54</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>6.45</v>
+        <v>3.83</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 13:51</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>8.220000000000001</v>
+        <v>1.71</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>8.199999999999999</v>
+        <v>1.65</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>12/11/2023 13:58</t>
+          <t>12/11/2023 13:51</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-tabor-sezana/fRcoryXs/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-primorje/lpLInHOQ/</t>
         </is>
       </c>
     </row>
@@ -13058,6 +13058,98 @@
       <c r="V137" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-bistrica/UuxElev8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45247.625</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>NK Krka</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>2</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Dravinja</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>16/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>17/11/2023 14:44</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>16/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>17/11/2023 14:46</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>16/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>17/11/2023 14:44</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-dravinja/Ctod0zgQ/</t>
         </is>
       </c>
     </row>

--- a/2023/slovenia_2-snl_2023-2024.xlsx
+++ b/2023/slovenia_2-snl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V138"/>
+  <dimension ref="A1:V145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.49</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>28/07/2023 06:12</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>29/07/2023 17:59</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.43</v>
+        <v>3.29</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>28/07/2023 06:12</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.62</v>
+        <v>3.16</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>29/07/2023 17:59</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>28/07/2023 06:12</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.72</v>
+        <v>2.07</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>29/07/2023 17:59</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-ilirija/6PRxXGfF/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-nd-gorica/O0xYXdu9/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.49</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>28/07/2023 06:12</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 17:59</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.29</v>
+        <v>3.43</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>28/07/2023 06:12</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.16</v>
+        <v>3.62</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 17:59</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>28/07/2023 06:12</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.07</v>
+        <v>2.72</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 17:59</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-nd-gorica/O0xYXdu9/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-ilirija/6PRxXGfF/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>13/08/2023 16:02</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.65</v>
+        <v>3.56</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,32 +1716,32 @@
         </is>
       </c>
       <c r="P14" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>13/08/2023 17:17</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>12/08/2023 05:43</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
         <v>3.51</v>
       </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>13/08/2023 16:02</t>
-        </is>
-      </c>
-      <c r="R14" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>12/08/2023 05:43</t>
-        </is>
-      </c>
-      <c r="T14" t="n">
-        <v>3.5</v>
-      </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>13/08/2023 16:02</t>
+          <t>13/08/2023 17:17</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bilje/b3Awl9V6/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-jadran-dekani/OpIQjBol/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Bilje</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Jadran Dekani</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 16:02</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.56</v>
+        <v>3.65</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.68</v>
+        <v>3.51</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 16:02</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>4.09</v>
+        <v>4.07</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.51</v>
+        <v>3.5</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>13/08/2023 17:17</t>
+          <t>13/08/2023 16:02</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-jadran-dekani/OpIQjBol/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bilje/b3Awl9V6/</t>
         </is>
       </c>
     </row>
@@ -2137,34 +2137,34 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.77</v>
+        <v>2</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>19/08/2023 09:20</t>
+          <t>18/08/2023 05:42</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.77</v>
+        <v>2.09</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>19/08/2023 09:20</t>
+          <t>19/08/2023 17:05</t>
         </is>
       </c>
       <c r="N19" t="n">
@@ -2172,36 +2172,36 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>19/08/2023 09:20</t>
+          <t>18/08/2023 05:42</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.28</v>
+        <v>3.29</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>19/08/2023 15:31</t>
+          <t>19/08/2023 17:05</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.36</v>
+        <v>3.1</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>19/08/2023 09:20</t>
+          <t>18/08/2023 05:42</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.36</v>
+        <v>3.3</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>19/08/2023 09:20</t>
+          <t>19/08/2023 17:05</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-triglav/z3lRfu4J/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-beltinci/l6hVgaJP/</t>
         </is>
       </c>
     </row>
@@ -2413,34 +2413,34 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>2.77</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>18/08/2023 05:42</t>
+          <t>19/08/2023 09:20</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.09</v>
+        <v>2.77</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>19/08/2023 17:05</t>
+          <t>19/08/2023 09:20</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -2448,36 +2448,36 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>18/08/2023 05:42</t>
+          <t>19/08/2023 09:20</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.29</v>
+        <v>3.28</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>19/08/2023 17:05</t>
+          <t>19/08/2023 15:31</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.1</v>
+        <v>2.36</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>18/08/2023 05:42</t>
+          <t>19/08/2023 09:20</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.3</v>
+        <v>2.36</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>19/08/2023 17:05</t>
+          <t>19/08/2023 09:20</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-beltinci/l6hVgaJP/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-triglav/z3lRfu4J/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,63 +2789,63 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>28/08/2023 22:57</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.57</v>
+        <v>1.53</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>29/08/2023 16:48</t>
+          <t>29/08/2023 16:49</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.2</v>
+        <v>4.67</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>28/08/2023 22:57</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.46</v>
+        <v>4.07</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>29/08/2023 16:48</t>
+          <t>29/08/2023 16:49</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.37</v>
+        <v>6.1</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>04/08/2023 05:42</t>
+          <t>28/08/2023 22:57</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.46</v>
+        <v>5.36</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>29/08/2023 16:48</t>
+          <t>29/08/2023 16:49</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-nafta/6mAPNCH1/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-tolmin/IqDCqfvL/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,63 +2881,63 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>28/08/2023 22:57</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.53</v>
+        <v>2.57</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>29/08/2023 16:49</t>
+          <t>29/08/2023 16:48</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>4.67</v>
+        <v>3.2</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>28/08/2023 22:57</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.07</v>
+        <v>3.46</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>29/08/2023 16:49</t>
+          <t>29/08/2023 16:48</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>6.1</v>
+        <v>2.37</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>28/08/2023 22:57</t>
+          <t>04/08/2023 05:42</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>5.36</v>
+        <v>2.46</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>29/08/2023 16:49</t>
+          <t>29/08/2023 16:48</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-tolmin/IqDCqfvL/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-nafta/6mAPNCH1/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Jadran Dekani</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
         <v>3</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Nafta</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.33</v>
+        <v>2.84</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:27</t>
+          <t>02/09/2023 16:21</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.25</v>
+        <v>3.12</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.38</v>
+        <v>3.36</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:27</t>
+          <t>02/09/2023 16:21</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.77</v>
+        <v>2.3</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:27</t>
+          <t>02/09/2023 16:21</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-nafta/GKUtkAXc/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-jadran-dekani/YeuxjjIi/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Nafta</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Jadran Dekani</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>3</v>
-      </c>
       <c r="J35" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.84</v>
+        <v>2.33</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>02/09/2023 16:21</t>
+          <t>02/09/2023 16:27</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.12</v>
+        <v>3.25</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.36</v>
+        <v>3.38</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>02/09/2023 16:21</t>
+          <t>02/09/2023 16:27</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.3</v>
+        <v>2.77</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>02/09/2023 16:21</t>
+          <t>02/09/2023 16:27</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-jadran-dekani/YeuxjjIi/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-nafta/GKUtkAXc/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,14 +3801,14 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>2.14</v>
+        <v>1.89</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.08</v>
+        <v>1.71</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>02/09/2023 16:22</t>
+          <t>03/09/2023 16:29</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.28</v>
+        <v>3.44</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.5</v>
+        <v>4.26</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>03/09/2023 14:34</t>
+          <t>03/09/2023 16:29</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.81</v>
+        <v>3.21</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.08</v>
+        <v>3.57</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>03/09/2023 12:42</t>
+          <t>03/09/2023 16:29</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-bistrica/UPPMqFeI/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-bilje/OpYlml2A/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.61</v>
+        <v>2.08</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>02/09/2023 11:38</t>
+          <t>02/09/2023 16:22</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.21</v>
+        <v>3.28</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.32</v>
+        <v>3.5</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>03/09/2023 14:31</t>
+          <t>03/09/2023 14:34</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.74</v>
+        <v>2.81</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.46</v>
+        <v>3.08</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>02/09/2023 11:38</t>
+          <t>03/09/2023 12:42</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-nk-krka/6kmjSnQp/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-bistrica/UPPMqFeI/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.89</v>
+        <v>2.22</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.71</v>
+        <v>2.61</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>03/09/2023 16:29</t>
+          <t>02/09/2023 11:38</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.44</v>
+        <v>3.21</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>4.26</v>
+        <v>3.32</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>03/09/2023 16:29</t>
+          <t>03/09/2023 14:31</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.21</v>
+        <v>2.74</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.57</v>
+        <v>2.46</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>03/09/2023 16:29</t>
+          <t>02/09/2023 11:38</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-bilje/OpYlml2A/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-nk-krka/6kmjSnQp/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,63 +4445,63 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1.19</v>
+        <v>2.41</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>09/09/2023 13:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.29</v>
+        <v>3.4</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:15</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>6.85</v>
+        <v>3.23</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>09/09/2023 13:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>5.9</v>
+        <v>3.56</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:14</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>8.869999999999999</v>
+        <v>2.54</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>09/09/2023 13:42</t>
+          <t>08/09/2023 04:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>7.25</v>
+        <v>1.91</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:15</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-tabor-sezana/hMwQvQ9j/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-beltinci/vJZLu6fp/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,63 +4537,63 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.93</v>
+        <v>1.19</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 13:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.32</v>
+        <v>1.29</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.41</v>
+        <v>6.85</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 13:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.53</v>
+        <v>5.9</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>09/09/2023 16:20</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.15</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>08/09/2023 04:42</t>
+          <t>09/09/2023 13:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.69</v>
+        <v>7.25</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>09/09/2023 16:21</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-fuzinar/YHGC2T1c/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nafta-tabor-sezana/hMwQvQ9j/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,14 +4629,14 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.41</v>
+        <v>1.93</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3.4</v>
+        <v>2.32</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>09/09/2023 16:15</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.23</v>
+        <v>3.41</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.56</v>
+        <v>3.53</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>09/09/2023 16:14</t>
+          <t>09/09/2023 16:20</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.54</v>
+        <v>3.15</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>1.91</v>
+        <v>2.69</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>09/09/2023 16:15</t>
+          <t>09/09/2023 16:21</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-beltinci/vJZLu6fp/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-fuzinar/YHGC2T1c/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>2.44</v>
+        <v>1.84</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:59</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.45</v>
+        <v>3.42</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.46</v>
+        <v>4.15</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:46</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-ilirija/dY8ySqV8/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bistrica/je8uR3pF/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>1.84</v>
+        <v>2.44</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.4</v>
+        <v>3.32</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.42</v>
+        <v>2.45</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.15</v>
+        <v>2.46</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>23/09/2023 15:46</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-bistrica/je8uR3pF/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-ilirija/dY8ySqV8/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>3.15</v>
+        <v>3.01</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.52</v>
+        <v>3.77</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:42</t>
+          <t>24/09/2023 15:32</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.16</v>
+        <v>3.29</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.17</v>
+        <v>3.27</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:41</t>
+          <t>24/09/2023 15:39</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>24/09/2023 15:41</t>
+          <t>24/09/2023 15:39</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-jadran-dekani/GxhKJLxk/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-nd-gorica/IsAXSPF2/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Beltinci</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>1.4</v>
+        <v>3.15</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.38</v>
+        <v>3.52</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>24/09/2023 15:43</t>
+          <t>24/09/2023 15:42</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>4.36</v>
+        <v>3.16</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>4.76</v>
+        <v>3.17</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>24/09/2023 15:54</t>
+          <t>24/09/2023 15:41</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>5.39</v>
+        <v>2.06</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>6.65</v>
+        <v>2.06</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>24/09/2023 15:54</t>
+          <t>24/09/2023 15:41</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-dravinja/n3mGK1Nr/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-jadran-dekani/GxhKJLxk/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>Beltinci</t>
         </is>
       </c>
       <c r="G71" t="n">
+        <v>3</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Dravinja</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ND Gorica</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>3</v>
-      </c>
       <c r="J71" t="n">
-        <v>3.01</v>
+        <v>1.4</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>3.77</v>
+        <v>1.38</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>24/09/2023 15:32</t>
+          <t>24/09/2023 15:43</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.29</v>
+        <v>4.36</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.27</v>
+        <v>4.76</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>24/09/2023 15:39</t>
+          <t>24/09/2023 15:54</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.03</v>
+        <v>5.39</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>1.94</v>
+        <v>6.65</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>24/09/2023 15:39</t>
+          <t>24/09/2023 15:54</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-nd-gorica/IsAXSPF2/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/beltinci-dravinja/n3mGK1Nr/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J85" t="n">
-        <v>3.75</v>
+        <v>2.62</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.86</v>
+        <v>3.04</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>08/10/2023 15:27</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.48</v>
+        <v>3.22</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.82</v>
+        <v>3.36</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>08/10/2023 15:28</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>1.74</v>
+        <v>2.29</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.11</v>
+        <v>2.18</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>08/10/2023 15:27</t>
+          <t>08/10/2023 15:01</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-nk-krka/0viIzEDt/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-nafta/jTqVXBca/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J87" t="n">
-        <v>2.62</v>
+        <v>3.75</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>3.04</v>
+        <v>2.86</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 15:27</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.22</v>
+        <v>3.48</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.36</v>
+        <v>3.82</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 15:28</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.29</v>
+        <v>1.74</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>08/10/2023 15:01</t>
+          <t>08/10/2023 15:27</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-nafta/jTqVXBca/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-nk-krka/0viIzEDt/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>3.73</v>
+        <v>1.51</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>4.44</v>
+        <v>1.71</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>13/10/2023 09:50</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.66</v>
+        <v>3.98</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.91</v>
+        <v>3.79</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>14/10/2023 13:04</t>
+          <t>14/10/2023 14:51</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>1.7</v>
+        <v>4.65</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>1.64</v>
+        <v>4.19</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>13/10/2023 09:50</t>
+          <t>14/10/2023 14:44</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-primorje/Aw04nBCh/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tolmin/bazjTmCU/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="I92" t="n">
         <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>2.1</v>
+        <v>2.62</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,48 +8876,48 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.22</v>
+        <v>2.17</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
+          <t>14/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
           <t>14/10/2023 14:45</t>
         </is>
       </c>
-      <c r="N92" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="O92" t="inlineStr">
+      <c r="R92" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S92" t="inlineStr">
         <is>
           <t>13/10/2023 02:13</t>
         </is>
       </c>
-      <c r="P92" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>14/10/2023 14:45</t>
-        </is>
-      </c>
-      <c r="R92" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>13/10/2023 02:13</t>
-        </is>
-      </c>
       <c r="T92" t="n">
-        <v>2.83</v>
+        <v>2.87</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>14/10/2023 14:45</t>
+          <t>14/10/2023 14:58</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-rudar/OtrwWkSB/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-bilje/xpnsV9sI/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Primorje</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Tolmin</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
       <c r="J93" t="n">
-        <v>1.51</v>
+        <v>3.73</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.71</v>
+        <v>4.44</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>13/10/2023 09:50</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.98</v>
+        <v>3.66</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.79</v>
+        <v>3.91</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>14/10/2023 14:51</t>
+          <t>14/10/2023 13:04</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>4.65</v>
+        <v>1.7</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>4.19</v>
+        <v>1.64</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>14/10/2023 14:44</t>
+          <t>13/10/2023 09:50</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-tolmin/bazjTmCU/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-primorje/Aw04nBCh/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2.62</v>
+        <v>2.1</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.17</v>
+        <v>2.22</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>14/10/2023 14:58</t>
+          <t>14/10/2023 14:45</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.24</v>
+        <v>3.17</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.62</v>
+        <v>3.54</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.33</v>
+        <v>2.97</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.87</v>
+        <v>2.83</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>14/10/2023 14:58</t>
+          <t>14/10/2023 14:45</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-bilje/xpnsV9sI/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-rudar/OtrwWkSB/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Tabor Sezana</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>NK Krka</t>
+          <t>Fuzinar</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J98" t="n">
-        <v>2.55</v>
+        <v>2.71</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.55</v>
+        <v>3.21</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>20/10/2023 14:58</t>
+          <t>20/10/2023 14:55</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.22</v>
+        <v>3.31</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.76</v>
+        <v>3.81</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>20/10/2023 14:58</t>
+          <t>20/10/2023 14:59</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>2.36</v>
+        <v>2.19</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>20/10/2023 14:58</t>
+          <t>20/10/2023 14:59</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-nk-krka/nqeTt7tU/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-fuzinar/I33Cpks5/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>NK Krka</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>20/10/2023 14:57</t>
+          <t>20/10/2023 14:58</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.44</v>
+        <v>3.22</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.56</v>
+        <v>3.76</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>20/10/2023 14:57</t>
+          <t>20/10/2023 14:58</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.74</v>
+        <v>2.36</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>4.32</v>
+        <v>2.35</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>20/10/2023 14:57</t>
+          <t>20/10/2023 14:58</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-bistrica/hMePsmRN/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-nk-krka/nqeTt7tU/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Tabor Sezana</t>
+          <t>Grosuplje</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Fuzinar</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>2.71</v>
+        <v>1.75</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>3.21</v>
+        <v>1.75</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>20/10/2023 14:55</t>
+          <t>20/10/2023 14:57</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.31</v>
+        <v>3.44</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.81</v>
+        <v>3.56</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>20/10/2023 14:59</t>
+          <t>20/10/2023 14:57</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>2.19</v>
+        <v>3.74</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>1.95</v>
+        <v>4.32</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>20/10/2023 14:59</t>
+          <t>20/10/2023 14:57</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-fuzinar/I33Cpks5/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/grosuplje-bistrica/hMePsmRN/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Tolmin</t>
+          <t>Rudar</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>2.56</v>
+        <v>1.83</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.52</v>
+        <v>1.9</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.16</v>
+        <v>3.49</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.49</v>
+        <v>3.67</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.5</v>
+        <v>3.48</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>21/10/2023 14:43</t>
+          <t>21/10/2023 14:41</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-ilirija/EVdLrTBH/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-dravinja/8n1fxRlo/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Rudar</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>1.83</v>
+        <v>2.56</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.9</v>
+        <v>2.52</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
@@ -9988,40 +9988,40 @@
         </is>
       </c>
       <c r="N104" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
         <v>3.49</v>
       </c>
-      <c r="O104" t="inlineStr">
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S104" t="inlineStr">
         <is>
           <t>20/10/2023 02:12</t>
         </is>
       </c>
-      <c r="P104" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="Q104" t="inlineStr">
+      <c r="T104" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U104" t="inlineStr">
         <is>
           <t>21/10/2023 14:43</t>
         </is>
       </c>
-      <c r="R104" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>20/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T104" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="U104" t="inlineStr">
-        <is>
-          <t>21/10/2023 14:41</t>
-        </is>
-      </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/rudar-dravinja/8n1fxRlo/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tolmin-ilirija/EVdLrTBH/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>NK Bistrica</t>
+          <t>Jadran Dekani</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>1.92</v>
+        <v>2.19</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.13</v>
+        <v>2.4</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>28/10/2023 13:53</t>
+          <t>28/10/2023 13:56</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.44</v>
+        <v>3.11</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.39</v>
+        <v>3.35</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>28/10/2023 13:53</t>
+          <t>28/10/2023 13:36</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.16</v>
+        <v>2.86</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>3.13</v>
+        <v>2.7</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>28/10/2023 13:53</t>
+          <t>28/10/2023 13:56</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-bilje/vXWgcSQA/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-triglav/lrvs0Uth/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Jadran Dekani</t>
+          <t>NK Bistrica</t>
         </is>
       </c>
       <c r="G114" t="n">
+        <v>4</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Bilje</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
         <v>3</v>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Triglav</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
       <c r="J114" t="n">
-        <v>2.19</v>
+        <v>1.92</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.4</v>
+        <v>2.13</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>28/10/2023 13:56</t>
+          <t>28/10/2023 13:53</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.11</v>
+        <v>3.44</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.35</v>
+        <v>3.39</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>28/10/2023 13:36</t>
+          <t>28/10/2023 13:53</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>2.86</v>
+        <v>3.16</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.7</v>
+        <v>3.13</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>28/10/2023 13:56</t>
+          <t>28/10/2023 13:53</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/jadran-dekani-triglav/lrvs0Uth/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-bilje/vXWgcSQA/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Ilirija</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Grosuplje</t>
+          <t>Tolmin</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J118" t="n">
-        <v>3.17</v>
+        <v>1.27</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>3.45</v>
+        <v>1.32</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>29/10/2023 13:45</t>
+          <t>29/10/2023 11:36</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.4</v>
+        <v>4.94</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>29/10/2023 13:45</t>
+          <t>29/10/2023 12:03</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>1.98</v>
+        <v>7.14</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2</v>
+        <v>7.46</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>29/10/2023 13:45</t>
+          <t>29/10/2023 11:36</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-grosuplje/hzybdntH/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-tolmin/ncz2e6eN/</t>
         </is>
       </c>
     </row>
@@ -11337,71 +11337,71 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Ilirija</t>
         </is>
       </c>
       <c r="G119" t="n">
+        <v>4</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Grosuplje</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:45</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:45</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
         <v>2</v>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Tolmin</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
-        <v>3</v>
-      </c>
-      <c r="J119" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>28/10/2023 03:12</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>29/10/2023 11:36</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
-        <v>5</v>
-      </c>
-      <c r="O119" t="inlineStr">
-        <is>
-          <t>28/10/2023 03:12</t>
-        </is>
-      </c>
-      <c r="P119" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="Q119" t="inlineStr">
-        <is>
-          <t>29/10/2023 12:03</t>
-        </is>
-      </c>
-      <c r="R119" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="S119" t="inlineStr">
-        <is>
-          <t>28/10/2023 03:12</t>
-        </is>
-      </c>
-      <c r="T119" t="n">
-        <v>7.46</v>
-      </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>29/10/2023 11:36</t>
+          <t>29/10/2023 13:45</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-tolmin/ncz2e6eN/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-grosuplje/hzybdntH/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Bilje</t>
+          <t>Dravinja</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>ND Gorica</t>
+          <t>Triglav</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>1</v>
       </c>
       <c r="J132" t="n">
-        <v>3.31</v>
+        <v>2.58</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>4.22</v>
+        <v>2.8</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>11/11/2023 13:59</t>
+          <t>11/11/2023 13:39</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.41</v>
+        <v>3.09</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>4.12</v>
+        <v>3.34</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>11/11/2023 13:59</t>
+          <t>11/11/2023 13:39</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>1.87</v>
+        <v>2.4</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>1.65</v>
+        <v>2.34</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>11/11/2023 13:59</t>
+          <t>11/11/2023 13:39</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-nd-gorica/tKHAlwfE/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-triglav/dSw6jH9e/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Dravinja</t>
+          <t>Bilje</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Triglav</t>
+          <t>ND Gorica</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>2.58</v>
+        <v>3.31</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>2.8</v>
+        <v>4.22</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>11/11/2023 13:39</t>
+          <t>11/11/2023 13:59</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.09</v>
+        <v>3.41</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.34</v>
+        <v>4.12</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>11/11/2023 13:39</t>
+          <t>11/11/2023 13:59</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>2.4</v>
+        <v>1.87</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>2.34</v>
+        <v>1.65</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>11/11/2023 13:39</t>
+          <t>11/11/2023 13:59</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovenia/2-snl/dravinja-triglav/dSw6jH9e/</t>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bilje-nd-gorica/tKHAlwfE/</t>
         </is>
       </c>
     </row>
@@ -13150,6 +13150,650 @@
       <c r="V138" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/slovenia/2-snl/nk-krka-dravinja/Ctod0zgQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45248.5625</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Ilirija</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>2</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Nafta</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:27</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:28</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:28</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/ilirija-nafta/GEim2dOD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45248.5625</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>ND Gorica</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>2</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:22</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:22</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:22</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/nd-gorica-rudar/2B35wDoD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45248.5625</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Tabor Sezana</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>2</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Tolmin</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>2</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/tabor-sezana-tolmin/ShBhtF1f/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45248.64583333334</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Triglav</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>2</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Beltinci</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>17/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:35</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>17/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:35</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>17/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:35</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/triglav-beltinci/YHdksenl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45248.75</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Fuzinar</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>3</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Bilje</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>17/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>18/11/2023 17:56</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>17/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>18/11/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>17/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T143" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>18/11/2023 17:57</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/fuzinar-bilje/l8a1vgW6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45249.5625</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>NK Bistrica</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Jadran Dekani</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:27</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:27</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:27</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/bistrica-jadran-dekani/f5ji1GwK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>slovenia</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2-snl</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45249.5625</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Primorje</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Grosuplje</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:10</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:10</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:10</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovenia/2-snl/primorje-grosuplje/6qAduZG0/</t>
         </is>
       </c>
     </row>
